--- a/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
+++ b/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah 23\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudha.gcupadhaya\OneDrive - Washington State University (email.wsu.edu)\Desktop\LabDocuments\FungalCulture\VdIsolatesList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B0C038-6CDE-4A05-A7A8-D0E45E32B633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{02B0C038-6CDE-4A05-A7A8-D0E45E32B633}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B0473D5-148E-44C1-B927-D56B99351831}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Recultured 2021" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Imaged" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8054" uniqueCount="1394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8304" uniqueCount="1399">
   <si>
     <t>Plate</t>
   </si>
@@ -4247,6 +4248,21 @@
   </si>
   <si>
     <t>Vt.USDA29</t>
+  </si>
+  <si>
+    <t>Oct_2020</t>
+  </si>
+  <si>
+    <t>2B (4B)</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>HSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: Hyperspectral images of these isolates are already taken on October 2020. </t>
   </si>
 </sst>
 </file>
@@ -4351,7 +4367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4484,6 +4500,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -4517,7 +4551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4938,6 +4972,44 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5220,8 +5292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1141"/>
   <sheetViews>
-    <sheetView topLeftCell="A289" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C290" sqref="C1:C1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G316" sqref="G316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31874,8 +31946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8ED01F-2F3E-43EB-B954-6EDC9D012A16}">
   <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33537,8 +33609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2726E2F-E8EA-472C-A800-F178F067C4BF}">
   <dimension ref="A1:E1135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A499" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E505" sqref="E505"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49594,4 +49666,1914 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAB2BD6-6402-43B4-8817-A6E2ACF3D94A}">
+  <dimension ref="A1:W31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="146">
+        <v>10</v>
+      </c>
+      <c r="B3" s="146">
+        <v>1</v>
+      </c>
+      <c r="C3" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="147">
+        <v>52</v>
+      </c>
+      <c r="E3" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="146" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="146">
+        <v>1996</v>
+      </c>
+      <c r="K3" s="146" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="146" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N3" s="146">
+        <v>28</v>
+      </c>
+      <c r="O3" s="146">
+        <v>13</v>
+      </c>
+      <c r="P3" s="146">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="146">
+        <v>15</v>
+      </c>
+      <c r="R3" s="146">
+        <v>28</v>
+      </c>
+      <c r="S3" s="146">
+        <v>19</v>
+      </c>
+      <c r="T3" s="146">
+        <v>29</v>
+      </c>
+      <c r="U3" s="146">
+        <v>5</v>
+      </c>
+      <c r="V3" s="146">
+        <v>4</v>
+      </c>
+      <c r="W3" s="146">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="146">
+        <v>16</v>
+      </c>
+      <c r="B4" s="146">
+        <v>1</v>
+      </c>
+      <c r="C4" s="146" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="147">
+        <v>74</v>
+      </c>
+      <c r="E4" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="146" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="146">
+        <v>1996</v>
+      </c>
+      <c r="K4" s="146" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="146" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N4" s="146">
+        <v>28</v>
+      </c>
+      <c r="O4" s="146">
+        <v>13</v>
+      </c>
+      <c r="P4" s="146">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="146">
+        <v>15</v>
+      </c>
+      <c r="R4" s="146">
+        <v>28</v>
+      </c>
+      <c r="S4" s="146">
+        <v>19</v>
+      </c>
+      <c r="T4" s="146">
+        <v>29</v>
+      </c>
+      <c r="U4" s="146">
+        <v>5</v>
+      </c>
+      <c r="V4" s="146">
+        <v>4</v>
+      </c>
+      <c r="W4" s="146">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="146">
+        <v>17</v>
+      </c>
+      <c r="B5" s="146">
+        <v>1</v>
+      </c>
+      <c r="C5" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="147">
+        <v>103</v>
+      </c>
+      <c r="E5" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="146" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="146">
+        <v>1996</v>
+      </c>
+      <c r="K5" s="146" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="146" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N5" s="146">
+        <v>28</v>
+      </c>
+      <c r="O5" s="146">
+        <v>13</v>
+      </c>
+      <c r="P5" s="146">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="146">
+        <v>15</v>
+      </c>
+      <c r="R5" s="146">
+        <v>28</v>
+      </c>
+      <c r="S5" s="146">
+        <v>19</v>
+      </c>
+      <c r="T5" s="146">
+        <v>29</v>
+      </c>
+      <c r="U5" s="146">
+        <v>5</v>
+      </c>
+      <c r="V5" s="146">
+        <v>4</v>
+      </c>
+      <c r="W5" s="146">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="146">
+        <v>18</v>
+      </c>
+      <c r="B6" s="146">
+        <v>1</v>
+      </c>
+      <c r="C6" s="146" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="147">
+        <v>104</v>
+      </c>
+      <c r="E6" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="146" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="146">
+        <v>1996</v>
+      </c>
+      <c r="K6" s="146" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="146" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N6" s="146">
+        <v>28</v>
+      </c>
+      <c r="O6" s="146">
+        <v>13</v>
+      </c>
+      <c r="P6" s="146">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="146">
+        <v>15</v>
+      </c>
+      <c r="R6" s="146">
+        <v>28</v>
+      </c>
+      <c r="S6" s="146">
+        <v>19</v>
+      </c>
+      <c r="T6" s="146">
+        <v>29</v>
+      </c>
+      <c r="U6" s="146">
+        <v>5</v>
+      </c>
+      <c r="V6" s="146">
+        <v>4</v>
+      </c>
+      <c r="W6" s="146">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="146">
+        <v>19</v>
+      </c>
+      <c r="B7" s="146">
+        <v>1</v>
+      </c>
+      <c r="C7" s="146" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="147">
+        <v>121</v>
+      </c>
+      <c r="E7" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="146" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="146">
+        <v>1996</v>
+      </c>
+      <c r="K7" s="146" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="146" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N7" s="146">
+        <v>28</v>
+      </c>
+      <c r="O7" s="146">
+        <v>13</v>
+      </c>
+      <c r="P7" s="146">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="146">
+        <v>15</v>
+      </c>
+      <c r="R7" s="146">
+        <v>28</v>
+      </c>
+      <c r="S7" s="146">
+        <v>19</v>
+      </c>
+      <c r="T7" s="146">
+        <v>29</v>
+      </c>
+      <c r="U7" s="146">
+        <v>5</v>
+      </c>
+      <c r="V7" s="146">
+        <v>4</v>
+      </c>
+      <c r="W7" s="146">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="146">
+        <v>37</v>
+      </c>
+      <c r="B8" s="146">
+        <v>1</v>
+      </c>
+      <c r="C8" s="146" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="147">
+        <v>80</v>
+      </c>
+      <c r="E8" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="146" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="146">
+        <v>1996</v>
+      </c>
+      <c r="K8" s="146" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="146" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N8" s="146">
+        <v>28</v>
+      </c>
+      <c r="O8" s="146">
+        <v>13</v>
+      </c>
+      <c r="P8" s="146">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="146">
+        <v>15</v>
+      </c>
+      <c r="R8" s="146">
+        <v>28</v>
+      </c>
+      <c r="S8" s="146">
+        <v>19</v>
+      </c>
+      <c r="T8" s="146">
+        <v>29</v>
+      </c>
+      <c r="U8" s="146">
+        <v>5</v>
+      </c>
+      <c r="V8" s="146">
+        <v>4</v>
+      </c>
+      <c r="W8" s="146">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="146">
+        <v>61</v>
+      </c>
+      <c r="B9" s="146">
+        <v>1</v>
+      </c>
+      <c r="C9" s="146" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="147">
+        <v>111</v>
+      </c>
+      <c r="E9" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="146" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="146">
+        <v>1996</v>
+      </c>
+      <c r="K9" s="146" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="146" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N9" s="146">
+        <v>28</v>
+      </c>
+      <c r="O9" s="146">
+        <v>13</v>
+      </c>
+      <c r="P9" s="146">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="146">
+        <v>15</v>
+      </c>
+      <c r="R9" s="146">
+        <v>28</v>
+      </c>
+      <c r="S9" s="146">
+        <v>19</v>
+      </c>
+      <c r="T9" s="146">
+        <v>29</v>
+      </c>
+      <c r="U9" s="146">
+        <v>5</v>
+      </c>
+      <c r="V9" s="146">
+        <v>4</v>
+      </c>
+      <c r="W9" s="146">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="146">
+        <v>69</v>
+      </c>
+      <c r="B10" s="146">
+        <v>1</v>
+      </c>
+      <c r="C10" s="146" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="147">
+        <v>45</v>
+      </c>
+      <c r="E10" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="146">
+        <v>1996</v>
+      </c>
+      <c r="K10" s="146" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="146" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N10" s="146">
+        <v>28</v>
+      </c>
+      <c r="O10" s="146">
+        <v>13</v>
+      </c>
+      <c r="P10" s="146">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="146">
+        <v>15</v>
+      </c>
+      <c r="R10" s="146">
+        <v>28</v>
+      </c>
+      <c r="S10" s="146">
+        <v>19</v>
+      </c>
+      <c r="T10" s="146">
+        <v>29</v>
+      </c>
+      <c r="U10" s="146">
+        <v>5</v>
+      </c>
+      <c r="V10" s="146">
+        <v>4</v>
+      </c>
+      <c r="W10" s="146">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="146">
+        <v>72</v>
+      </c>
+      <c r="B11" s="146">
+        <v>2</v>
+      </c>
+      <c r="C11" s="146" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="147">
+        <v>62</v>
+      </c>
+      <c r="E11" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="146">
+        <v>1996</v>
+      </c>
+      <c r="K11" s="146" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="146" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N11" s="146">
+        <v>28</v>
+      </c>
+      <c r="O11" s="146">
+        <v>13</v>
+      </c>
+      <c r="P11" s="146">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="146">
+        <v>15</v>
+      </c>
+      <c r="R11" s="146">
+        <v>28</v>
+      </c>
+      <c r="S11" s="146">
+        <v>19</v>
+      </c>
+      <c r="T11" s="146">
+        <v>29</v>
+      </c>
+      <c r="U11" s="146">
+        <v>5</v>
+      </c>
+      <c r="V11" s="146">
+        <v>4</v>
+      </c>
+      <c r="W11" s="146">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="148" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="148">
+        <v>120</v>
+      </c>
+      <c r="B12" s="148">
+        <v>4</v>
+      </c>
+      <c r="C12" s="148" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="149" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" s="148" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="148">
+        <v>2010</v>
+      </c>
+      <c r="K12" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="148" t="s">
+        <v>168</v>
+      </c>
+      <c r="M12" s="148" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N12" s="148">
+        <v>25</v>
+      </c>
+      <c r="O12" s="148">
+        <v>9</v>
+      </c>
+      <c r="P12" s="148">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="148">
+        <v>13</v>
+      </c>
+      <c r="R12" s="148">
+        <v>27</v>
+      </c>
+      <c r="S12" s="148">
+        <v>16</v>
+      </c>
+      <c r="T12" s="148">
+        <v>5</v>
+      </c>
+      <c r="U12" s="148">
+        <v>2</v>
+      </c>
+      <c r="V12" s="148">
+        <v>2</v>
+      </c>
+      <c r="W12" s="148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="148" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="148">
+        <v>122</v>
+      </c>
+      <c r="B13" s="148">
+        <v>3</v>
+      </c>
+      <c r="C13" s="148" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="149">
+        <v>653</v>
+      </c>
+      <c r="E13" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="148" t="s">
+        <v>191</v>
+      </c>
+      <c r="I13" s="148" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" s="148">
+        <v>1995</v>
+      </c>
+      <c r="K13" s="148" t="s">
+        <v>192</v>
+      </c>
+      <c r="L13" s="148" t="s">
+        <v>168</v>
+      </c>
+      <c r="M13" s="148" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N13" s="148">
+        <v>25</v>
+      </c>
+      <c r="O13" s="148">
+        <v>9</v>
+      </c>
+      <c r="P13" s="148">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="148">
+        <v>13</v>
+      </c>
+      <c r="R13" s="148">
+        <v>27</v>
+      </c>
+      <c r="S13" s="148">
+        <v>16</v>
+      </c>
+      <c r="T13" s="148">
+        <v>5</v>
+      </c>
+      <c r="U13" s="148">
+        <v>2</v>
+      </c>
+      <c r="V13" s="148">
+        <v>2</v>
+      </c>
+      <c r="W13" s="148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="148" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="148">
+        <v>152</v>
+      </c>
+      <c r="B14" s="148">
+        <v>4</v>
+      </c>
+      <c r="C14" s="148" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="149" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="148" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" s="148" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="148" t="s">
+        <v>237</v>
+      </c>
+      <c r="I14" s="148" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="148">
+        <v>2010</v>
+      </c>
+      <c r="K14" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="148" t="s">
+        <v>168</v>
+      </c>
+      <c r="M14" s="148" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N14" s="148">
+        <v>25</v>
+      </c>
+      <c r="O14" s="148">
+        <v>9</v>
+      </c>
+      <c r="P14" s="148">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="148">
+        <v>13</v>
+      </c>
+      <c r="R14" s="148">
+        <v>27</v>
+      </c>
+      <c r="S14" s="148">
+        <v>16</v>
+      </c>
+      <c r="T14" s="148">
+        <v>5</v>
+      </c>
+      <c r="U14" s="148">
+        <v>2</v>
+      </c>
+      <c r="V14" s="148">
+        <v>2</v>
+      </c>
+      <c r="W14" s="148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="148" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="148">
+        <v>156</v>
+      </c>
+      <c r="B15" s="148">
+        <v>4</v>
+      </c>
+      <c r="C15" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="149" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="148" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" s="148" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="148" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" s="148" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" s="148">
+        <v>2010</v>
+      </c>
+      <c r="K15" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="L15" s="148" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" s="148" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N15" s="148">
+        <v>25</v>
+      </c>
+      <c r="O15" s="148">
+        <v>9</v>
+      </c>
+      <c r="P15" s="148">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="148">
+        <v>13</v>
+      </c>
+      <c r="R15" s="148">
+        <v>27</v>
+      </c>
+      <c r="S15" s="148">
+        <v>16</v>
+      </c>
+      <c r="T15" s="148">
+        <v>5</v>
+      </c>
+      <c r="U15" s="148">
+        <v>2</v>
+      </c>
+      <c r="V15" s="148">
+        <v>2</v>
+      </c>
+      <c r="W15" s="148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="148" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="148">
+        <v>183</v>
+      </c>
+      <c r="B16" s="148">
+        <v>4</v>
+      </c>
+      <c r="C16" s="148" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="149" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="148" t="s">
+        <v>263</v>
+      </c>
+      <c r="I16" s="148" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="148">
+        <v>2010</v>
+      </c>
+      <c r="K16" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" s="148" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" s="148" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N16" s="148">
+        <v>25</v>
+      </c>
+      <c r="O16" s="148">
+        <v>9</v>
+      </c>
+      <c r="P16" s="148">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="148">
+        <v>13</v>
+      </c>
+      <c r="R16" s="148">
+        <v>27</v>
+      </c>
+      <c r="S16" s="148">
+        <v>16</v>
+      </c>
+      <c r="T16" s="148">
+        <v>5</v>
+      </c>
+      <c r="U16" s="148">
+        <v>2</v>
+      </c>
+      <c r="V16" s="148">
+        <v>2</v>
+      </c>
+      <c r="W16" s="148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="148" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="148">
+        <v>184</v>
+      </c>
+      <c r="B17" s="148">
+        <v>4</v>
+      </c>
+      <c r="C17" s="148" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="149" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="148" t="s">
+        <v>263</v>
+      </c>
+      <c r="J17" s="148">
+        <v>2010</v>
+      </c>
+      <c r="K17" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="148" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" s="148" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N17" s="148">
+        <v>25</v>
+      </c>
+      <c r="O17" s="148">
+        <v>9</v>
+      </c>
+      <c r="P17" s="148">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="148">
+        <v>13</v>
+      </c>
+      <c r="R17" s="148">
+        <v>27</v>
+      </c>
+      <c r="S17" s="148">
+        <v>16</v>
+      </c>
+      <c r="T17" s="148">
+        <v>5</v>
+      </c>
+      <c r="U17" s="148">
+        <v>2</v>
+      </c>
+      <c r="V17" s="148">
+        <v>2</v>
+      </c>
+      <c r="W17" s="148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="148" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="148">
+        <v>200</v>
+      </c>
+      <c r="B18" s="148">
+        <v>3</v>
+      </c>
+      <c r="C18" s="148" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="149" t="s">
+        <v>313</v>
+      </c>
+      <c r="E18" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="148" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" s="148" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="148">
+        <v>2007</v>
+      </c>
+      <c r="K18" s="148" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" s="148" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" s="148" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N18" s="148">
+        <v>25</v>
+      </c>
+      <c r="O18" s="148">
+        <v>9</v>
+      </c>
+      <c r="P18" s="148">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="148">
+        <v>13</v>
+      </c>
+      <c r="R18" s="148">
+        <v>27</v>
+      </c>
+      <c r="S18" s="148">
+        <v>16</v>
+      </c>
+      <c r="T18" s="148">
+        <v>5</v>
+      </c>
+      <c r="U18" s="148">
+        <v>2</v>
+      </c>
+      <c r="V18" s="148">
+        <v>2</v>
+      </c>
+      <c r="W18" s="148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="148" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="148">
+        <v>217</v>
+      </c>
+      <c r="B19" s="148">
+        <v>4</v>
+      </c>
+      <c r="C19" s="148" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="149" t="s">
+        <v>337</v>
+      </c>
+      <c r="E19" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="148" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="148" t="s">
+        <v>225</v>
+      </c>
+      <c r="H19" s="148" t="s">
+        <v>226</v>
+      </c>
+      <c r="I19" s="148" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="148">
+        <v>2010</v>
+      </c>
+      <c r="K19" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" s="148" t="s">
+        <v>336</v>
+      </c>
+      <c r="M19" s="148" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N19" s="148">
+        <v>24</v>
+      </c>
+      <c r="O19" s="148">
+        <v>9</v>
+      </c>
+      <c r="P19" s="148">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="148">
+        <v>13</v>
+      </c>
+      <c r="R19" s="148">
+        <v>27</v>
+      </c>
+      <c r="S19" s="148">
+        <v>16</v>
+      </c>
+      <c r="T19" s="148">
+        <v>5</v>
+      </c>
+      <c r="U19" s="148">
+        <v>2</v>
+      </c>
+      <c r="V19" s="148">
+        <v>2</v>
+      </c>
+      <c r="W19" s="148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" s="150" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="150">
+        <v>224</v>
+      </c>
+      <c r="B20" s="150">
+        <v>2</v>
+      </c>
+      <c r="C20" s="150" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="151" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" s="150" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F20" s="150" t="s">
+        <v>350</v>
+      </c>
+      <c r="H20" s="150" t="s">
+        <v>351</v>
+      </c>
+      <c r="I20" s="150" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="150">
+        <v>2001</v>
+      </c>
+      <c r="K20" s="150" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="150" t="s">
+        <v>352</v>
+      </c>
+      <c r="M20" s="150" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N20" s="150">
+        <v>24</v>
+      </c>
+      <c r="O20" s="150">
+        <v>14</v>
+      </c>
+      <c r="P20" s="150">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="150">
+        <v>11</v>
+      </c>
+      <c r="R20" s="150">
+        <v>30</v>
+      </c>
+      <c r="S20" s="150">
+        <v>16</v>
+      </c>
+      <c r="T20" s="150">
+        <v>5</v>
+      </c>
+      <c r="U20" s="150">
+        <v>2</v>
+      </c>
+      <c r="V20" s="150">
+        <v>10</v>
+      </c>
+      <c r="W20" s="150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="150" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="150">
+        <v>226</v>
+      </c>
+      <c r="B21" s="150">
+        <v>2</v>
+      </c>
+      <c r="C21" s="150" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="151">
+        <v>239</v>
+      </c>
+      <c r="E21" s="150" t="s">
+        <v>343</v>
+      </c>
+      <c r="F21" s="150" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="150" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="150">
+        <v>1995</v>
+      </c>
+      <c r="K21" s="150" t="s">
+        <v>192</v>
+      </c>
+      <c r="L21" s="150" t="s">
+        <v>352</v>
+      </c>
+      <c r="M21" s="150" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N21" s="150">
+        <v>24</v>
+      </c>
+      <c r="O21" s="150">
+        <v>14</v>
+      </c>
+      <c r="P21" s="150">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="150">
+        <v>11</v>
+      </c>
+      <c r="R21" s="150">
+        <v>30</v>
+      </c>
+      <c r="S21" s="150">
+        <v>16</v>
+      </c>
+      <c r="T21" s="150">
+        <v>5</v>
+      </c>
+      <c r="U21" s="150">
+        <v>2</v>
+      </c>
+      <c r="V21" s="150">
+        <v>10</v>
+      </c>
+      <c r="W21" s="150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="150" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="150">
+        <v>230</v>
+      </c>
+      <c r="B22" s="150">
+        <v>4</v>
+      </c>
+      <c r="C22" s="150" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="151" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" s="150" t="s">
+        <v>343</v>
+      </c>
+      <c r="F22" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="150" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="150" t="s">
+        <v>232</v>
+      </c>
+      <c r="I22" s="150" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="150">
+        <v>2010</v>
+      </c>
+      <c r="K22" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" s="150" t="s">
+        <v>352</v>
+      </c>
+      <c r="M22" s="150" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N22" s="150">
+        <v>24</v>
+      </c>
+      <c r="O22" s="150">
+        <v>14</v>
+      </c>
+      <c r="P22" s="150">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="150">
+        <v>11</v>
+      </c>
+      <c r="R22" s="150">
+        <v>30</v>
+      </c>
+      <c r="S22" s="150">
+        <v>16</v>
+      </c>
+      <c r="T22" s="150">
+        <v>5</v>
+      </c>
+      <c r="U22" s="150">
+        <v>2</v>
+      </c>
+      <c r="V22" s="150">
+        <v>10</v>
+      </c>
+      <c r="W22" s="150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="150" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="150">
+        <v>235</v>
+      </c>
+      <c r="B23" s="150">
+        <v>3</v>
+      </c>
+      <c r="C23" s="150" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="151">
+        <v>235</v>
+      </c>
+      <c r="E23" s="150" t="s">
+        <v>343</v>
+      </c>
+      <c r="F23" s="150" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" s="150" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="150">
+        <v>1995</v>
+      </c>
+      <c r="K23" s="150" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" s="150" t="s">
+        <v>362</v>
+      </c>
+      <c r="M23" s="150" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N23" s="150">
+        <v>24</v>
+      </c>
+      <c r="O23" s="150">
+        <v>15</v>
+      </c>
+      <c r="P23" s="150">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="150">
+        <v>11</v>
+      </c>
+      <c r="R23" s="150">
+        <v>30</v>
+      </c>
+      <c r="S23" s="150">
+        <v>16</v>
+      </c>
+      <c r="T23" s="150">
+        <v>5</v>
+      </c>
+      <c r="U23" s="150">
+        <v>2</v>
+      </c>
+      <c r="V23" s="150">
+        <v>4</v>
+      </c>
+      <c r="W23" s="150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" s="150" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="150">
+        <v>245</v>
+      </c>
+      <c r="B24" s="150">
+        <v>4</v>
+      </c>
+      <c r="C24" s="150" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="151" t="s">
+        <v>374</v>
+      </c>
+      <c r="E24" s="150" t="s">
+        <v>343</v>
+      </c>
+      <c r="F24" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="150" t="s">
+        <v>375</v>
+      </c>
+      <c r="H24" s="150" t="s">
+        <v>226</v>
+      </c>
+      <c r="I24" s="150" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="150">
+        <v>2010</v>
+      </c>
+      <c r="K24" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" s="150" t="s">
+        <v>369</v>
+      </c>
+      <c r="M24" s="150" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N24" s="150">
+        <v>25</v>
+      </c>
+      <c r="O24" s="150">
+        <v>14</v>
+      </c>
+      <c r="P24" s="150">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="150">
+        <v>11</v>
+      </c>
+      <c r="R24" s="150">
+        <v>30</v>
+      </c>
+      <c r="S24" s="150">
+        <v>16</v>
+      </c>
+      <c r="T24" s="150">
+        <v>5</v>
+      </c>
+      <c r="U24" s="150">
+        <v>2</v>
+      </c>
+      <c r="V24" s="150">
+        <v>10</v>
+      </c>
+      <c r="W24" s="150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="150" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="150">
+        <v>252</v>
+      </c>
+      <c r="B25" s="150">
+        <v>4</v>
+      </c>
+      <c r="C25" s="150" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="151" t="s">
+        <v>387</v>
+      </c>
+      <c r="E25" s="150" t="s">
+        <v>343</v>
+      </c>
+      <c r="F25" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="150" t="s">
+        <v>234</v>
+      </c>
+      <c r="H25" s="150" t="s">
+        <v>235</v>
+      </c>
+      <c r="I25" s="150" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="150">
+        <v>2010</v>
+      </c>
+      <c r="K25" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="L25" s="150" t="s">
+        <v>388</v>
+      </c>
+      <c r="M25" s="150" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N25" s="150">
+        <v>24</v>
+      </c>
+      <c r="O25" s="150">
+        <v>9</v>
+      </c>
+      <c r="P25" s="150">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="150">
+        <v>11</v>
+      </c>
+      <c r="R25" s="150">
+        <v>30</v>
+      </c>
+      <c r="S25" s="150">
+        <v>16</v>
+      </c>
+      <c r="T25" s="150">
+        <v>5</v>
+      </c>
+      <c r="U25" s="150">
+        <v>2</v>
+      </c>
+      <c r="V25" s="150">
+        <v>10</v>
+      </c>
+      <c r="W25" s="150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" s="150" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="150">
+        <v>258</v>
+      </c>
+      <c r="B26" s="150">
+        <v>2</v>
+      </c>
+      <c r="C26" s="150" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="151">
+        <v>240</v>
+      </c>
+      <c r="E26" s="150" t="s">
+        <v>343</v>
+      </c>
+      <c r="F26" s="150" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" s="150" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="150" t="s">
+        <v>402</v>
+      </c>
+      <c r="K26" s="150" t="s">
+        <v>403</v>
+      </c>
+      <c r="L26" s="150" t="s">
+        <v>404</v>
+      </c>
+      <c r="M26" s="150" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N26" s="150">
+        <v>25</v>
+      </c>
+      <c r="O26" s="150">
+        <v>15</v>
+      </c>
+      <c r="P26" s="150">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="150">
+        <v>11</v>
+      </c>
+      <c r="R26" s="150">
+        <v>30</v>
+      </c>
+      <c r="S26" s="150">
+        <v>16</v>
+      </c>
+      <c r="T26" s="150">
+        <v>5</v>
+      </c>
+      <c r="U26" s="150">
+        <v>2</v>
+      </c>
+      <c r="V26" s="150">
+        <v>2</v>
+      </c>
+      <c r="W26" s="150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="148" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="148">
+        <v>260</v>
+      </c>
+      <c r="B27" s="148">
+        <v>4</v>
+      </c>
+      <c r="C27" s="148" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="149" t="s">
+        <v>408</v>
+      </c>
+      <c r="E27" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="148" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="148" t="s">
+        <v>234</v>
+      </c>
+      <c r="H27" s="148" t="s">
+        <v>235</v>
+      </c>
+      <c r="I27" s="148" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="148">
+        <v>2010</v>
+      </c>
+      <c r="K27" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="L27" s="148" t="s">
+        <v>409</v>
+      </c>
+      <c r="M27" s="148" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N27" s="148">
+        <v>26</v>
+      </c>
+      <c r="O27" s="148">
+        <v>9</v>
+      </c>
+      <c r="P27" s="148">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="148">
+        <v>13</v>
+      </c>
+      <c r="R27" s="148">
+        <v>27</v>
+      </c>
+      <c r="S27" s="148">
+        <v>16</v>
+      </c>
+      <c r="T27" s="148">
+        <v>5</v>
+      </c>
+      <c r="U27" s="148">
+        <v>2</v>
+      </c>
+      <c r="V27" s="148">
+        <v>2</v>
+      </c>
+      <c r="W27" s="148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="152" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="152">
+        <v>286</v>
+      </c>
+      <c r="B28" s="152">
+        <v>3</v>
+      </c>
+      <c r="C28" s="152" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="153" t="s">
+        <v>459</v>
+      </c>
+      <c r="E28" s="152" t="s">
+        <v>460</v>
+      </c>
+      <c r="F28" s="152" t="s">
+        <v>461</v>
+      </c>
+      <c r="K28" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="152" t="s">
+        <v>462</v>
+      </c>
+      <c r="M28" s="152" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N28" s="152">
+        <v>22</v>
+      </c>
+      <c r="O28" s="152">
+        <v>8</v>
+      </c>
+      <c r="P28" s="152">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="152">
+        <v>15</v>
+      </c>
+      <c r="R28" s="152">
+        <v>27</v>
+      </c>
+      <c r="S28" s="152">
+        <v>19</v>
+      </c>
+      <c r="T28" s="152">
+        <v>8</v>
+      </c>
+      <c r="U28" s="152">
+        <v>2</v>
+      </c>
+      <c r="V28" s="152">
+        <v>3</v>
+      </c>
+      <c r="W28" s="152">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="146" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="154">
+        <v>1</v>
+      </c>
+      <c r="C29" s="154" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="155">
+        <v>57</v>
+      </c>
+      <c r="E29" s="156" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="156" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="157" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="158">
+        <v>1996</v>
+      </c>
+      <c r="K29" s="159" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="158" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="146" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N29" s="158">
+        <v>28</v>
+      </c>
+      <c r="O29" s="160">
+        <v>13</v>
+      </c>
+      <c r="P29" s="160">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="84">
+        <v>15</v>
+      </c>
+      <c r="R29" s="161">
+        <v>28</v>
+      </c>
+      <c r="S29" s="160">
+        <v>19</v>
+      </c>
+      <c r="T29" s="160">
+        <v>29</v>
+      </c>
+      <c r="U29" s="160">
+        <v>5</v>
+      </c>
+      <c r="V29" s="160">
+        <v>4</v>
+      </c>
+      <c r="W29" s="162">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
+++ b/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudha.gcupadhaya\OneDrive - Washington State University (email.wsu.edu)\Desktop\LabDocuments\FungalCulture\VdIsolatesList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah 23\Desktop\LabDocuments\FungalCulture\VdIsolatesList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{02B0C038-6CDE-4A05-A7A8-D0E45E32B633}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B0473D5-148E-44C1-B927-D56B99351831}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6F960E-E66E-47BE-A751-DECC9CDC16E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8304" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8392" uniqueCount="1400">
   <si>
     <t>Plate</t>
   </si>
@@ -4263,6 +4263,9 @@
   </si>
   <si>
     <t xml:space="preserve">Note: Hyperspectral images of these isolates are already taken on October 2020. </t>
+  </si>
+  <si>
+    <t>Harvested</t>
   </si>
 </sst>
 </file>
@@ -4551,7 +4554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5010,6 +5013,14 @@
     <xf numFmtId="49" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -33607,10 +33618,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2726E2F-E8EA-472C-A800-F178F067C4BF}">
-  <dimension ref="A1:E1135"/>
+  <dimension ref="A1:F1135"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A1121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1066" sqref="A1066"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33619,6 +33630,7 @@
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -34150,7 +34162,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="122">
         <v>48</v>
       </c>
@@ -34167,8 +34179,8 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="122">
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="163">
         <v>49</v>
       </c>
       <c r="B34" s="29" t="s">
@@ -34183,8 +34195,11 @@
       <c r="E34" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="122">
         <v>50</v>
       </c>
@@ -34201,7 +34216,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="122">
         <v>51</v>
       </c>
@@ -34218,7 +34233,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="122">
         <v>52</v>
       </c>
@@ -34235,7 +34250,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="122">
         <v>53</v>
       </c>
@@ -34252,7 +34267,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="122">
         <v>54</v>
       </c>
@@ -34269,7 +34284,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="122">
         <v>55</v>
       </c>
@@ -34286,7 +34301,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="122">
         <v>56</v>
       </c>
@@ -34303,7 +34318,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="122">
         <v>57</v>
       </c>
@@ -34320,7 +34335,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="122">
         <v>58</v>
       </c>
@@ -34337,8 +34352,8 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="122">
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="163">
         <v>60</v>
       </c>
       <c r="B44" s="29" t="s">
@@ -34353,8 +34368,11 @@
       <c r="E44" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="122">
         <v>61</v>
       </c>
@@ -34371,7 +34389,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="122">
         <v>62</v>
       </c>
@@ -34388,7 +34406,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="122">
         <v>65</v>
       </c>
@@ -34405,7 +34423,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="122">
         <v>66</v>
       </c>
@@ -34422,7 +34440,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="122">
         <v>67</v>
       </c>
@@ -34439,7 +34457,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="122">
         <v>68</v>
       </c>
@@ -34456,7 +34474,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="122">
         <v>69</v>
       </c>
@@ -34473,8 +34491,8 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="122">
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="163">
         <v>70</v>
       </c>
       <c r="B52" s="29" t="s">
@@ -34489,8 +34507,11 @@
       <c r="E52" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="122">
         <v>71</v>
       </c>
@@ -34507,7 +34528,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="122">
         <v>72</v>
       </c>
@@ -34524,7 +34545,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="122">
         <v>73</v>
       </c>
@@ -34541,7 +34562,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="122">
         <v>74</v>
       </c>
@@ -34558,7 +34579,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="122">
         <v>77</v>
       </c>
@@ -34575,7 +34596,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="122">
         <v>78</v>
       </c>
@@ -34592,7 +34613,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="122">
         <v>79</v>
       </c>
@@ -34609,8 +34630,8 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="122">
+    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="163">
         <v>80</v>
       </c>
       <c r="B60" s="29" t="s">
@@ -34625,8 +34646,11 @@
       <c r="E60" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="122">
         <v>82</v>
       </c>
@@ -34643,7 +34667,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="122">
         <v>84</v>
       </c>
@@ -34660,7 +34684,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="124">
         <v>85</v>
       </c>
@@ -34671,8 +34695,8 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="122">
+    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="163">
         <v>92</v>
       </c>
       <c r="B64" s="44" t="s">
@@ -34687,9 +34711,12 @@
       <c r="E64" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="122">
+      <c r="F64" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="163">
         <v>93</v>
       </c>
       <c r="B65" s="29" t="s">
@@ -34704,9 +34731,12 @@
       <c r="E65" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="122">
+      <c r="F65" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="163">
         <v>94</v>
       </c>
       <c r="B66" s="29" t="s">
@@ -34721,9 +34751,12 @@
       <c r="E66" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="28">
+      <c r="F66" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="163">
         <v>95</v>
       </c>
       <c r="B67" s="29" t="s">
@@ -34736,10 +34769,13 @@
         <v>1996</v>
       </c>
       <c r="E67" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1364</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="122">
         <v>96</v>
       </c>
@@ -34756,7 +34792,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="122">
         <v>97</v>
       </c>
@@ -34773,7 +34809,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="122">
         <v>98</v>
       </c>
@@ -34790,7 +34826,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="121">
         <v>101</v>
       </c>
@@ -34807,7 +34843,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="121">
         <v>102</v>
       </c>
@@ -34824,7 +34860,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="121">
         <v>103</v>
       </c>
@@ -34841,7 +34877,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="121">
         <v>104</v>
       </c>
@@ -34858,7 +34894,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="121">
         <v>105</v>
       </c>
@@ -34875,8 +34911,8 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="121">
+    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="164">
         <v>106</v>
       </c>
       <c r="B76" s="29" t="s">
@@ -34891,9 +34927,12 @@
       <c r="E76" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="121">
+      <c r="F76" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="164">
         <v>107</v>
       </c>
       <c r="B77" s="29" t="s">
@@ -34908,9 +34947,12 @@
       <c r="E77" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="121">
+      <c r="F77" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="164">
         <v>109</v>
       </c>
       <c r="B78" s="29" t="s">
@@ -34925,8 +34967,11 @@
       <c r="E78" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="121">
         <v>111</v>
       </c>
@@ -34943,7 +34988,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="121">
         <v>112</v>
       </c>
@@ -34960,8 +35005,8 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="121">
+    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="164">
         <v>113</v>
       </c>
       <c r="B81" s="29" t="s">
@@ -34976,8 +35021,11 @@
       <c r="E81" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="121">
         <v>114</v>
       </c>
@@ -34994,7 +35042,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="121">
         <v>115</v>
       </c>
@@ -35011,7 +35059,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="121">
         <v>116</v>
       </c>
@@ -35028,8 +35076,8 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="121">
+    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="164">
         <v>119</v>
       </c>
       <c r="B85" s="29" t="s">
@@ -35044,8 +35092,11 @@
       <c r="E85" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="121">
         <v>121</v>
       </c>
@@ -35062,7 +35113,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="121">
         <v>124</v>
       </c>
@@ -35079,7 +35130,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="29">
         <v>126</v>
       </c>
@@ -35096,7 +35147,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>127</v>
       </c>
@@ -35113,7 +35164,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="121">
         <v>128</v>
       </c>
@@ -35130,7 +35181,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="121">
         <v>129</v>
       </c>
@@ -35147,7 +35198,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="121">
         <v>130</v>
       </c>
@@ -35164,7 +35215,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>134</v>
       </c>
@@ -35181,7 +35232,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="29">
         <v>136</v>
       </c>
@@ -35198,8 +35249,8 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="121">
+    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="164">
         <v>140</v>
       </c>
       <c r="B95" s="29" t="s">
@@ -35214,8 +35265,11 @@
       <c r="E95" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="121">
         <v>141</v>
       </c>
@@ -35501,7 +35555,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="124">
         <v>491</v>
       </c>
@@ -35515,7 +35569,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="124">
         <v>492</v>
       </c>
@@ -35529,7 +35583,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="124">
         <v>495</v>
       </c>
@@ -35540,7 +35594,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="124">
         <v>496</v>
       </c>
@@ -35551,7 +35605,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="124">
         <v>497</v>
       </c>
@@ -35565,7 +35619,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="124">
         <v>498</v>
       </c>
@@ -35579,7 +35633,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="124">
         <v>499</v>
       </c>
@@ -35593,7 +35647,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="127">
         <v>500</v>
       </c>
@@ -35604,7 +35658,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="124">
         <v>503</v>
       </c>
@@ -35615,7 +35669,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="124">
         <v>504</v>
       </c>
@@ -35626,8 +35680,8 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="124">
+    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="127">
         <v>505</v>
       </c>
       <c r="B123" s="39" t="s">
@@ -35639,8 +35693,11 @@
       <c r="E123" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F123" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="124">
         <v>506</v>
       </c>
@@ -35651,7 +35708,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="129">
         <v>601</v>
       </c>
@@ -35668,7 +35725,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="119">
         <v>653</v>
       </c>
@@ -35685,7 +35742,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="124">
         <v>849</v>
       </c>
@@ -35696,7 +35753,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="142">
         <v>8215</v>
       </c>
@@ -41480,7 +41537,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="545" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A545" s="123" t="s">
         <v>357</v>
       </c>
@@ -41497,7 +41554,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="546" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A546" s="123" t="s">
         <v>204</v>
       </c>
@@ -41514,7 +41571,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="547" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A547" s="123" t="s">
         <v>258</v>
       </c>
@@ -41531,7 +41588,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="548" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A548" s="124" t="s">
         <v>928</v>
       </c>
@@ -41548,7 +41605,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A549" s="123" t="s">
         <v>210</v>
       </c>
@@ -41565,7 +41622,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="550" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A550" s="124" t="s">
         <v>929</v>
       </c>
@@ -41582,7 +41639,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A551" s="124" t="s">
         <v>522</v>
       </c>
@@ -41593,7 +41650,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="552" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A552" s="124" t="s">
         <v>1016</v>
       </c>
@@ -41604,7 +41661,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="553" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A553" s="124" t="s">
         <v>1015</v>
       </c>
@@ -41615,7 +41672,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="554" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A554" s="139" t="s">
         <v>1200</v>
       </c>
@@ -41632,7 +41689,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="555" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A555" s="127" t="s">
         <v>627</v>
       </c>
@@ -41646,7 +41703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="556" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A556" s="123" t="s">
         <v>541</v>
       </c>
@@ -41657,7 +41714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="557" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A557" s="123" t="s">
         <v>542</v>
       </c>
@@ -41668,7 +41725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="558" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A558" s="127" t="s">
         <v>637</v>
       </c>
@@ -41681,8 +41738,11 @@
       <c r="E558">
         <v>4</v>
       </c>
-    </row>
-    <row r="559" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F558" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A559" s="127" t="s">
         <v>648</v>
       </c>
@@ -41696,7 +41756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="560" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A560" s="127" t="s">
         <v>618</v>
       </c>
@@ -41709,8 +41769,11 @@
       <c r="E560">
         <v>4</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F560" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A561" s="127" t="s">
         <v>619</v>
       </c>
@@ -41724,7 +41787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A562" s="127" t="s">
         <v>660</v>
       </c>
@@ -41737,8 +41800,11 @@
       <c r="E562">
         <v>4</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F562" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A563" s="127" t="s">
         <v>661</v>
       </c>
@@ -41752,7 +41818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="564" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A564" s="123" t="s">
         <v>534</v>
       </c>
@@ -41763,7 +41829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="565" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A565" s="127" t="s">
         <v>631</v>
       </c>
@@ -41776,8 +41842,11 @@
       <c r="E565">
         <v>4</v>
       </c>
-    </row>
-    <row r="566" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F565" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A566" s="127" t="s">
         <v>636</v>
       </c>
@@ -41790,8 +41859,11 @@
       <c r="E566">
         <v>4</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F566" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A567" s="127" t="s">
         <v>638</v>
       </c>
@@ -41804,8 +41876,11 @@
       <c r="E567">
         <v>4</v>
       </c>
-    </row>
-    <row r="568" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F567" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A568" s="127" t="s">
         <v>642</v>
       </c>
@@ -41818,8 +41893,11 @@
       <c r="E568">
         <v>4</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F568" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A569" s="127" t="s">
         <v>640</v>
       </c>
@@ -41832,8 +41910,11 @@
       <c r="E569">
         <v>4</v>
       </c>
-    </row>
-    <row r="570" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F569" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A570" s="127" t="s">
         <v>645</v>
       </c>
@@ -41847,7 +41928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="571" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A571" s="127" t="s">
         <v>644</v>
       </c>
@@ -41861,7 +41942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="572" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A572" s="127" t="s">
         <v>617</v>
       </c>
@@ -41874,8 +41955,11 @@
       <c r="E572">
         <v>4</v>
       </c>
-    </row>
-    <row r="573" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F572" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A573" s="127" t="s">
         <v>616</v>
       </c>
@@ -41889,7 +41973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="574" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A574" s="127" t="s">
         <v>651</v>
       </c>
@@ -41903,7 +41987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="575" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A575" s="127" t="s">
         <v>654</v>
       </c>
@@ -41916,8 +42000,11 @@
       <c r="E575">
         <v>4</v>
       </c>
-    </row>
-    <row r="576" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F575" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A576" s="127" t="s">
         <v>652</v>
       </c>
@@ -41930,8 +42017,11 @@
       <c r="E576">
         <v>4</v>
       </c>
-    </row>
-    <row r="577" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F576" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A577" s="127" t="s">
         <v>653</v>
       </c>
@@ -41944,8 +42034,11 @@
       <c r="E577">
         <v>4</v>
       </c>
-    </row>
-    <row r="578" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F577" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A578" s="127" t="s">
         <v>655</v>
       </c>
@@ -41958,8 +42051,11 @@
       <c r="E578">
         <v>4</v>
       </c>
-    </row>
-    <row r="579" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F578" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A579" s="127" t="s">
         <v>620</v>
       </c>
@@ -41969,8 +42065,11 @@
       <c r="E579">
         <v>4</v>
       </c>
-    </row>
-    <row r="580" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F579" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A580" s="123" t="s">
         <v>545</v>
       </c>
@@ -41984,7 +42083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="581" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A581" s="39" t="s">
         <v>129</v>
       </c>
@@ -42001,7 +42100,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="582" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A582" s="39" t="s">
         <v>119</v>
       </c>
@@ -42018,7 +42117,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="583" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A583" s="124" t="s">
         <v>1064</v>
       </c>
@@ -42032,7 +42131,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="584" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A584" s="124" t="s">
         <v>900</v>
       </c>
@@ -42046,7 +42145,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="585" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A585" s="124" t="s">
         <v>843</v>
       </c>
@@ -42060,7 +42159,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="586" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A586" s="124" t="s">
         <v>844</v>
       </c>
@@ -42074,7 +42173,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="587" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A587" s="124" t="s">
         <v>845</v>
       </c>
@@ -42088,7 +42187,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="588" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A588" s="124" t="s">
         <v>846</v>
       </c>
@@ -42102,7 +42201,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="589" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A589" s="124" t="s">
         <v>847</v>
       </c>
@@ -42116,7 +42215,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="590" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A590" s="124" t="s">
         <v>848</v>
       </c>
@@ -42130,7 +42229,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="591" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A591" s="124" t="s">
         <v>849</v>
       </c>
@@ -42144,7 +42243,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="592" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A592" s="124" t="s">
         <v>902</v>
       </c>
@@ -45910,7 +46009,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="865" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A865" s="124" t="s">
         <v>934</v>
       </c>
@@ -45927,7 +46026,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="866" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A866" s="124" t="s">
         <v>707</v>
       </c>
@@ -45941,7 +46040,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="867" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A867" s="123" t="s">
         <v>538</v>
       </c>
@@ -45955,7 +46054,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="868" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A868" s="127" t="s">
         <v>625</v>
       </c>
@@ -45969,7 +46068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="869" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A869" s="127" t="s">
         <v>626</v>
       </c>
@@ -45983,7 +46082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="870" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A870" s="127" t="s">
         <v>632</v>
       </c>
@@ -45997,7 +46096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="871" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A871" s="127" t="s">
         <v>628</v>
       </c>
@@ -46010,8 +46109,11 @@
       <c r="E871">
         <v>4</v>
       </c>
-    </row>
-    <row r="872" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F871" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A872" s="126" t="s">
         <v>553</v>
       </c>
@@ -46022,7 +46124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="873" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A873" s="127" t="s">
         <v>629</v>
       </c>
@@ -46036,7 +46138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="874" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A874" s="127" t="s">
         <v>630</v>
       </c>
@@ -46050,7 +46152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="875" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A875" s="127" t="s">
         <v>635</v>
       </c>
@@ -46064,7 +46166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="876" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A876" s="127" t="s">
         <v>633</v>
       </c>
@@ -46078,7 +46180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="877" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A877" s="127" t="s">
         <v>641</v>
       </c>
@@ -46091,8 +46193,11 @@
       <c r="E877">
         <v>4</v>
       </c>
-    </row>
-    <row r="878" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F877" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A878" s="127" t="s">
         <v>643</v>
       </c>
@@ -46105,8 +46210,11 @@
       <c r="E878">
         <v>4</v>
       </c>
-    </row>
-    <row r="879" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F878" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A879" s="127" t="s">
         <v>639</v>
       </c>
@@ -46119,8 +46227,11 @@
       <c r="E879">
         <v>4</v>
       </c>
-    </row>
-    <row r="880" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F879" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A880" s="127" t="s">
         <v>646</v>
       </c>
@@ -46134,7 +46245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="881" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A881" s="127" t="s">
         <v>647</v>
       </c>
@@ -46148,7 +46259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="882" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A882" s="127" t="s">
         <v>613</v>
       </c>
@@ -46161,8 +46272,11 @@
       <c r="E882">
         <v>4</v>
       </c>
-    </row>
-    <row r="883" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F882" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A883" s="127" t="s">
         <v>614</v>
       </c>
@@ -46175,8 +46289,11 @@
       <c r="E883">
         <v>4</v>
       </c>
-    </row>
-    <row r="884" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F883" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A884" s="124" t="s">
         <v>727</v>
       </c>
@@ -46190,7 +46307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="885" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A885" s="127" t="s">
         <v>649</v>
       </c>
@@ -46204,7 +46321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="886" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A886" s="127" t="s">
         <v>615</v>
       </c>
@@ -46217,8 +46334,11 @@
       <c r="E886">
         <v>4</v>
       </c>
-    </row>
-    <row r="887" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F886" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A887" s="127" t="s">
         <v>650</v>
       </c>
@@ -46231,8 +46351,11 @@
       <c r="E887">
         <v>4</v>
       </c>
-    </row>
-    <row r="888" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F887" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A888" s="124" t="s">
         <v>728</v>
       </c>
@@ -46246,7 +46369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="889" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A889" s="124" t="s">
         <v>731</v>
       </c>
@@ -46260,7 +46383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="890" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A890" s="124" t="s">
         <v>729</v>
       </c>
@@ -46274,7 +46397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="891" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A891" s="124" t="s">
         <v>730</v>
       </c>
@@ -46288,7 +46411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="892" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A892" s="127" t="s">
         <v>658</v>
       </c>
@@ -46302,7 +46425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="893" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A893" s="127" t="s">
         <v>659</v>
       </c>
@@ -46316,7 +46439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="894" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A894" s="127" t="s">
         <v>662</v>
       </c>
@@ -46330,7 +46453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="895" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A895" s="124" t="s">
         <v>733</v>
       </c>
@@ -46341,7 +46464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="896" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A896" s="124" t="s">
         <v>777</v>
       </c>
@@ -46355,7 +46478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="897" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A897" s="127" t="s">
         <v>664</v>
       </c>
@@ -46369,7 +46492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="898" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A898" s="127" t="s">
         <v>665</v>
       </c>
@@ -46383,7 +46506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="899" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A899" s="127" t="s">
         <v>657</v>
       </c>
@@ -46396,8 +46519,11 @@
       <c r="E899">
         <v>4</v>
       </c>
-    </row>
-    <row r="900" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F899" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A900" s="127" t="s">
         <v>656</v>
       </c>
@@ -46410,8 +46536,11 @@
       <c r="E900">
         <v>4</v>
       </c>
-    </row>
-    <row r="901" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F900" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A901" s="123" t="s">
         <v>549</v>
       </c>
@@ -46422,7 +46551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="902" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A902" s="127" t="s">
         <v>667</v>
       </c>
@@ -46436,7 +46565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="903" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A903" s="123" t="s">
         <v>551</v>
       </c>
@@ -46447,7 +46576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="904" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A904" s="127" t="s">
         <v>623</v>
       </c>
@@ -46461,7 +46590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="905" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A905" s="126" t="s">
         <v>550</v>
       </c>
@@ -46474,8 +46603,11 @@
       <c r="E905">
         <v>4</v>
       </c>
-    </row>
-    <row r="906" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F905" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A906" s="127" t="s">
         <v>624</v>
       </c>
@@ -46489,7 +46621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="907" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A907" s="127" t="s">
         <v>622</v>
       </c>
@@ -46502,8 +46634,11 @@
       <c r="E907">
         <v>4</v>
       </c>
-    </row>
-    <row r="908" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F907" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A908" s="127" t="s">
         <v>621</v>
       </c>
@@ -46517,7 +46652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="909" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A909" s="123" t="s">
         <v>543</v>
       </c>
@@ -46528,7 +46663,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="910" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A910" s="123" t="s">
         <v>544</v>
       </c>
@@ -46539,7 +46674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="911" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A911" s="127" t="s">
         <v>670</v>
       </c>
@@ -46553,7 +46688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="912" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A912" s="124" t="s">
         <v>766</v>
       </c>
@@ -46567,7 +46702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="913" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A913" s="124" t="s">
         <v>765</v>
       </c>
@@ -46581,7 +46716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="914" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A914" s="127" t="s">
         <v>672</v>
       </c>
@@ -46595,7 +46730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="915" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A915" s="127" t="s">
         <v>673</v>
       </c>
@@ -46609,7 +46744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="916" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A916" s="127" t="s">
         <v>677</v>
       </c>
@@ -46622,8 +46757,11 @@
       <c r="E916">
         <v>4</v>
       </c>
-    </row>
-    <row r="917" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F916" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A917" s="124" t="s">
         <v>768</v>
       </c>
@@ -46637,7 +46775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="918" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A918" s="127" t="s">
         <v>612</v>
       </c>
@@ -46650,8 +46788,11 @@
       <c r="E918">
         <v>4</v>
       </c>
-    </row>
-    <row r="919" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F918" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A919" s="127" t="s">
         <v>676</v>
       </c>
@@ -46665,7 +46806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="920" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A920" s="124" t="s">
         <v>769</v>
       </c>
@@ -46679,7 +46820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="921" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A921" s="124" t="s">
         <v>764</v>
       </c>
@@ -46690,7 +46831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="922" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A922" s="127" t="s">
         <v>607</v>
       </c>
@@ -46703,8 +46844,11 @@
       <c r="E922">
         <v>4</v>
       </c>
-    </row>
-    <row r="923" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F922" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A923" s="127" t="s">
         <v>597</v>
       </c>
@@ -46717,8 +46861,11 @@
       <c r="E923">
         <v>4</v>
       </c>
-    </row>
-    <row r="924" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F923" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A924" s="124" t="s">
         <v>772</v>
       </c>
@@ -46732,7 +46879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="925" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A925" s="124" t="s">
         <v>773</v>
       </c>
@@ -46746,7 +46893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="926" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A926" s="124" t="s">
         <v>763</v>
       </c>
@@ -46757,7 +46904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="927" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A927" s="124" t="s">
         <v>775</v>
       </c>
@@ -46771,7 +46918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="928" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A928" s="127" t="s">
         <v>575</v>
       </c>
@@ -46785,7 +46932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="929" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A929" s="127" t="s">
         <v>574</v>
       </c>
@@ -46799,7 +46946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="930" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A930" s="127" t="s">
         <v>573</v>
       </c>
@@ -46812,8 +46959,11 @@
       <c r="E930">
         <v>4</v>
       </c>
-    </row>
-    <row r="931" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F930" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A931" s="124" t="s">
         <v>732</v>
       </c>
@@ -46824,7 +46974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="932" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A932" s="127" t="s">
         <v>572</v>
       </c>
@@ -46837,8 +46987,11 @@
       <c r="E932">
         <v>4</v>
       </c>
-    </row>
-    <row r="933" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F932" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A933" s="124" t="s">
         <v>779</v>
       </c>
@@ -46852,7 +47005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="934" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A934" s="127" t="s">
         <v>577</v>
       </c>
@@ -46865,8 +47018,11 @@
       <c r="E934">
         <v>4</v>
       </c>
-    </row>
-    <row r="935" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F934" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A935" s="124" t="s">
         <v>776</v>
       </c>
@@ -46877,8 +47033,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="936" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A936" s="124" t="s">
+    <row r="936" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A936" s="127" t="s">
         <v>561</v>
       </c>
       <c r="B936" s="39" t="s">
@@ -46890,8 +47046,11 @@
       <c r="E936">
         <v>3</v>
       </c>
-    </row>
-    <row r="937" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F936" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A937" s="124" t="s">
         <v>560</v>
       </c>
@@ -46905,8 +47064,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="938" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A938" s="124" t="s">
+    <row r="938" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A938" s="127" t="s">
         <v>559</v>
       </c>
       <c r="B938" s="39" t="s">
@@ -46918,8 +47077,11 @@
       <c r="E938">
         <v>3</v>
       </c>
-    </row>
-    <row r="939" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F938" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A939" s="124" t="s">
         <v>720</v>
       </c>
@@ -46933,7 +47095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="940" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A940" s="124" t="s">
         <v>721</v>
       </c>
@@ -46947,7 +47109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="941" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A941" s="124" t="s">
         <v>722</v>
       </c>
@@ -46961,7 +47123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="942" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A942" s="124" t="s">
         <v>723</v>
       </c>
@@ -46975,8 +47137,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="943" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A943" s="124" t="s">
+    <row r="943" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A943" s="127" t="s">
         <v>558</v>
       </c>
       <c r="B943" s="39" t="s">
@@ -46988,8 +47150,11 @@
       <c r="E943">
         <v>3</v>
       </c>
-    </row>
-    <row r="944" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F943" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A944" s="124" t="s">
         <v>708</v>
       </c>
@@ -47003,7 +47168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="945" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A945" s="124" t="s">
         <v>724</v>
       </c>
@@ -47017,7 +47182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="946" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A946" s="124" t="s">
         <v>725</v>
       </c>
@@ -47031,7 +47196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="947" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A947" s="124" t="s">
         <v>726</v>
       </c>
@@ -47045,7 +47210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="948" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A948" s="123" t="s">
         <v>531</v>
       </c>
@@ -47056,7 +47221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="949" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A949" s="123" t="s">
         <v>530</v>
       </c>
@@ -47067,7 +47232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="950" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A950" s="124" t="s">
         <v>709</v>
       </c>
@@ -47081,7 +47246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="951" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A951" s="124" t="s">
         <v>704</v>
       </c>
@@ -47095,7 +47260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="952" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A952" s="124" t="s">
         <v>710</v>
       </c>
@@ -47109,7 +47274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="953" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A953" s="124" t="s">
         <v>711</v>
       </c>
@@ -47123,7 +47288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="954" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A954" s="124" t="s">
         <v>712</v>
       </c>
@@ -47137,7 +47302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="955" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A955" s="124" t="s">
         <v>713</v>
       </c>
@@ -47151,7 +47316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="956" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A956" s="124" t="s">
         <v>703</v>
       </c>
@@ -47165,8 +47330,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="957" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A957" s="124" t="s">
+    <row r="957" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A957" s="127" t="s">
         <v>568</v>
       </c>
       <c r="B957" s="39" t="s">
@@ -47178,8 +47343,11 @@
       <c r="E957">
         <v>3</v>
       </c>
-    </row>
-    <row r="958" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F957" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A958" s="124" t="s">
         <v>714</v>
       </c>
@@ -47193,7 +47361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="959" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A959" s="124" t="s">
         <v>567</v>
       </c>
@@ -47207,7 +47375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="960" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A960" s="124" t="s">
         <v>715</v>
       </c>
@@ -47221,7 +47389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="961" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A961" s="124" t="s">
         <v>705</v>
       </c>
@@ -47235,7 +47403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="962" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A962" s="124" t="s">
         <v>700</v>
       </c>
@@ -47252,7 +47420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="963" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A963" s="124" t="s">
         <v>706</v>
       </c>
@@ -47266,7 +47434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="964" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A964" s="124" t="s">
         <v>716</v>
       </c>
@@ -47280,7 +47448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="965" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A965" s="124" t="s">
         <v>717</v>
       </c>
@@ -47294,7 +47462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="966" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A966" s="124" t="s">
         <v>718</v>
       </c>
@@ -47308,8 +47476,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="967" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A967" s="124" t="s">
+    <row r="967" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A967" s="127" t="s">
         <v>566</v>
       </c>
       <c r="B967" s="39" t="s">
@@ -47321,8 +47489,11 @@
       <c r="E967">
         <v>3</v>
       </c>
-    </row>
-    <row r="968" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F967" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A968" s="124" t="s">
         <v>701</v>
       </c>
@@ -47339,8 +47510,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="969" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A969" s="124" t="s">
+    <row r="969" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A969" s="127" t="s">
         <v>565</v>
       </c>
       <c r="B969" s="39" t="s">
@@ -47352,9 +47523,12 @@
       <c r="E969">
         <v>3</v>
       </c>
-    </row>
-    <row r="970" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A970" s="124" t="s">
+      <c r="F969" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A970" s="127" t="s">
         <v>564</v>
       </c>
       <c r="B970" s="39" t="s">
@@ -47366,9 +47540,12 @@
       <c r="E970">
         <v>3</v>
       </c>
-    </row>
-    <row r="971" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A971" s="124" t="s">
+      <c r="F970" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A971" s="127" t="s">
         <v>563</v>
       </c>
       <c r="B971" s="39" t="s">
@@ -47380,8 +47557,11 @@
       <c r="E971">
         <v>3</v>
       </c>
-    </row>
-    <row r="972" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F971" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A972" s="124" t="s">
         <v>719</v>
       </c>
@@ -47395,7 +47575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="973" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A973" s="124" t="s">
         <v>562</v>
       </c>
@@ -47409,7 +47589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="974" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A974" s="123" t="s">
         <v>528</v>
       </c>
@@ -47423,7 +47603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="975" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A975" s="124" t="s">
         <v>685</v>
       </c>
@@ -47434,7 +47614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="976" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A976" s="124" t="s">
         <v>681</v>
       </c>
@@ -47836,7 +48016,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1009" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1009" s="124" t="s">
         <v>1388</v>
       </c>
@@ -47847,7 +48027,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1010" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1010" s="127" t="s">
         <v>663</v>
       </c>
@@ -47860,8 +48040,11 @@
       <c r="E1010">
         <v>4</v>
       </c>
-    </row>
-    <row r="1011" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1010" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1011" s="124" t="s">
         <v>1044</v>
       </c>
@@ -47875,7 +48058,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="1012" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1012" s="124" t="s">
         <v>960</v>
       </c>
@@ -47889,7 +48072,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="1013" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1013" s="124" t="s">
         <v>901</v>
       </c>
@@ -47903,7 +48086,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="1014" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1014" s="124" t="s">
         <v>947</v>
       </c>
@@ -47920,7 +48103,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1015" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1015" s="124" t="s">
         <v>961</v>
       </c>
@@ -47932,7 +48115,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="1016" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1016" s="124" t="s">
         <v>962</v>
       </c>
@@ -47949,7 +48132,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="1017" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1017" s="124" t="s">
         <v>963</v>
       </c>
@@ -47966,7 +48149,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="1018" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1018" s="124" t="s">
         <v>915</v>
       </c>
@@ -47983,7 +48166,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1019" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1019" s="124" t="s">
         <v>678</v>
       </c>
@@ -48000,7 +48183,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1020" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1020" s="124" t="s">
         <v>974</v>
       </c>
@@ -48014,7 +48197,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1021" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1021" s="124" t="s">
         <v>976</v>
       </c>
@@ -48028,7 +48211,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1022" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1022" s="124" t="s">
         <v>973</v>
       </c>
@@ -48042,7 +48225,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1023" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1023" s="124" t="s">
         <v>967</v>
       </c>
@@ -48056,7 +48239,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1024" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1024" s="124" t="s">
         <v>917</v>
       </c>
@@ -48592,7 +48775,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="1057" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1057" s="124" t="s">
         <v>1393</v>
       </c>
@@ -48603,7 +48786,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1058" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1058" s="124" t="s">
         <v>770</v>
       </c>
@@ -48617,7 +48800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1059" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1059" s="127" t="s">
         <v>598</v>
       </c>
@@ -48630,8 +48813,11 @@
       <c r="E1059">
         <v>4</v>
       </c>
-    </row>
-    <row r="1060" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1059" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1060" s="127" t="s">
         <v>592</v>
       </c>
@@ -48644,8 +48830,11 @@
       <c r="E1060">
         <v>4</v>
       </c>
-    </row>
-    <row r="1061" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1060" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1061" s="127" t="s">
         <v>571</v>
       </c>
@@ -48659,7 +48848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1062" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1062" s="127" t="s">
         <v>576</v>
       </c>
@@ -48672,8 +48861,11 @@
       <c r="E1062">
         <v>4</v>
       </c>
-    </row>
-    <row r="1063" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1062" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1063" s="127" t="s">
         <v>671</v>
       </c>
@@ -48687,7 +48879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1064" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1064" s="124" t="s">
         <v>746</v>
       </c>
@@ -48698,7 +48890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1065" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1065" s="127" t="s">
         <v>674</v>
       </c>
@@ -48711,9 +48903,12 @@
       <c r="E1065">
         <v>4</v>
       </c>
-    </row>
-    <row r="1066" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1066" s="124" t="s">
+      <c r="F1065" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1066" s="127" t="s">
         <v>767</v>
       </c>
       <c r="B1066" s="39" t="s">
@@ -48725,8 +48920,11 @@
       <c r="E1066">
         <v>4</v>
       </c>
-    </row>
-    <row r="1067" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1066" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1067" s="124" t="s">
         <v>747</v>
       </c>
@@ -48737,7 +48935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1068" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1068" s="124" t="s">
         <v>748</v>
       </c>
@@ -48748,7 +48946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1069" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1069" s="127" t="s">
         <v>609</v>
       </c>
@@ -48761,8 +48959,11 @@
       <c r="E1069">
         <v>4</v>
       </c>
-    </row>
-    <row r="1070" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1069" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1070" s="127" t="s">
         <v>611</v>
       </c>
@@ -48778,8 +48979,11 @@
       <c r="E1070">
         <v>4</v>
       </c>
-    </row>
-    <row r="1071" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1070" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1071" s="127" t="s">
         <v>608</v>
       </c>
@@ -48792,8 +48996,11 @@
       <c r="E1071">
         <v>4</v>
       </c>
-    </row>
-    <row r="1072" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1071" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1072" s="127" t="s">
         <v>603</v>
       </c>
@@ -48806,8 +49013,11 @@
       <c r="E1072">
         <v>4</v>
       </c>
-    </row>
-    <row r="1073" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1072" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1073" s="127" t="s">
         <v>602</v>
       </c>
@@ -48820,8 +49030,11 @@
       <c r="E1073">
         <v>4</v>
       </c>
-    </row>
-    <row r="1074" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1073" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1074" s="127" t="s">
         <v>600</v>
       </c>
@@ -48834,8 +49047,11 @@
       <c r="E1074">
         <v>4</v>
       </c>
-    </row>
-    <row r="1075" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1074" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1075" s="124" t="s">
         <v>771</v>
       </c>
@@ -48849,7 +49065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1076" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1076" s="127" t="s">
         <v>588</v>
       </c>
@@ -48862,8 +49078,11 @@
       <c r="E1076">
         <v>4</v>
       </c>
-    </row>
-    <row r="1077" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1076" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1077" s="127" t="s">
         <v>589</v>
       </c>
@@ -48876,8 +49095,11 @@
       <c r="E1077">
         <v>4</v>
       </c>
-    </row>
-    <row r="1078" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1077" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1078" s="127" t="s">
         <v>593</v>
       </c>
@@ -48890,8 +49112,11 @@
       <c r="E1078">
         <v>4</v>
       </c>
-    </row>
-    <row r="1079" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1078" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1079" s="127" t="s">
         <v>594</v>
       </c>
@@ -48907,8 +49132,11 @@
       <c r="E1079">
         <v>4</v>
       </c>
-    </row>
-    <row r="1080" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1079" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1080" s="127" t="s">
         <v>591</v>
       </c>
@@ -48921,8 +49149,11 @@
       <c r="E1080">
         <v>4</v>
       </c>
-    </row>
-    <row r="1081" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1080" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1081" s="127" t="s">
         <v>590</v>
       </c>
@@ -48938,8 +49169,11 @@
       <c r="E1081">
         <v>4</v>
       </c>
-    </row>
-    <row r="1082" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1081" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1082" s="124" t="s">
         <v>734</v>
       </c>
@@ -48950,7 +49184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1083" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1083" s="127" t="s">
         <v>580</v>
       </c>
@@ -48966,8 +49200,11 @@
       <c r="E1083">
         <v>4</v>
       </c>
-    </row>
-    <row r="1084" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1083" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1084" s="124" t="s">
         <v>774</v>
       </c>
@@ -48981,7 +49218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1085" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1085" s="124" t="s">
         <v>736</v>
       </c>
@@ -48992,7 +49229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1086" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1086" s="127" t="s">
         <v>587</v>
       </c>
@@ -49009,7 +49246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1087" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1087" s="127" t="s">
         <v>583</v>
       </c>
@@ -49025,8 +49262,11 @@
       <c r="E1087">
         <v>4</v>
       </c>
-    </row>
-    <row r="1088" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1087" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1088" s="127" t="s">
         <v>582</v>
       </c>
@@ -49040,7 +49280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1089" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1089" s="124" t="s">
         <v>737</v>
       </c>
@@ -49051,7 +49291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1090" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1090" s="124" t="s">
         <v>738</v>
       </c>
@@ -49062,7 +49302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1091" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1091" s="124" t="s">
         <v>778</v>
       </c>
@@ -49076,7 +49316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1092" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1092" s="127" t="s">
         <v>570</v>
       </c>
@@ -49089,8 +49329,11 @@
       <c r="E1092">
         <v>4</v>
       </c>
-    </row>
-    <row r="1093" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1092" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1093" s="127" t="s">
         <v>569</v>
       </c>
@@ -49104,7 +49347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1094" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1094" s="124" t="s">
         <v>735</v>
       </c>
@@ -49115,7 +49358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1095" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1095" s="127" t="s">
         <v>579</v>
       </c>
@@ -49128,8 +49371,11 @@
       <c r="E1095">
         <v>4</v>
       </c>
-    </row>
-    <row r="1096" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1095" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1096" s="127" t="s">
         <v>578</v>
       </c>
@@ -49142,8 +49388,11 @@
       <c r="E1096">
         <v>4</v>
       </c>
-    </row>
-    <row r="1097" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1096" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1097" s="124" t="s">
         <v>742</v>
       </c>
@@ -49154,7 +49403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1098" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1098" s="124" t="s">
         <v>739</v>
       </c>
@@ -49165,7 +49414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1099" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1099" s="124" t="s">
         <v>740</v>
       </c>
@@ -49176,7 +49425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1100" s="124" t="s">
         <v>741</v>
       </c>
@@ -49187,7 +49436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1101" s="124" t="s">
         <v>743</v>
       </c>
@@ -49198,7 +49447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1102" s="127" t="s">
         <v>666</v>
       </c>
@@ -49211,8 +49460,11 @@
       <c r="E1102">
         <v>4</v>
       </c>
-    </row>
-    <row r="1103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1102" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1103" s="127" t="s">
         <v>668</v>
       </c>
@@ -49226,7 +49478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1104" s="124" t="s">
         <v>745</v>
       </c>
@@ -49237,7 +49489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1105" s="124" t="s">
         <v>744</v>
       </c>
@@ -49248,7 +49500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1106" s="127" t="s">
         <v>669</v>
       </c>
@@ -49262,7 +49514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1107" s="123" t="s">
         <v>547</v>
       </c>
@@ -49273,7 +49525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1108" s="123" t="s">
         <v>548</v>
       </c>
@@ -49284,7 +49536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1109" s="127" t="s">
         <v>675</v>
       </c>
@@ -49295,7 +49547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1110" s="127" t="s">
         <v>610</v>
       </c>
@@ -49305,8 +49557,11 @@
       <c r="E1110">
         <v>4</v>
       </c>
-    </row>
-    <row r="1111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1110" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1111" s="127" t="s">
         <v>606</v>
       </c>
@@ -49320,7 +49575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1112" s="127" t="s">
         <v>605</v>
       </c>
@@ -49333,8 +49588,11 @@
       <c r="E1112">
         <v>4</v>
       </c>
-    </row>
-    <row r="1113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1112" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1113" s="127" t="s">
         <v>604</v>
       </c>
@@ -49347,8 +49605,11 @@
       <c r="E1113">
         <v>4</v>
       </c>
-    </row>
-    <row r="1114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1113" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1114" s="127" t="s">
         <v>601</v>
       </c>
@@ -49361,8 +49622,11 @@
       <c r="E1114">
         <v>4</v>
       </c>
-    </row>
-    <row r="1115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1114" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1115" s="127" t="s">
         <v>599</v>
       </c>
@@ -49375,8 +49639,11 @@
       <c r="E1115">
         <v>4</v>
       </c>
-    </row>
-    <row r="1116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1115" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1116" s="127" t="s">
         <v>595</v>
       </c>
@@ -49389,8 +49656,11 @@
       <c r="E1116">
         <v>4</v>
       </c>
-    </row>
-    <row r="1117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1116" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1117" s="127" t="s">
         <v>586</v>
       </c>
@@ -49403,8 +49673,11 @@
       <c r="E1117">
         <v>4</v>
       </c>
-    </row>
-    <row r="1118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1117" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1118" s="127" t="s">
         <v>581</v>
       </c>
@@ -49421,7 +49694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1119" s="127" t="s">
         <v>596</v>
       </c>
@@ -49434,8 +49707,11 @@
       <c r="E1119">
         <v>4</v>
       </c>
-    </row>
-    <row r="1120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1119" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1120" s="14" t="s">
         <v>178</v>
       </c>
@@ -49672,7 +49948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAB2BD6-6402-43B4-8817-A6E2ACF3D94A}">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>

--- a/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
+++ b/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah 23\Desktop\LabDocuments\FungalCulture\VdIsolatesList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D106D9-99FD-4DAF-8571-F65487A1CEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFA51C5-E2EE-488A-B873-C423E352D139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Imaged" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$H$1135</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8548" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8587" uniqueCount="1405">
   <si>
     <t>Plate</t>
   </si>
@@ -33637,11 +33640,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2726E2F-E8EA-472C-A800-F178F067C4BF}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H1135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33680,7 +33684,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="122">
         <v>1</v>
       </c>
@@ -33700,7 +33704,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="122">
         <v>5</v>
       </c>
@@ -33720,7 +33724,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="124">
         <v>5.4</v>
       </c>
@@ -33734,7 +33738,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="124">
         <v>6.08</v>
       </c>
@@ -33748,7 +33752,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="122">
         <v>8</v>
       </c>
@@ -33768,7 +33772,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="122">
         <v>9</v>
       </c>
@@ -33788,7 +33792,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="122">
         <v>10</v>
       </c>
@@ -33808,7 +33812,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>13</v>
       </c>
@@ -33825,7 +33829,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="122">
         <v>15</v>
       </c>
@@ -33845,7 +33849,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="142">
         <v>16</v>
       </c>
@@ -33862,7 +33866,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="122">
         <v>17</v>
       </c>
@@ -33882,7 +33886,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>19</v>
       </c>
@@ -33899,7 +33903,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>20</v>
       </c>
@@ -33916,7 +33920,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="122">
         <v>21</v>
       </c>
@@ -33936,7 +33940,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="122">
         <v>22</v>
       </c>
@@ -33956,7 +33960,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="122">
         <v>24</v>
       </c>
@@ -33976,7 +33980,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="122">
         <v>25</v>
       </c>
@@ -33996,7 +34000,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="122">
         <v>27</v>
       </c>
@@ -34016,7 +34020,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>29</v>
       </c>
@@ -34033,7 +34037,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="122">
         <v>32</v>
       </c>
@@ -34053,7 +34057,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="122">
         <v>34</v>
       </c>
@@ -34073,7 +34077,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="122">
         <v>35</v>
       </c>
@@ -34093,7 +34097,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="122">
         <v>36</v>
       </c>
@@ -34113,7 +34117,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="122">
         <v>37</v>
       </c>
@@ -34133,7 +34137,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="122">
         <v>38</v>
       </c>
@@ -34153,7 +34157,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="122">
         <v>41</v>
       </c>
@@ -34173,7 +34177,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="122">
         <v>43</v>
       </c>
@@ -34193,7 +34197,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="122">
         <v>44</v>
       </c>
@@ -34213,7 +34217,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="122">
         <v>45</v>
       </c>
@@ -34236,7 +34240,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="122">
         <v>46</v>
       </c>
@@ -34256,7 +34260,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="122">
         <v>47</v>
       </c>
@@ -34276,7 +34280,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="122">
         <v>48</v>
       </c>
@@ -34296,7 +34300,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="163">
         <v>49</v>
       </c>
@@ -34319,7 +34323,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="122">
         <v>50</v>
       </c>
@@ -34339,7 +34343,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="122">
         <v>51</v>
       </c>
@@ -34359,7 +34363,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="122">
         <v>52</v>
       </c>
@@ -34382,7 +34386,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="122">
         <v>53</v>
       </c>
@@ -34402,7 +34406,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="122">
         <v>54</v>
       </c>
@@ -34422,7 +34426,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="122">
         <v>55</v>
       </c>
@@ -34442,7 +34446,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="122">
         <v>56</v>
       </c>
@@ -34462,7 +34466,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="122">
         <v>57</v>
       </c>
@@ -34485,7 +34489,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="122">
         <v>58</v>
       </c>
@@ -34505,7 +34509,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="163">
         <v>60</v>
       </c>
@@ -34528,7 +34532,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="122">
         <v>61</v>
       </c>
@@ -34548,7 +34552,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="122">
         <v>62</v>
       </c>
@@ -34571,7 +34575,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="122">
         <v>65</v>
       </c>
@@ -34607,8 +34611,11 @@
       <c r="E48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="122">
         <v>67</v>
       </c>
@@ -34628,7 +34635,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="122">
         <v>68</v>
       </c>
@@ -34648,7 +34655,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="122">
         <v>69</v>
       </c>
@@ -34668,7 +34675,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="163">
         <v>70</v>
       </c>
@@ -34691,7 +34698,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="122">
         <v>71</v>
       </c>
@@ -34711,7 +34718,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="122">
         <v>72</v>
       </c>
@@ -34747,6 +34754,9 @@
       <c r="E55" t="s">
         <v>1364</v>
       </c>
+      <c r="F55" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="122">
@@ -34764,6 +34774,9 @@
       <c r="E56" t="s">
         <v>1364</v>
       </c>
+      <c r="F56" t="s">
+        <v>1401</v>
+      </c>
       <c r="G56" t="s">
         <v>1400</v>
       </c>
@@ -34784,6 +34797,9 @@
       <c r="E57" t="s">
         <v>1364</v>
       </c>
+      <c r="F57" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="122">
@@ -34801,6 +34817,9 @@
       <c r="E58" t="s">
         <v>1364</v>
       </c>
+      <c r="F58" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="122">
@@ -34818,8 +34837,11 @@
       <c r="E59" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="163">
         <v>80</v>
       </c>
@@ -34861,6 +34883,9 @@
       <c r="E61" t="s">
         <v>1364</v>
       </c>
+      <c r="F61" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="122">
@@ -34878,8 +34903,11 @@
       <c r="E62" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="124">
         <v>85</v>
       </c>
@@ -34893,7 +34921,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="163">
         <v>92</v>
       </c>
@@ -34916,7 +34944,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="163">
         <v>93</v>
       </c>
@@ -34939,7 +34967,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="163">
         <v>94</v>
       </c>
@@ -34962,7 +34990,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="163">
         <v>95</v>
       </c>
@@ -35001,6 +35029,9 @@
       <c r="E68" t="s">
         <v>1364</v>
       </c>
+      <c r="F68" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="122">
@@ -35018,6 +35049,9 @@
       <c r="E69" t="s">
         <v>1364</v>
       </c>
+      <c r="F69" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="122">
@@ -35035,6 +35069,9 @@
       <c r="E70" t="s">
         <v>1364</v>
       </c>
+      <c r="F70" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="121">
@@ -35052,6 +35089,9 @@
       <c r="E71" t="s">
         <v>1364</v>
       </c>
+      <c r="F71" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="121">
@@ -35069,6 +35109,9 @@
       <c r="E72" t="s">
         <v>1364</v>
       </c>
+      <c r="F72" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="121">
@@ -35086,6 +35129,9 @@
       <c r="E73" t="s">
         <v>1364</v>
       </c>
+      <c r="F73" t="s">
+        <v>1401</v>
+      </c>
       <c r="G73" t="s">
         <v>1400</v>
       </c>
@@ -35106,6 +35152,9 @@
       <c r="E74" t="s">
         <v>1364</v>
       </c>
+      <c r="F74" t="s">
+        <v>1401</v>
+      </c>
       <c r="G74" t="s">
         <v>1400</v>
       </c>
@@ -35126,8 +35175,11 @@
       <c r="E75" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="164">
         <v>106</v>
       </c>
@@ -35150,7 +35202,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="164">
         <v>107</v>
       </c>
@@ -35173,7 +35225,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="164">
         <v>109</v>
       </c>
@@ -35212,6 +35264,9 @@
       <c r="E79" t="s">
         <v>1364</v>
       </c>
+      <c r="F79" t="s">
+        <v>1401</v>
+      </c>
       <c r="G79" t="s">
         <v>1400</v>
       </c>
@@ -35232,8 +35287,11 @@
       <c r="E80" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="164">
         <v>113</v>
       </c>
@@ -35272,6 +35330,9 @@
       <c r="E82" t="s">
         <v>1364</v>
       </c>
+      <c r="F82" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="121">
@@ -35289,6 +35350,9 @@
       <c r="E83" t="s">
         <v>1364</v>
       </c>
+      <c r="F83" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="121">
@@ -35306,8 +35370,11 @@
       <c r="E84" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="164">
         <v>119</v>
       </c>
@@ -35346,6 +35413,9 @@
       <c r="E86" t="s">
         <v>1364</v>
       </c>
+      <c r="F86" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="121">
@@ -35363,8 +35433,11 @@
       <c r="E87" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="29">
         <v>126</v>
       </c>
@@ -35381,7 +35454,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>127</v>
       </c>
@@ -35414,6 +35487,9 @@
       <c r="E90" t="s">
         <v>1364</v>
       </c>
+      <c r="F90" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="121">
@@ -35431,6 +35507,9 @@
       <c r="E91" t="s">
         <v>1364</v>
       </c>
+      <c r="F91" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="121">
@@ -35448,8 +35527,11 @@
       <c r="E92" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>134</v>
       </c>
@@ -35466,7 +35548,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="29">
         <v>136</v>
       </c>
@@ -35483,7 +35565,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="164">
         <v>140</v>
       </c>
@@ -35522,6 +35604,9 @@
       <c r="E96" t="s">
         <v>1364</v>
       </c>
+      <c r="F96" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="121">
@@ -35539,6 +35624,9 @@
       <c r="E97" t="s">
         <v>1364</v>
       </c>
+      <c r="F97" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="121">
@@ -35556,8 +35644,11 @@
       <c r="E98" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="29">
         <v>150</v>
       </c>
@@ -35590,6 +35681,9 @@
       <c r="E100" t="s">
         <v>1364</v>
       </c>
+      <c r="F100" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="121">
@@ -35607,8 +35701,11 @@
       <c r="E101" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="29">
         <v>156</v>
       </c>
@@ -35626,7 +35723,7 @@
       </c>
       <c r="F102" s="165"/>
     </row>
-    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>157</v>
       </c>
@@ -35659,6 +35756,9 @@
       <c r="E104" t="s">
         <v>1367</v>
       </c>
+      <c r="F104" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="119">
@@ -35676,6 +35776,9 @@
       <c r="E105" t="s">
         <v>1367</v>
       </c>
+      <c r="F105" t="s">
+        <v>1401</v>
+      </c>
       <c r="G105" t="s">
         <v>1400</v>
       </c>
@@ -35696,6 +35799,9 @@
       <c r="E106" t="s">
         <v>1367</v>
       </c>
+      <c r="F106" t="s">
+        <v>1401</v>
+      </c>
       <c r="G106" t="s">
         <v>1400</v>
       </c>
@@ -35716,11 +35822,14 @@
       <c r="E107" t="s">
         <v>1367</v>
       </c>
+      <c r="F107" t="s">
+        <v>1401</v>
+      </c>
       <c r="G107" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="142">
         <v>263</v>
       </c>
@@ -35734,7 +35843,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="129">
         <v>317</v>
       </c>
@@ -35767,8 +35876,11 @@
       <c r="E110" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="129">
         <v>381</v>
       </c>
@@ -35801,8 +35913,11 @@
       <c r="E112" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="124">
         <v>491</v>
       </c>
@@ -35816,7 +35931,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="124">
         <v>492</v>
       </c>
@@ -35830,7 +35945,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="124">
         <v>495</v>
       </c>
@@ -35841,7 +35956,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="124">
         <v>496</v>
       </c>
@@ -35852,7 +35967,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="124">
         <v>497</v>
       </c>
@@ -35866,7 +35981,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="124">
         <v>498</v>
       </c>
@@ -35880,7 +35995,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="124">
         <v>499</v>
       </c>
@@ -35894,7 +36009,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="127">
         <v>500</v>
       </c>
@@ -35905,7 +36020,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="124">
         <v>503</v>
       </c>
@@ -35916,7 +36031,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="124">
         <v>504</v>
       </c>
@@ -35927,7 +36042,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="127">
         <v>505</v>
       </c>
@@ -35947,7 +36062,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="124">
         <v>506</v>
       </c>
@@ -35974,6 +36089,9 @@
       <c r="E125" t="s">
         <v>1367</v>
       </c>
+      <c r="F125" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="119">
@@ -35991,11 +36109,14 @@
       <c r="E126" t="s">
         <v>1367</v>
       </c>
+      <c r="F126" t="s">
+        <v>1401</v>
+      </c>
       <c r="G126" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="124">
         <v>849</v>
       </c>
@@ -36006,7 +36127,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="142">
         <v>8215</v>
       </c>
@@ -36020,7 +36141,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="138" t="s">
         <v>1036</v>
       </c>
@@ -36031,7 +36152,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="123" t="s">
         <v>539</v>
       </c>
@@ -36124,7 +36245,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>134</v>
       </c>
@@ -36141,7 +36262,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
         <v>137</v>
       </c>
@@ -36158,7 +36279,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
         <v>138</v>
       </c>
@@ -36175,7 +36296,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
         <v>154</v>
       </c>
@@ -36192,7 +36313,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>155</v>
       </c>
@@ -36209,7 +36330,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>139</v>
       </c>
@@ -36226,7 +36347,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="124" t="s">
         <v>945</v>
       </c>
@@ -36243,7 +36364,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="124" t="s">
         <v>944</v>
       </c>
@@ -36260,7 +36381,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="124" t="s">
         <v>943</v>
       </c>
@@ -36277,7 +36398,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="124" t="s">
         <v>940</v>
       </c>
@@ -36294,7 +36415,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="124" t="s">
         <v>941</v>
       </c>
@@ -36311,7 +36432,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="124" t="s">
         <v>942</v>
       </c>
@@ -36379,7 +36500,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="124" t="s">
         <v>954</v>
       </c>
@@ -36413,7 +36534,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="124" t="s">
         <v>951</v>
       </c>
@@ -36430,7 +36551,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="124" t="s">
         <v>953</v>
       </c>
@@ -36447,7 +36568,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="124" t="s">
         <v>953</v>
       </c>
@@ -36464,7 +36585,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="124" t="s">
         <v>955</v>
       </c>
@@ -36481,7 +36602,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="124" t="s">
         <v>955</v>
       </c>
@@ -36515,7 +36636,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>262</v>
       </c>
@@ -36549,7 +36670,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="124" t="s">
         <v>958</v>
       </c>
@@ -36566,7 +36687,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="124" t="s">
         <v>956</v>
       </c>
@@ -36617,7 +36738,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="124" t="s">
         <v>948</v>
       </c>
@@ -36634,7 +36755,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="124" t="s">
         <v>950</v>
       </c>
@@ -36719,7 +36840,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="124" t="s">
         <v>1320</v>
       </c>
@@ -36815,7 +36936,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="124" t="s">
         <v>1102</v>
       </c>
@@ -36826,7 +36947,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="124" t="s">
         <v>1173</v>
       </c>
@@ -36837,7 +36958,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="124" t="s">
         <v>986</v>
       </c>
@@ -36888,7 +37009,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="124" t="s">
         <v>1081</v>
       </c>
@@ -36899,7 +37020,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="124" t="s">
         <v>1174</v>
       </c>
@@ -36947,7 +37068,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="124" t="s">
         <v>1103</v>
       </c>
@@ -36958,7 +37079,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="124" t="s">
         <v>1336</v>
       </c>
@@ -36969,7 +37090,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="124" t="s">
         <v>1127</v>
       </c>
@@ -36997,7 +37118,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="124" t="s">
         <v>1128</v>
       </c>
@@ -37059,7 +37180,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="124" t="s">
         <v>1024</v>
       </c>
@@ -37090,7 +37211,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="124" t="s">
         <v>1094</v>
       </c>
@@ -37138,7 +37259,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="124" t="s">
         <v>972</v>
       </c>
@@ -37175,7 +37296,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="121" t="s">
         <v>1365</v>
       </c>
@@ -37209,7 +37330,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="124" t="s">
         <v>987</v>
       </c>
@@ -37226,7 +37347,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="121" t="s">
         <v>1368</v>
       </c>
@@ -37243,7 +37364,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="124" t="s">
         <v>1099</v>
       </c>
@@ -37376,7 +37497,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="124" t="s">
         <v>1100</v>
       </c>
@@ -37387,7 +37508,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="124" t="s">
         <v>1101</v>
       </c>
@@ -37432,7 +37553,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="131" t="s">
         <v>333</v>
       </c>
@@ -37486,7 +37607,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="124" t="s">
         <v>1093</v>
       </c>
@@ -37497,7 +37618,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="124" t="s">
         <v>1091</v>
       </c>
@@ -37508,7 +37629,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="124" t="s">
         <v>1331</v>
       </c>
@@ -37519,7 +37640,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="124" t="s">
         <v>971</v>
       </c>
@@ -37581,7 +37702,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="124" t="s">
         <v>1092</v>
       </c>
@@ -37833,7 +37954,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="124" t="s">
         <v>557</v>
       </c>
@@ -37847,7 +37968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="124" t="s">
         <v>556</v>
       </c>
@@ -37861,7 +37982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="124" t="s">
         <v>554</v>
       </c>
@@ -37875,7 +37996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="124" t="s">
         <v>555</v>
       </c>
@@ -37889,7 +38010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="124" t="s">
         <v>970</v>
       </c>
@@ -37994,7 +38115,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="124" t="s">
         <v>1131</v>
       </c>
@@ -38076,7 +38197,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="29" t="s">
         <v>75</v>
       </c>
@@ -38108,7 +38229,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="123" t="s">
         <v>372</v>
       </c>
@@ -38125,7 +38246,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="124" t="s">
         <v>1145</v>
       </c>
@@ -38136,7 +38257,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="124" t="s">
         <v>1134</v>
       </c>
@@ -38181,7 +38302,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="124" t="s">
         <v>1223</v>
       </c>
@@ -38195,7 +38316,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="124" t="s">
         <v>1222</v>
       </c>
@@ -38209,7 +38330,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="124" t="s">
         <v>1224</v>
       </c>
@@ -38223,7 +38344,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="124" t="s">
         <v>1225</v>
       </c>
@@ -38237,7 +38358,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="124" t="s">
         <v>1226</v>
       </c>
@@ -38251,7 +38372,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="124" t="s">
         <v>1227</v>
       </c>
@@ -38265,7 +38386,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="124" t="s">
         <v>1228</v>
       </c>
@@ -38279,7 +38400,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="124" t="s">
         <v>1229</v>
       </c>
@@ -38293,7 +38414,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="124" t="s">
         <v>1230</v>
       </c>
@@ -38307,7 +38428,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="124" t="s">
         <v>1231</v>
       </c>
@@ -38321,7 +38442,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="124" t="s">
         <v>1310</v>
       </c>
@@ -38335,7 +38456,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="124" t="s">
         <v>1311</v>
       </c>
@@ -38349,7 +38470,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="124" t="s">
         <v>1124</v>
       </c>
@@ -38360,7 +38481,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="124" t="s">
         <v>1111</v>
       </c>
@@ -38371,7 +38492,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="124" t="s">
         <v>1157</v>
       </c>
@@ -38382,7 +38503,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="124" t="s">
         <v>1123</v>
       </c>
@@ -38393,7 +38514,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="124" t="s">
         <v>1144</v>
       </c>
@@ -38404,7 +38525,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="124" t="s">
         <v>996</v>
       </c>
@@ -38453,7 +38574,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="128" t="s">
         <v>149</v>
       </c>
@@ -38470,7 +38591,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="124" t="s">
         <v>1115</v>
       </c>
@@ -38481,7 +38602,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="124" t="s">
         <v>1125</v>
       </c>
@@ -38492,7 +38613,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="124" t="s">
         <v>1125</v>
       </c>
@@ -38503,7 +38624,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="124" t="s">
         <v>1347</v>
       </c>
@@ -38514,7 +38635,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="124" t="s">
         <v>1346</v>
       </c>
@@ -38525,7 +38646,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="124" t="s">
         <v>1348</v>
       </c>
@@ -38536,7 +38657,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="124" t="s">
         <v>1344</v>
       </c>
@@ -38547,7 +38668,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="124" t="s">
         <v>1345</v>
       </c>
@@ -38558,7 +38679,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="120" t="s">
         <v>430</v>
       </c>
@@ -38830,7 +38951,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="124" t="s">
         <v>1141</v>
       </c>
@@ -38841,7 +38962,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="124" t="s">
         <v>1142</v>
       </c>
@@ -38852,7 +38973,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="124" t="s">
         <v>1139</v>
       </c>
@@ -38863,7 +38984,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="124" t="s">
         <v>1138</v>
       </c>
@@ -38874,7 +38995,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="124" t="s">
         <v>1140</v>
       </c>
@@ -38902,7 +39023,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="123" t="s">
         <v>533</v>
       </c>
@@ -38916,7 +39037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="123" t="s">
         <v>537</v>
       </c>
@@ -38930,7 +39051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="124" t="s">
         <v>1196</v>
       </c>
@@ -38941,7 +39062,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="124" t="s">
         <v>1121</v>
       </c>
@@ -38952,7 +39073,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="124" t="s">
         <v>1160</v>
       </c>
@@ -38963,7 +39084,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="124" t="s">
         <v>1198</v>
       </c>
@@ -38974,7 +39095,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="124" t="s">
         <v>1161</v>
       </c>
@@ -38985,7 +39106,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="124" t="s">
         <v>1119</v>
       </c>
@@ -38996,7 +39117,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="124" t="s">
         <v>1209</v>
       </c>
@@ -39010,7 +39131,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="124" t="s">
         <v>1210</v>
       </c>
@@ -39024,7 +39145,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="124" t="s">
         <v>1211</v>
       </c>
@@ -39038,7 +39159,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="124" t="s">
         <v>1212</v>
       </c>
@@ -39052,7 +39173,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="124" t="s">
         <v>1207</v>
       </c>
@@ -39066,7 +39187,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="124" t="s">
         <v>1208</v>
       </c>
@@ -39080,7 +39201,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="124" t="s">
         <v>1206</v>
       </c>
@@ -39094,7 +39215,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="124" t="s">
         <v>1205</v>
       </c>
@@ -39108,7 +39229,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="124" t="s">
         <v>1218</v>
       </c>
@@ -39122,7 +39243,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="124" t="s">
         <v>1164</v>
       </c>
@@ -39133,7 +39254,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="124" t="s">
         <v>1219</v>
       </c>
@@ -39147,7 +39268,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="124" t="s">
         <v>1220</v>
       </c>
@@ -39161,7 +39282,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="124" t="s">
         <v>1086</v>
       </c>
@@ -39172,7 +39293,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="124" t="s">
         <v>1153</v>
       </c>
@@ -39183,7 +39304,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="124" t="s">
         <v>1213</v>
       </c>
@@ -39197,7 +39318,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="124" t="s">
         <v>1214</v>
       </c>
@@ -39211,7 +39332,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="124" t="s">
         <v>1215</v>
       </c>
@@ -39225,7 +39346,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="124" t="s">
         <v>1216</v>
       </c>
@@ -39239,7 +39360,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="124" t="s">
         <v>1217</v>
       </c>
@@ -39253,7 +39374,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="124" t="s">
         <v>1090</v>
       </c>
@@ -39264,7 +39385,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="124" t="s">
         <v>1089</v>
       </c>
@@ -39275,7 +39396,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="124" t="s">
         <v>1089</v>
       </c>
@@ -39286,7 +39407,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="124" t="s">
         <v>1089</v>
       </c>
@@ -39297,7 +39418,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="124" t="s">
         <v>1151</v>
       </c>
@@ -39308,7 +39429,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="124" t="s">
         <v>1155</v>
       </c>
@@ -39319,7 +39440,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="124" t="s">
         <v>1118</v>
       </c>
@@ -39333,7 +39454,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="124" t="s">
         <v>1118</v>
       </c>
@@ -39344,7 +39465,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="124" t="s">
         <v>1162</v>
       </c>
@@ -39355,7 +39476,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="124" t="s">
         <v>1197</v>
       </c>
@@ -39366,7 +39487,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="124" t="s">
         <v>1120</v>
       </c>
@@ -39377,7 +39498,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="124" t="s">
         <v>1163</v>
       </c>
@@ -39388,7 +39509,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="124" t="s">
         <v>1159</v>
       </c>
@@ -39399,7 +39520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="124" t="s">
         <v>1296</v>
       </c>
@@ -39413,7 +39534,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="124" t="s">
         <v>1292</v>
       </c>
@@ -39427,7 +39548,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="124" t="s">
         <v>1279</v>
       </c>
@@ -39441,7 +39562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="124" t="s">
         <v>1280</v>
       </c>
@@ -39455,7 +39576,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="124" t="s">
         <v>1386</v>
       </c>
@@ -39466,7 +39587,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="124" t="s">
         <v>1281</v>
       </c>
@@ -39480,7 +39601,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="124" t="s">
         <v>1282</v>
       </c>
@@ -39494,7 +39615,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="124" t="s">
         <v>1285</v>
       </c>
@@ -39508,7 +39629,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="124" t="s">
         <v>1283</v>
       </c>
@@ -39522,7 +39643,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="124" t="s">
         <v>1284</v>
       </c>
@@ -39536,7 +39657,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="124" t="s">
         <v>1237</v>
       </c>
@@ -39550,7 +39671,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="124" t="s">
         <v>1238</v>
       </c>
@@ -39564,7 +39685,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="124" t="s">
         <v>1239</v>
       </c>
@@ -39578,7 +39699,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="124" t="s">
         <v>1240</v>
       </c>
@@ -39592,7 +39713,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="124" t="s">
         <v>1241</v>
       </c>
@@ -39606,7 +39727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="124" t="s">
         <v>1242</v>
       </c>
@@ -39620,7 +39741,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="124" t="s">
         <v>1243</v>
       </c>
@@ -39634,7 +39755,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="124" t="s">
         <v>1244</v>
       </c>
@@ -39648,7 +39769,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="124" t="s">
         <v>1291</v>
       </c>
@@ -39662,7 +39783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="124" t="s">
         <v>1232</v>
       </c>
@@ -39676,7 +39797,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="124" t="s">
         <v>1233</v>
       </c>
@@ -39690,7 +39811,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="124" t="s">
         <v>1234</v>
       </c>
@@ -39704,7 +39825,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="124" t="s">
         <v>1235</v>
       </c>
@@ -39718,7 +39839,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="124" t="s">
         <v>1236</v>
       </c>
@@ -39732,7 +39853,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="124" t="s">
         <v>1287</v>
       </c>
@@ -39746,7 +39867,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="124" t="s">
         <v>1288</v>
       </c>
@@ -39760,7 +39881,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="124" t="s">
         <v>1274</v>
       </c>
@@ -39771,7 +39892,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="124" t="s">
         <v>1274</v>
       </c>
@@ -39785,7 +39906,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="124" t="s">
         <v>1273</v>
       </c>
@@ -39796,7 +39917,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="124" t="s">
         <v>1273</v>
       </c>
@@ -39810,7 +39931,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="124" t="s">
         <v>1289</v>
       </c>
@@ -39824,7 +39945,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="124" t="s">
         <v>1290</v>
       </c>
@@ -39838,7 +39959,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="124" t="s">
         <v>1295</v>
       </c>
@@ -39852,7 +39973,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="124" t="s">
         <v>1295</v>
       </c>
@@ -39866,7 +39987,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="124" t="s">
         <v>1356</v>
       </c>
@@ -39877,7 +39998,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="124" t="s">
         <v>1357</v>
       </c>
@@ -39888,7 +40009,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="124" t="s">
         <v>1035</v>
       </c>
@@ -39899,7 +40020,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="124" t="s">
         <v>1265</v>
       </c>
@@ -39910,7 +40031,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="124" t="s">
         <v>1265</v>
       </c>
@@ -39924,7 +40045,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="124" t="s">
         <v>1266</v>
       </c>
@@ -39935,7 +40056,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="124" t="s">
         <v>1266</v>
       </c>
@@ -39949,7 +40070,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="124" t="s">
         <v>1267</v>
       </c>
@@ -39960,7 +40081,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="124" t="s">
         <v>1267</v>
       </c>
@@ -39974,7 +40095,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="124" t="s">
         <v>1268</v>
       </c>
@@ -39985,7 +40106,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="124" t="s">
         <v>1268</v>
       </c>
@@ -39999,7 +40120,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="124" t="s">
         <v>1269</v>
       </c>
@@ -40010,7 +40131,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="124" t="s">
         <v>1269</v>
       </c>
@@ -40024,7 +40145,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="124" t="s">
         <v>1270</v>
       </c>
@@ -40035,7 +40156,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="124" t="s">
         <v>1270</v>
       </c>
@@ -40049,7 +40170,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="124" t="s">
         <v>1271</v>
       </c>
@@ -40060,7 +40181,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="124" t="s">
         <v>1271</v>
       </c>
@@ -40074,7 +40195,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="124" t="s">
         <v>1286</v>
       </c>
@@ -40088,7 +40209,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="124" t="s">
         <v>1272</v>
       </c>
@@ -40099,7 +40220,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="124" t="s">
         <v>1272</v>
       </c>
@@ -40113,7 +40234,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="124" t="s">
         <v>1294</v>
       </c>
@@ -40127,7 +40248,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="124" t="s">
         <v>1306</v>
       </c>
@@ -40141,7 +40262,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="124" t="s">
         <v>1307</v>
       </c>
@@ -40155,7 +40276,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="124" t="s">
         <v>1308</v>
       </c>
@@ -40169,7 +40290,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="124" t="s">
         <v>1305</v>
       </c>
@@ -40183,7 +40304,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="124" t="s">
         <v>1303</v>
       </c>
@@ -40197,7 +40318,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="124" t="s">
         <v>1304</v>
       </c>
@@ -40211,7 +40332,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="124" t="s">
         <v>1258</v>
       </c>
@@ -40222,7 +40343,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="124" t="s">
         <v>1259</v>
       </c>
@@ -40233,7 +40354,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="124" t="s">
         <v>1260</v>
       </c>
@@ -40244,7 +40365,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="124" t="s">
         <v>1261</v>
       </c>
@@ -40255,7 +40376,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="124" t="s">
         <v>1262</v>
       </c>
@@ -40266,7 +40387,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="124" t="s">
         <v>1263</v>
       </c>
@@ -40277,7 +40398,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="124" t="s">
         <v>1264</v>
       </c>
@@ -40288,7 +40409,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="124" t="s">
         <v>1025</v>
       </c>
@@ -40299,7 +40420,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="124" t="s">
         <v>1256</v>
       </c>
@@ -40310,7 +40431,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="124" t="s">
         <v>1297</v>
       </c>
@@ -40324,7 +40445,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="124" t="s">
         <v>1257</v>
       </c>
@@ -40335,7 +40456,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="124" t="s">
         <v>1298</v>
       </c>
@@ -40349,7 +40470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="124" t="s">
         <v>1299</v>
       </c>
@@ -40363,7 +40484,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="124" t="s">
         <v>1300</v>
       </c>
@@ -40377,7 +40498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="124" t="s">
         <v>1301</v>
       </c>
@@ -40391,7 +40512,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="124" t="s">
         <v>1302</v>
       </c>
@@ -40405,7 +40526,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="124" t="s">
         <v>1293</v>
       </c>
@@ -40419,7 +40540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="124" t="s">
         <v>1251</v>
       </c>
@@ -40430,7 +40551,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="124" t="s">
         <v>1251</v>
       </c>
@@ -40444,7 +40565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="124" t="s">
         <v>1252</v>
       </c>
@@ -40455,7 +40576,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="124" t="s">
         <v>1253</v>
       </c>
@@ -40466,7 +40587,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="124" t="s">
         <v>1253</v>
       </c>
@@ -40480,7 +40601,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="124" t="s">
         <v>1254</v>
       </c>
@@ -40491,7 +40612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="124" t="s">
         <v>1255</v>
       </c>
@@ -40502,7 +40623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="124" t="s">
         <v>1255</v>
       </c>
@@ -40516,7 +40637,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="124" t="s">
         <v>1277</v>
       </c>
@@ -40530,7 +40651,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="124" t="s">
         <v>1250</v>
       </c>
@@ -40541,7 +40662,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="124" t="s">
         <v>1250</v>
       </c>
@@ -40555,7 +40676,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="124" t="s">
         <v>1245</v>
       </c>
@@ -40569,7 +40690,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="124" t="s">
         <v>1245</v>
       </c>
@@ -40583,7 +40704,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="124" t="s">
         <v>1246</v>
       </c>
@@ -40594,7 +40715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="124" t="s">
         <v>1246</v>
       </c>
@@ -40608,7 +40729,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="124" t="s">
         <v>1247</v>
       </c>
@@ -40619,7 +40740,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="124" t="s">
         <v>1247</v>
       </c>
@@ -40633,7 +40754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="124" t="s">
         <v>1248</v>
       </c>
@@ -40644,7 +40765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="124" t="s">
         <v>1248</v>
       </c>
@@ -40658,7 +40779,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="124" t="s">
         <v>1278</v>
       </c>
@@ -40672,7 +40793,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="124" t="s">
         <v>1249</v>
       </c>
@@ -40683,7 +40804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="124" t="s">
         <v>1249</v>
       </c>
@@ -40697,7 +40818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="124" t="s">
         <v>1095</v>
       </c>
@@ -40708,7 +40829,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="124" t="s">
         <v>1276</v>
       </c>
@@ -40719,7 +40840,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="124" t="s">
         <v>1313</v>
       </c>
@@ -40733,7 +40854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="124" t="s">
         <v>1312</v>
       </c>
@@ -40747,7 +40868,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="124" t="s">
         <v>1117</v>
       </c>
@@ -40758,7 +40879,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="124" t="s">
         <v>1126</v>
       </c>
@@ -40769,7 +40890,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="124" t="s">
         <v>1116</v>
       </c>
@@ -40780,7 +40901,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="124" t="s">
         <v>1116</v>
       </c>
@@ -40791,7 +40912,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="124" t="s">
         <v>1158</v>
       </c>
@@ -40802,7 +40923,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="124" t="s">
         <v>1195</v>
       </c>
@@ -40813,7 +40934,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="124" t="s">
         <v>1275</v>
       </c>
@@ -40824,7 +40945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="124" t="s">
         <v>1309</v>
       </c>
@@ -40838,7 +40959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="124" t="s">
         <v>1192</v>
       </c>
@@ -40866,7 +40987,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="124" t="s">
         <v>938</v>
       </c>
@@ -40988,7 +41109,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="124" t="s">
         <v>801</v>
       </c>
@@ -40999,7 +41120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="124" t="s">
         <v>797</v>
       </c>
@@ -41010,7 +41131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="124" t="s">
         <v>795</v>
       </c>
@@ -41021,7 +41142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="124" t="s">
         <v>1382</v>
       </c>
@@ -41032,7 +41153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="124" t="s">
         <v>785</v>
       </c>
@@ -41043,7 +41164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="124" t="s">
         <v>787</v>
       </c>
@@ -41054,7 +41175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="124" t="s">
         <v>796</v>
       </c>
@@ -41065,7 +41186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="124" t="s">
         <v>1378</v>
       </c>
@@ -41076,7 +41197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="124" t="s">
         <v>798</v>
       </c>
@@ -41087,7 +41208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="124" t="s">
         <v>789</v>
       </c>
@@ -41098,7 +41219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="124" t="s">
         <v>790</v>
       </c>
@@ -41109,7 +41230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="124" t="s">
         <v>1379</v>
       </c>
@@ -41120,7 +41241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="124" t="s">
         <v>786</v>
       </c>
@@ -41131,7 +41252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="124" t="s">
         <v>793</v>
       </c>
@@ -41142,7 +41263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="124" t="s">
         <v>783</v>
       </c>
@@ -41153,7 +41274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="124" t="s">
         <v>791</v>
       </c>
@@ -41164,7 +41285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="124" t="s">
         <v>780</v>
       </c>
@@ -41175,7 +41296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="124" t="s">
         <v>799</v>
       </c>
@@ -41186,7 +41307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="124" t="s">
         <v>794</v>
       </c>
@@ -41197,7 +41318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="124" t="s">
         <v>784</v>
       </c>
@@ -41208,7 +41329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="496" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="124" t="s">
         <v>1383</v>
       </c>
@@ -41219,7 +41340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="124" t="s">
         <v>792</v>
       </c>
@@ -41230,7 +41351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="124" t="s">
         <v>1380</v>
       </c>
@@ -41241,7 +41362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="124" t="s">
         <v>1381</v>
       </c>
@@ -41252,7 +41373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="124" t="s">
         <v>781</v>
       </c>
@@ -41263,7 +41384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="124" t="s">
         <v>782</v>
       </c>
@@ -41274,7 +41395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="124" t="s">
         <v>788</v>
       </c>
@@ -41285,7 +41406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="124" t="s">
         <v>1349</v>
       </c>
@@ -41296,7 +41417,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="123" t="s">
         <v>529</v>
       </c>
@@ -41310,7 +41431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="123" t="s">
         <v>535</v>
       </c>
@@ -41322,7 +41443,7 @@
       </c>
       <c r="E505" s="145"/>
     </row>
-    <row r="506" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="124" t="s">
         <v>808</v>
       </c>
@@ -41333,7 +41454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="124" t="s">
         <v>813</v>
       </c>
@@ -41344,7 +41465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="124" t="s">
         <v>815</v>
       </c>
@@ -41355,7 +41476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="124" t="s">
         <v>816</v>
       </c>
@@ -41366,7 +41487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="124" t="s">
         <v>817</v>
       </c>
@@ -41377,7 +41498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="124" t="s">
         <v>807</v>
       </c>
@@ -41388,7 +41509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="124" t="s">
         <v>818</v>
       </c>
@@ -41399,7 +41520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="124" t="s">
         <v>811</v>
       </c>
@@ -41410,7 +41531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="514" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="124" t="s">
         <v>749</v>
       </c>
@@ -41421,7 +41542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="124" t="s">
         <v>814</v>
       </c>
@@ -41432,7 +41553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="124" t="s">
         <v>752</v>
       </c>
@@ -41443,7 +41564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="517" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="124" t="s">
         <v>753</v>
       </c>
@@ -41454,7 +41575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="124" t="s">
         <v>754</v>
       </c>
@@ -41465,7 +41586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="519" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="124" t="s">
         <v>755</v>
       </c>
@@ -41476,7 +41597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="520" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="124" t="s">
         <v>756</v>
       </c>
@@ -41487,7 +41608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="124" t="s">
         <v>757</v>
       </c>
@@ -41498,7 +41619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="522" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="124" t="s">
         <v>758</v>
       </c>
@@ -41509,7 +41630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="523" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="124" t="s">
         <v>750</v>
       </c>
@@ -41520,7 +41641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="524" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="124" t="s">
         <v>759</v>
       </c>
@@ -41531,7 +41652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="525" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="124" t="s">
         <v>760</v>
       </c>
@@ -41542,7 +41663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="526" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="124" t="s">
         <v>761</v>
       </c>
@@ -41553,7 +41674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="527" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="124" t="s">
         <v>762</v>
       </c>
@@ -41564,7 +41685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="528" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="124" t="s">
         <v>809</v>
       </c>
@@ -41575,7 +41696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="529" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="124" t="s">
         <v>812</v>
       </c>
@@ -41586,7 +41707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="530" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="124" t="s">
         <v>810</v>
       </c>
@@ -41597,7 +41718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="124" t="s">
         <v>751</v>
       </c>
@@ -41608,7 +41729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="124" t="s">
         <v>918</v>
       </c>
@@ -41625,7 +41746,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="533" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="14" t="s">
         <v>206</v>
       </c>
@@ -41710,7 +41831,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="538" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="124" t="s">
         <v>930</v>
       </c>
@@ -41727,7 +41848,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="539" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="123" t="s">
         <v>1033</v>
       </c>
@@ -41744,7 +41865,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="540" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="124" t="s">
         <v>922</v>
       </c>
@@ -41761,7 +41882,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="541" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="124" t="s">
         <v>1337</v>
       </c>
@@ -41772,7 +41893,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="542" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="124" t="s">
         <v>927</v>
       </c>
@@ -41789,7 +41910,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="543" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="14" t="s">
         <v>260</v>
       </c>
@@ -41806,7 +41927,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="544" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="124" t="s">
         <v>1149</v>
       </c>
@@ -41871,7 +41992,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="124" t="s">
         <v>928</v>
       </c>
@@ -41905,7 +42026,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="124" t="s">
         <v>929</v>
       </c>
@@ -41922,7 +42043,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="124" t="s">
         <v>522</v>
       </c>
@@ -41986,7 +42107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="123" t="s">
         <v>541</v>
       </c>
@@ -41997,7 +42118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="123" t="s">
         <v>542</v>
       </c>
@@ -42008,7 +42129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="127" t="s">
         <v>637</v>
       </c>
@@ -42042,7 +42163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="127" t="s">
         <v>618</v>
       </c>
@@ -42076,7 +42197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="127" t="s">
         <v>660</v>
       </c>
@@ -42110,7 +42231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="123" t="s">
         <v>534</v>
       </c>
@@ -42121,7 +42242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="127" t="s">
         <v>631</v>
       </c>
@@ -42141,7 +42262,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="127" t="s">
         <v>636</v>
       </c>
@@ -42161,7 +42282,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="127" t="s">
         <v>638</v>
       </c>
@@ -42181,7 +42302,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="127" t="s">
         <v>642</v>
       </c>
@@ -42201,7 +42322,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="127" t="s">
         <v>640</v>
       </c>
@@ -42249,7 +42370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="127" t="s">
         <v>617</v>
       </c>
@@ -42297,7 +42418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="127" t="s">
         <v>654</v>
       </c>
@@ -42317,7 +42438,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="127" t="s">
         <v>652</v>
       </c>
@@ -42337,7 +42458,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="127" t="s">
         <v>653</v>
       </c>
@@ -42357,7 +42478,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="127" t="s">
         <v>655</v>
       </c>
@@ -42377,7 +42498,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="127" t="s">
         <v>620</v>
       </c>
@@ -42394,7 +42515,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="123" t="s">
         <v>545</v>
       </c>
@@ -42408,7 +42529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="39" t="s">
         <v>129</v>
       </c>
@@ -42425,7 +42546,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="39" t="s">
         <v>119</v>
       </c>
@@ -42442,7 +42563,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="124" t="s">
         <v>1064</v>
       </c>
@@ -42456,7 +42577,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="124" t="s">
         <v>900</v>
       </c>
@@ -42470,7 +42591,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="585" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="124" t="s">
         <v>843</v>
       </c>
@@ -42484,7 +42605,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="586" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="124" t="s">
         <v>844</v>
       </c>
@@ -42498,7 +42619,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="124" t="s">
         <v>845</v>
       </c>
@@ -42512,7 +42633,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="124" t="s">
         <v>846</v>
       </c>
@@ -42526,7 +42647,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="124" t="s">
         <v>847</v>
       </c>
@@ -42540,7 +42661,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="124" t="s">
         <v>848</v>
       </c>
@@ -42554,7 +42675,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="124" t="s">
         <v>849</v>
       </c>
@@ -42568,7 +42689,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="124" t="s">
         <v>902</v>
       </c>
@@ -42582,7 +42703,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="593" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="124" t="s">
         <v>851</v>
       </c>
@@ -42596,7 +42717,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="594" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="124" t="s">
         <v>852</v>
       </c>
@@ -42610,7 +42731,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="124" t="s">
         <v>853</v>
       </c>
@@ -42624,7 +42745,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="596" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="124" t="s">
         <v>854</v>
       </c>
@@ -42638,7 +42759,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="597" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="124" t="s">
         <v>855</v>
       </c>
@@ -42652,7 +42773,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="598" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="124" t="s">
         <v>856</v>
       </c>
@@ -42666,7 +42787,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="599" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="124" t="s">
         <v>857</v>
       </c>
@@ -42680,7 +42801,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="600" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="124" t="s">
         <v>858</v>
       </c>
@@ -42694,7 +42815,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="601" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="124" t="s">
         <v>859</v>
       </c>
@@ -42708,7 +42829,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="602" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="124" t="s">
         <v>860</v>
       </c>
@@ -42722,7 +42843,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="603" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="124" t="s">
         <v>861</v>
       </c>
@@ -42736,7 +42857,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="604" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="124" t="s">
         <v>862</v>
       </c>
@@ -42750,7 +42871,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="605" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="124" t="s">
         <v>1069</v>
       </c>
@@ -42764,7 +42885,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="606" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="124" t="s">
         <v>863</v>
       </c>
@@ -42778,7 +42899,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="607" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="124" t="s">
         <v>864</v>
       </c>
@@ -42792,7 +42913,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="608" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="124" t="s">
         <v>1068</v>
       </c>
@@ -42806,7 +42927,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="609" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="124" t="s">
         <v>903</v>
       </c>
@@ -42820,7 +42941,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="610" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="124" t="s">
         <v>865</v>
       </c>
@@ -42834,7 +42955,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="611" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="124" t="s">
         <v>866</v>
       </c>
@@ -42848,7 +42969,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="612" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="124" t="s">
         <v>867</v>
       </c>
@@ -42862,7 +42983,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="613" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="124" t="s">
         <v>868</v>
       </c>
@@ -42876,7 +42997,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="614" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="124" t="s">
         <v>869</v>
       </c>
@@ -42890,7 +43011,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="615" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="124" t="s">
         <v>870</v>
       </c>
@@ -42904,7 +43025,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="616" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="124" t="s">
         <v>871</v>
       </c>
@@ -42918,7 +43039,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="617" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="124" t="s">
         <v>904</v>
       </c>
@@ -42932,7 +43053,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="618" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="124" t="s">
         <v>872</v>
       </c>
@@ -42946,7 +43067,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="619" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="124" t="s">
         <v>873</v>
       </c>
@@ -42960,7 +43081,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="620" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="124" t="s">
         <v>874</v>
       </c>
@@ -42974,7 +43095,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="621" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="124" t="s">
         <v>875</v>
       </c>
@@ -42988,7 +43109,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="622" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="124" t="s">
         <v>876</v>
       </c>
@@ -43002,7 +43123,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="623" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="124" t="s">
         <v>877</v>
       </c>
@@ -43016,7 +43137,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="624" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="124" t="s">
         <v>1065</v>
       </c>
@@ -43030,7 +43151,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="625" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="124" t="s">
         <v>878</v>
       </c>
@@ -43044,7 +43165,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="626" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="124" t="s">
         <v>879</v>
       </c>
@@ -43058,7 +43179,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="627" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="124" t="s">
         <v>1067</v>
       </c>
@@ -43072,7 +43193,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="628" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="124" t="s">
         <v>880</v>
       </c>
@@ -43086,7 +43207,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="629" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="124" t="s">
         <v>881</v>
       </c>
@@ -43100,7 +43221,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="630" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="124" t="s">
         <v>882</v>
       </c>
@@ -43114,7 +43235,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="631" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="124" t="s">
         <v>905</v>
       </c>
@@ -43128,7 +43249,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="632" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="124" t="s">
         <v>906</v>
       </c>
@@ -43142,7 +43263,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="633" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="124" t="s">
         <v>907</v>
       </c>
@@ -43156,7 +43277,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="634" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="124" t="s">
         <v>908</v>
       </c>
@@ -43170,7 +43291,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="635" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="124" t="s">
         <v>893</v>
       </c>
@@ -43184,7 +43305,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="636" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="124" t="s">
         <v>909</v>
       </c>
@@ -43198,7 +43319,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="637" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="124" t="s">
         <v>1066</v>
       </c>
@@ -43212,7 +43333,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="638" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="124" t="s">
         <v>910</v>
       </c>
@@ -43226,7 +43347,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="639" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="124" t="s">
         <v>911</v>
       </c>
@@ -43240,7 +43361,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="640" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="124" t="s">
         <v>912</v>
       </c>
@@ -43254,7 +43375,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="641" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="124" t="s">
         <v>913</v>
       </c>
@@ -43268,7 +43389,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="642" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="124" t="s">
         <v>819</v>
       </c>
@@ -43282,7 +43403,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="643" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="124" t="s">
         <v>820</v>
       </c>
@@ -43296,7 +43417,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="644" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="124" t="s">
         <v>1076</v>
       </c>
@@ -43310,7 +43431,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="645" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="124" t="s">
         <v>1056</v>
       </c>
@@ -43324,7 +43445,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="646" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="124" t="s">
         <v>1072</v>
       </c>
@@ -43338,7 +43459,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="647" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="124" t="s">
         <v>1057</v>
       </c>
@@ -43352,7 +43473,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="648" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="124" t="s">
         <v>1058</v>
       </c>
@@ -43366,7 +43487,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="649" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="124" t="s">
         <v>821</v>
       </c>
@@ -43380,7 +43501,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="650" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="124" t="s">
         <v>894</v>
       </c>
@@ -43394,7 +43515,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="651" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="124" t="s">
         <v>822</v>
       </c>
@@ -43408,7 +43529,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="652" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="124" t="s">
         <v>1059</v>
       </c>
@@ -43422,7 +43543,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="653" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="124" t="s">
         <v>823</v>
       </c>
@@ -43436,7 +43557,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="654" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="124" t="s">
         <v>1061</v>
       </c>
@@ -43450,7 +43571,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="655" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="124" t="s">
         <v>1062</v>
       </c>
@@ -43464,7 +43585,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="656" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="124" t="s">
         <v>1063</v>
       </c>
@@ -43478,7 +43599,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="657" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="124" t="s">
         <v>824</v>
       </c>
@@ -43492,7 +43613,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="658" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="124" t="s">
         <v>825</v>
       </c>
@@ -43506,7 +43627,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="659" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="124" t="s">
         <v>826</v>
       </c>
@@ -43520,7 +43641,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="124" t="s">
         <v>1073</v>
       </c>
@@ -43534,7 +43655,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="661" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="124" t="s">
         <v>895</v>
       </c>
@@ -43548,7 +43669,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="662" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="124" t="s">
         <v>827</v>
       </c>
@@ -43562,7 +43683,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="124" t="s">
         <v>1077</v>
       </c>
@@ -43576,7 +43697,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="124" t="s">
         <v>828</v>
       </c>
@@ -43590,7 +43711,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="124" t="s">
         <v>829</v>
       </c>
@@ -43604,7 +43725,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="666" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="124" t="s">
         <v>830</v>
       </c>
@@ -43618,7 +43739,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="667" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="124" t="s">
         <v>831</v>
       </c>
@@ -43632,7 +43753,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="668" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="124" t="s">
         <v>832</v>
       </c>
@@ -43646,7 +43767,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="669" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="124" t="s">
         <v>833</v>
       </c>
@@ -43660,7 +43781,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="670" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="124" t="s">
         <v>1060</v>
       </c>
@@ -43674,7 +43795,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="671" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="124" t="s">
         <v>834</v>
       </c>
@@ -43688,7 +43809,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="672" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="124" t="s">
         <v>896</v>
       </c>
@@ -43702,7 +43823,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="673" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="124" t="s">
         <v>1055</v>
       </c>
@@ -43716,7 +43837,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="674" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="124" t="s">
         <v>1053</v>
       </c>
@@ -43730,7 +43851,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="675" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="124" t="s">
         <v>1046</v>
       </c>
@@ -43744,7 +43865,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="676" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="124" t="s">
         <v>1047</v>
       </c>
@@ -43758,7 +43879,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="677" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="124" t="s">
         <v>891</v>
       </c>
@@ -43772,7 +43893,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="678" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="124" t="s">
         <v>1054</v>
       </c>
@@ -43786,7 +43907,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="679" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="124" t="s">
         <v>1071</v>
       </c>
@@ -43800,7 +43921,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="680" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="124" t="s">
         <v>1045</v>
       </c>
@@ -43814,7 +43935,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="681" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="124" t="s">
         <v>897</v>
       </c>
@@ -43828,7 +43949,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="682" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="124" t="s">
         <v>1074</v>
       </c>
@@ -43842,7 +43963,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="683" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="124" t="s">
         <v>1201</v>
       </c>
@@ -43853,7 +43974,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="684" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="124" t="s">
         <v>1075</v>
       </c>
@@ -43867,7 +43988,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="685" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="124" t="s">
         <v>892</v>
       </c>
@@ -43881,7 +44002,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="686" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="124" t="s">
         <v>890</v>
       </c>
@@ -43895,7 +44016,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="687" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="124" t="s">
         <v>889</v>
       </c>
@@ -43909,7 +44030,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="688" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="124" t="s">
         <v>1070</v>
       </c>
@@ -43923,7 +44044,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="689" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="124" t="s">
         <v>1051</v>
       </c>
@@ -43937,7 +44058,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="690" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="124" t="s">
         <v>1052</v>
       </c>
@@ -43951,7 +44072,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="691" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="124" t="s">
         <v>898</v>
       </c>
@@ -43965,7 +44086,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="692" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="124" t="s">
         <v>1049</v>
       </c>
@@ -43979,7 +44100,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="693" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="124" t="s">
         <v>888</v>
       </c>
@@ -43993,7 +44114,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="694" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="124" t="s">
         <v>1050</v>
       </c>
@@ -44007,7 +44128,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="695" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="124" t="s">
         <v>887</v>
       </c>
@@ -44021,7 +44142,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="696" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="124" t="s">
         <v>1048</v>
       </c>
@@ -44035,7 +44156,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="697" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="124" t="s">
         <v>886</v>
       </c>
@@ -44049,7 +44170,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="698" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="124" t="s">
         <v>885</v>
       </c>
@@ -44063,7 +44184,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="699" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="124" t="s">
         <v>884</v>
       </c>
@@ -44077,7 +44198,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="700" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="124" t="s">
         <v>883</v>
       </c>
@@ -44091,7 +44212,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="701" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="124" t="s">
         <v>899</v>
       </c>
@@ -44105,7 +44226,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="702" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="124" t="s">
         <v>835</v>
       </c>
@@ -44119,7 +44240,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="703" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="124" t="s">
         <v>836</v>
       </c>
@@ -44133,7 +44254,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="704" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="124" t="s">
         <v>837</v>
       </c>
@@ -44147,7 +44268,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="705" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="124" t="s">
         <v>838</v>
       </c>
@@ -44161,7 +44282,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="706" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="124" t="s">
         <v>839</v>
       </c>
@@ -44175,7 +44296,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="707" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="124" t="s">
         <v>840</v>
       </c>
@@ -44189,7 +44310,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="708" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="124" t="s">
         <v>841</v>
       </c>
@@ -44203,7 +44324,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="124" t="s">
         <v>842</v>
       </c>
@@ -44217,7 +44338,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="126" t="s">
         <v>459</v>
       </c>
@@ -44235,7 +44356,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="124" t="s">
         <v>1110</v>
       </c>
@@ -44246,7 +44367,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="712" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="124" t="s">
         <v>1110</v>
       </c>
@@ -44257,7 +44378,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="713" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="124" t="s">
         <v>1108</v>
       </c>
@@ -44268,7 +44389,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="714" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="124" t="s">
         <v>1109</v>
       </c>
@@ -44279,7 +44400,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="14" t="s">
         <v>219</v>
       </c>
@@ -44296,7 +44417,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="716" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="124" t="s">
         <v>936</v>
       </c>
@@ -44313,7 +44434,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="717" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="124" t="s">
         <v>1176</v>
       </c>
@@ -44324,7 +44445,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="718" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="124" t="s">
         <v>1181</v>
       </c>
@@ -44335,7 +44456,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="124" t="s">
         <v>1182</v>
       </c>
@@ -44397,7 +44518,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="723" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="124" t="s">
         <v>1168</v>
       </c>
@@ -44408,7 +44529,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="724" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="124" t="s">
         <v>1167</v>
       </c>
@@ -44419,7 +44540,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="725" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="124" t="s">
         <v>1175</v>
       </c>
@@ -44430,7 +44551,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="726" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="124" t="s">
         <v>1184</v>
       </c>
@@ -44441,7 +44562,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="727" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="124" t="s">
         <v>1165</v>
       </c>
@@ -44452,7 +44573,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="728" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="124" t="s">
         <v>1040</v>
       </c>
@@ -44463,7 +44584,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="729" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="124" t="s">
         <v>1041</v>
       </c>
@@ -44474,7 +44595,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="730" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="124" t="s">
         <v>1039</v>
       </c>
@@ -44485,7 +44606,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="731" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="124" t="s">
         <v>1043</v>
       </c>
@@ -44496,7 +44617,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="732" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="124" t="s">
         <v>1042</v>
       </c>
@@ -44524,7 +44645,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="734" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="124" t="s">
         <v>1132</v>
       </c>
@@ -44535,7 +44656,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="735" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="124" t="s">
         <v>1132</v>
       </c>
@@ -44546,7 +44667,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="736" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="124" t="s">
         <v>1137</v>
       </c>
@@ -44557,7 +44678,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="737" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="124" t="s">
         <v>1136</v>
       </c>
@@ -44585,7 +44706,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="739" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="124" t="s">
         <v>1154</v>
       </c>
@@ -44596,7 +44717,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="740" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="124" t="s">
         <v>1169</v>
       </c>
@@ -44607,7 +44728,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="741" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="124" t="s">
         <v>1332</v>
       </c>
@@ -44618,7 +44739,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="742" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="124" t="s">
         <v>1333</v>
       </c>
@@ -44629,7 +44750,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="743" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="124" t="s">
         <v>1166</v>
       </c>
@@ -44640,7 +44761,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="744" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="124" t="s">
         <v>1185</v>
       </c>
@@ -44651,7 +44772,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="745" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="124" t="s">
         <v>975</v>
       </c>
@@ -44668,7 +44789,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="746" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="124" t="s">
         <v>981</v>
       </c>
@@ -44685,7 +44806,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="747" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="124" t="s">
         <v>997</v>
       </c>
@@ -44702,7 +44823,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="748" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="124" t="s">
         <v>1008</v>
       </c>
@@ -44719,7 +44840,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="749" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="124" t="s">
         <v>1009</v>
       </c>
@@ -44736,7 +44857,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="750" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="124" t="s">
         <v>1011</v>
       </c>
@@ -44753,7 +44874,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="751" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="124" t="s">
         <v>1014</v>
       </c>
@@ -44770,7 +44891,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="752" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="124" t="s">
         <v>994</v>
       </c>
@@ -44787,7 +44908,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="753" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="124" t="s">
         <v>980</v>
       </c>
@@ -44804,7 +44925,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="754" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="124" t="s">
         <v>1010</v>
       </c>
@@ -44821,7 +44942,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="755" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="124" t="s">
         <v>985</v>
       </c>
@@ -44838,7 +44959,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="756" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="124" t="s">
         <v>995</v>
       </c>
@@ -44855,7 +44976,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="757" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="124" t="s">
         <v>1003</v>
       </c>
@@ -44872,7 +44993,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="758" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="124" t="s">
         <v>1001</v>
       </c>
@@ -44889,7 +45010,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="759" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="124" t="s">
         <v>991</v>
       </c>
@@ -44906,7 +45027,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="760" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="124" t="s">
         <v>992</v>
       </c>
@@ -44923,7 +45044,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="761" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="124" t="s">
         <v>1012</v>
       </c>
@@ -44937,7 +45058,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="762" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="124" t="s">
         <v>1088</v>
       </c>
@@ -44948,7 +45069,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="763" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="124" t="s">
         <v>1030</v>
       </c>
@@ -44959,7 +45080,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="764" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="124" t="s">
         <v>1319</v>
       </c>
@@ -44970,7 +45091,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="765" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="124" t="s">
         <v>1029</v>
       </c>
@@ -44981,7 +45102,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="766" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="124" t="s">
         <v>990</v>
       </c>
@@ -44998,7 +45119,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="767" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="124" t="s">
         <v>1000</v>
       </c>
@@ -45015,7 +45136,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="768" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="124" t="s">
         <v>1179</v>
       </c>
@@ -45026,7 +45147,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="769" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="124" t="s">
         <v>1026</v>
       </c>
@@ -45037,7 +45158,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="770" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="124" t="s">
         <v>999</v>
       </c>
@@ -45054,7 +45175,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="771" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="124" t="s">
         <v>993</v>
       </c>
@@ -45071,7 +45192,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="772" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="124" t="s">
         <v>979</v>
       </c>
@@ -45088,7 +45209,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="773" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="124" t="s">
         <v>982</v>
       </c>
@@ -45105,7 +45226,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="774" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="124" t="s">
         <v>1005</v>
       </c>
@@ -45122,7 +45243,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="775" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="124" t="s">
         <v>1006</v>
       </c>
@@ -45139,7 +45260,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="776" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="124" t="s">
         <v>983</v>
       </c>
@@ -45156,7 +45277,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="777" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="124" t="s">
         <v>988</v>
       </c>
@@ -45173,7 +45294,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="778" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="124" t="s">
         <v>1013</v>
       </c>
@@ -45190,7 +45311,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="779" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="124" t="s">
         <v>1180</v>
       </c>
@@ -45201,7 +45322,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="780" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="124" t="s">
         <v>1002</v>
       </c>
@@ -45218,7 +45339,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="781" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="124" t="s">
         <v>989</v>
       </c>
@@ -45235,7 +45356,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="782" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="124" t="s">
         <v>1334</v>
       </c>
@@ -45246,7 +45367,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="783" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="124" t="s">
         <v>1027</v>
       </c>
@@ -45257,7 +45378,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="784" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="124" t="s">
         <v>1335</v>
       </c>
@@ -45268,7 +45389,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="785" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="124" t="s">
         <v>1007</v>
       </c>
@@ -45285,7 +45406,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="786" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="124" t="s">
         <v>998</v>
       </c>
@@ -45302,7 +45423,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="787" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="124" t="s">
         <v>1004</v>
       </c>
@@ -45319,7 +45440,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="788" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="124" t="s">
         <v>977</v>
       </c>
@@ -45336,7 +45457,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="789" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="124" t="s">
         <v>984</v>
       </c>
@@ -45353,7 +45474,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="790" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="124" t="s">
         <v>978</v>
       </c>
@@ -45387,7 +45508,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="792" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="14" t="s">
         <v>220</v>
       </c>
@@ -45404,7 +45525,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="793" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="14" t="s">
         <v>341</v>
       </c>
@@ -45506,7 +45627,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="799" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="124" t="s">
         <v>1038</v>
       </c>
@@ -45517,7 +45638,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="800" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="123" t="s">
         <v>156</v>
       </c>
@@ -45551,7 +45672,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="802" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="124" t="s">
         <v>1343</v>
       </c>
@@ -45562,7 +45683,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="803" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="124" t="s">
         <v>1096</v>
       </c>
@@ -45573,7 +45694,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="804" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="124" t="s">
         <v>1341</v>
       </c>
@@ -45584,7 +45705,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="805" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="124" t="s">
         <v>1098</v>
       </c>
@@ -45595,7 +45716,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="806" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="124" t="s">
         <v>1082</v>
       </c>
@@ -45606,7 +45727,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="807" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="124" t="s">
         <v>1355</v>
       </c>
@@ -45617,7 +45738,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="808" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="124" t="s">
         <v>1107</v>
       </c>
@@ -45628,7 +45749,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="809" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="124" t="s">
         <v>1106</v>
       </c>
@@ -45639,7 +45760,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="810" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="124" t="s">
         <v>1112</v>
       </c>
@@ -45650,7 +45771,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="811" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="124" t="s">
         <v>1191</v>
       </c>
@@ -45661,7 +45782,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="812" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="124" t="s">
         <v>1314</v>
       </c>
@@ -45675,7 +45796,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="813" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="124" t="s">
         <v>1315</v>
       </c>
@@ -45689,7 +45810,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="814" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="124" t="s">
         <v>1190</v>
       </c>
@@ -45700,7 +45821,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="815" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="124" t="s">
         <v>1186</v>
       </c>
@@ -45711,7 +45832,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="816" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="124" t="s">
         <v>1189</v>
       </c>
@@ -45722,7 +45843,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="817" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="124" t="s">
         <v>1187</v>
       </c>
@@ -45733,7 +45854,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="818" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="124" t="s">
         <v>1087</v>
       </c>
@@ -45744,7 +45865,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="819" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="124" t="s">
         <v>1188</v>
       </c>
@@ -45755,7 +45876,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="820" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="124" t="s">
         <v>1084</v>
       </c>
@@ -45766,7 +45887,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="821" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="124" t="s">
         <v>1083</v>
       </c>
@@ -45777,7 +45898,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="822" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="124" t="s">
         <v>1085</v>
       </c>
@@ -45788,7 +45909,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="823" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="124" t="s">
         <v>1324</v>
       </c>
@@ -45799,7 +45920,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="824" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="124" t="s">
         <v>1327</v>
       </c>
@@ -45810,7 +45931,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="825" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="124" t="s">
         <v>1340</v>
       </c>
@@ -45821,7 +45942,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="826" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="124" t="s">
         <v>1323</v>
       </c>
@@ -45832,7 +45953,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="827" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="124" t="s">
         <v>1325</v>
       </c>
@@ -45843,7 +45964,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="828" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="124" t="s">
         <v>1326</v>
       </c>
@@ -45854,7 +45975,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="829" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="124" t="s">
         <v>1328</v>
       </c>
@@ -45865,7 +45986,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="830" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="124" t="s">
         <v>1329</v>
       </c>
@@ -45876,7 +45997,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="831" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="124" t="s">
         <v>1321</v>
       </c>
@@ -45887,7 +46008,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="832" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="124" t="s">
         <v>1339</v>
       </c>
@@ -45898,7 +46019,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="833" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="124" t="s">
         <v>1322</v>
       </c>
@@ -45909,7 +46030,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="834" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="124" t="s">
         <v>1105</v>
       </c>
@@ -45920,7 +46041,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="835" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="124" t="s">
         <v>916</v>
       </c>
@@ -45937,7 +46058,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="836" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="124" t="s">
         <v>1316</v>
       </c>
@@ -45948,7 +46069,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="837" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="124" t="s">
         <v>1351</v>
       </c>
@@ -45959,7 +46080,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="838" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" s="124" t="s">
         <v>1352</v>
       </c>
@@ -45970,7 +46091,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="839" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" s="124" t="s">
         <v>1353</v>
       </c>
@@ -45981,7 +46102,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="840" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="124" t="s">
         <v>1317</v>
       </c>
@@ -45992,7 +46113,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="841" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" s="124" t="s">
         <v>1122</v>
       </c>
@@ -46003,7 +46124,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="842" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="124" t="s">
         <v>1104</v>
       </c>
@@ -46014,7 +46135,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="843" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="14" t="s">
         <v>28</v>
       </c>
@@ -46031,7 +46152,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="844" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="124" t="s">
         <v>1318</v>
       </c>
@@ -46042,7 +46163,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="845" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="124" t="s">
         <v>1032</v>
       </c>
@@ -46056,7 +46177,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="846" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="124" t="s">
         <v>1031</v>
       </c>
@@ -46070,7 +46191,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="847" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="124" t="s">
         <v>1342</v>
       </c>
@@ -46081,7 +46202,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="848" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" s="124" t="s">
         <v>1152</v>
       </c>
@@ -46092,7 +46213,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="849" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="124" t="s">
         <v>1178</v>
       </c>
@@ -46103,7 +46224,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="850" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" s="124" t="s">
         <v>1150</v>
       </c>
@@ -46117,7 +46238,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="851" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="124" t="s">
         <v>1330</v>
       </c>
@@ -46179,7 +46300,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="855" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="54" t="s">
         <v>187</v>
       </c>
@@ -46216,7 +46337,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="857" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" s="14" t="s">
         <v>221</v>
       </c>
@@ -46233,7 +46354,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="858" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="14" t="s">
         <v>332</v>
       </c>
@@ -46250,7 +46371,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="859" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="14" t="s">
         <v>222</v>
       </c>
@@ -46267,7 +46388,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="860" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="124" t="s">
         <v>1350</v>
       </c>
@@ -46278,7 +46399,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="861" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="124" t="s">
         <v>1028</v>
       </c>
@@ -46289,7 +46410,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="862" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="124" t="s">
         <v>932</v>
       </c>
@@ -46306,7 +46427,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="863" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="124" t="s">
         <v>933</v>
       </c>
@@ -46323,7 +46444,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="864" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="124" t="s">
         <v>935</v>
       </c>
@@ -46340,7 +46461,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="865" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="124" t="s">
         <v>934</v>
       </c>
@@ -46357,7 +46478,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="866" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="124" t="s">
         <v>707</v>
       </c>
@@ -46371,7 +46492,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="867" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="123" t="s">
         <v>538</v>
       </c>
@@ -46427,7 +46548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="871" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="127" t="s">
         <v>628</v>
       </c>
@@ -46500,7 +46621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="876" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" s="127" t="s">
         <v>633</v>
       </c>
@@ -46514,7 +46635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="877" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" s="127" t="s">
         <v>641</v>
       </c>
@@ -46534,7 +46655,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="878" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" s="127" t="s">
         <v>643</v>
       </c>
@@ -46554,7 +46675,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="879" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="127" t="s">
         <v>639</v>
       </c>
@@ -46602,7 +46723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="882" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="127" t="s">
         <v>613</v>
       </c>
@@ -46622,7 +46743,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="883" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" s="127" t="s">
         <v>614</v>
       </c>
@@ -46642,7 +46763,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="884" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" s="124" t="s">
         <v>727</v>
       </c>
@@ -46670,7 +46791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="886" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" s="127" t="s">
         <v>615</v>
       </c>
@@ -46690,7 +46811,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="887" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" s="127" t="s">
         <v>650</v>
       </c>
@@ -46710,7 +46831,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="888" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="124" t="s">
         <v>728</v>
       </c>
@@ -46724,7 +46845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="889" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="124" t="s">
         <v>731</v>
       </c>
@@ -46738,7 +46859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="890" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" s="124" t="s">
         <v>729</v>
       </c>
@@ -46752,7 +46873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="891" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="124" t="s">
         <v>730</v>
       </c>
@@ -46808,7 +46929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="895" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" s="124" t="s">
         <v>733</v>
       </c>
@@ -46819,7 +46940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="896" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="124" t="s">
         <v>777</v>
       </c>
@@ -46861,7 +46982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="899" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" s="127" t="s">
         <v>657</v>
       </c>
@@ -46881,7 +47002,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="900" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" s="127" t="s">
         <v>656</v>
       </c>
@@ -46901,7 +47022,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="901" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" s="123" t="s">
         <v>549</v>
       </c>
@@ -46926,7 +47047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="903" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" s="123" t="s">
         <v>551</v>
       </c>
@@ -46951,7 +47072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="905" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" s="126" t="s">
         <v>550</v>
       </c>
@@ -46985,7 +47106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="907" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" s="127" t="s">
         <v>622</v>
       </c>
@@ -47019,7 +47140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="909" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" s="123" t="s">
         <v>543</v>
       </c>
@@ -47030,7 +47151,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="910" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" s="123" t="s">
         <v>544</v>
       </c>
@@ -47055,7 +47176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="912" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" s="124" t="s">
         <v>766</v>
       </c>
@@ -47069,7 +47190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="913" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" s="124" t="s">
         <v>765</v>
       </c>
@@ -47111,7 +47232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="916" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" s="127" t="s">
         <v>677</v>
       </c>
@@ -47131,7 +47252,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="917" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="124" t="s">
         <v>768</v>
       </c>
@@ -47145,7 +47266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="918" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" s="127" t="s">
         <v>612</v>
       </c>
@@ -47179,7 +47300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="920" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" s="124" t="s">
         <v>769</v>
       </c>
@@ -47193,7 +47314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="921" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" s="124" t="s">
         <v>764</v>
       </c>
@@ -47204,7 +47325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="922" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" s="127" t="s">
         <v>607</v>
       </c>
@@ -47224,7 +47345,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="923" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" s="127" t="s">
         <v>597</v>
       </c>
@@ -47244,7 +47365,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="924" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" s="124" t="s">
         <v>772</v>
       </c>
@@ -47258,7 +47379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="925" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" s="124" t="s">
         <v>773</v>
       </c>
@@ -47272,7 +47393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="926" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" s="124" t="s">
         <v>763</v>
       </c>
@@ -47283,7 +47404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="927" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" s="124" t="s">
         <v>775</v>
       </c>
@@ -47325,7 +47446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="930" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" s="127" t="s">
         <v>573</v>
       </c>
@@ -47345,7 +47466,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="931" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" s="124" t="s">
         <v>732</v>
       </c>
@@ -47356,7 +47477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="932" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" s="127" t="s">
         <v>572</v>
       </c>
@@ -47376,7 +47497,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="933" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" s="124" t="s">
         <v>779</v>
       </c>
@@ -47390,7 +47511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="934" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" s="127" t="s">
         <v>577</v>
       </c>
@@ -47410,7 +47531,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="935" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" s="124" t="s">
         <v>776</v>
       </c>
@@ -47421,7 +47542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="936" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" s="127" t="s">
         <v>561</v>
       </c>
@@ -47441,7 +47562,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="937" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" s="124" t="s">
         <v>560</v>
       </c>
@@ -47455,7 +47576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="938" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" s="127" t="s">
         <v>559</v>
       </c>
@@ -47475,7 +47596,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="939" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" s="124" t="s">
         <v>720</v>
       </c>
@@ -47489,7 +47610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="940" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" s="124" t="s">
         <v>721</v>
       </c>
@@ -47503,7 +47624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="941" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" s="124" t="s">
         <v>722</v>
       </c>
@@ -47517,7 +47638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="942" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" s="124" t="s">
         <v>723</v>
       </c>
@@ -47531,7 +47652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="943" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" s="127" t="s">
         <v>558</v>
       </c>
@@ -47551,7 +47672,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="944" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" s="124" t="s">
         <v>708</v>
       </c>
@@ -47565,7 +47686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="945" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" s="124" t="s">
         <v>724</v>
       </c>
@@ -47579,7 +47700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="946" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" s="124" t="s">
         <v>725</v>
       </c>
@@ -47593,7 +47714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="947" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" s="124" t="s">
         <v>726</v>
       </c>
@@ -47607,7 +47728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="948" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" s="123" t="s">
         <v>531</v>
       </c>
@@ -47618,7 +47739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="949" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" s="123" t="s">
         <v>530</v>
       </c>
@@ -47629,7 +47750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="950" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" s="124" t="s">
         <v>709</v>
       </c>
@@ -47643,7 +47764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="951" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" s="124" t="s">
         <v>704</v>
       </c>
@@ -47657,7 +47778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="952" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" s="124" t="s">
         <v>710</v>
       </c>
@@ -47671,7 +47792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="953" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" s="124" t="s">
         <v>711</v>
       </c>
@@ -47685,7 +47806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="954" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" s="124" t="s">
         <v>712</v>
       </c>
@@ -47699,7 +47820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="955" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" s="124" t="s">
         <v>713</v>
       </c>
@@ -47713,7 +47834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="956" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" s="124" t="s">
         <v>703</v>
       </c>
@@ -47727,7 +47848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="957" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" s="127" t="s">
         <v>568</v>
       </c>
@@ -47747,7 +47868,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="958" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" s="124" t="s">
         <v>714</v>
       </c>
@@ -47761,7 +47882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="959" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" s="124" t="s">
         <v>567</v>
       </c>
@@ -47775,7 +47896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="960" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" s="124" t="s">
         <v>715</v>
       </c>
@@ -47789,7 +47910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="961" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" s="124" t="s">
         <v>705</v>
       </c>
@@ -47803,7 +47924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="962" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" s="124" t="s">
         <v>700</v>
       </c>
@@ -47820,7 +47941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="963" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="124" t="s">
         <v>706</v>
       </c>
@@ -47834,7 +47955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="964" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" s="124" t="s">
         <v>716</v>
       </c>
@@ -47848,7 +47969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="965" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="124" t="s">
         <v>717</v>
       </c>
@@ -47862,7 +47983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="966" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" s="124" t="s">
         <v>718</v>
       </c>
@@ -47876,7 +47997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="967" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" s="127" t="s">
         <v>566</v>
       </c>
@@ -47896,7 +48017,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="968" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" s="124" t="s">
         <v>701</v>
       </c>
@@ -47913,7 +48034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="969" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" s="127" t="s">
         <v>565</v>
       </c>
@@ -47933,7 +48054,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="970" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" s="127" t="s">
         <v>564</v>
       </c>
@@ -47953,7 +48074,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="971" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" s="127" t="s">
         <v>563</v>
       </c>
@@ -47973,7 +48094,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="972" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" s="124" t="s">
         <v>719</v>
       </c>
@@ -47987,7 +48108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="973" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973" s="124" t="s">
         <v>562</v>
       </c>
@@ -48001,7 +48122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="974" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" s="123" t="s">
         <v>528</v>
       </c>
@@ -48015,7 +48136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="975" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A975" s="124" t="s">
         <v>685</v>
       </c>
@@ -48026,7 +48147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="976" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" s="124" t="s">
         <v>681</v>
       </c>
@@ -48037,7 +48158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="977" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" s="124" t="s">
         <v>696</v>
       </c>
@@ -48048,7 +48169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="978" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978" s="124" t="s">
         <v>679</v>
       </c>
@@ -48059,7 +48180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="979" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" s="124" t="s">
         <v>679</v>
       </c>
@@ -48070,7 +48191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="980" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" s="124" t="s">
         <v>686</v>
       </c>
@@ -48081,7 +48202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="981" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" s="124" t="s">
         <v>695</v>
       </c>
@@ -48092,7 +48213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="982" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" s="124" t="s">
         <v>683</v>
       </c>
@@ -48103,7 +48224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="983" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" s="124" t="s">
         <v>680</v>
       </c>
@@ -48114,7 +48235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="984" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A984" s="124" t="s">
         <v>682</v>
       </c>
@@ -48125,7 +48246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="985" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A985" s="124" t="s">
         <v>937</v>
       </c>
@@ -48142,7 +48263,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="986" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A986" s="124" t="s">
         <v>689</v>
       </c>
@@ -48153,7 +48274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="987" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A987" s="124" t="s">
         <v>694</v>
       </c>
@@ -48164,7 +48285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="988" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A988" s="124" t="s">
         <v>690</v>
       </c>
@@ -48175,7 +48296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="989" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A989" s="124" t="s">
         <v>687</v>
       </c>
@@ -48186,7 +48307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="990" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A990" s="124" t="s">
         <v>684</v>
       </c>
@@ -48197,7 +48318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="991" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991" s="124" t="s">
         <v>697</v>
       </c>
@@ -48208,7 +48329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="992" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A992" s="124" t="s">
         <v>688</v>
       </c>
@@ -48219,7 +48340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="993" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993" s="124" t="s">
         <v>698</v>
       </c>
@@ -48230,7 +48351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="994" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A994" s="124" t="s">
         <v>693</v>
       </c>
@@ -48241,7 +48362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="995" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A995" s="124" t="s">
         <v>691</v>
       </c>
@@ -48252,7 +48373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="996" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A996" s="124" t="s">
         <v>699</v>
       </c>
@@ -48263,7 +48384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="997" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A997" s="124" t="s">
         <v>692</v>
       </c>
@@ -48274,7 +48395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="998" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A998" s="123" t="s">
         <v>414</v>
       </c>
@@ -48291,7 +48412,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="999" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A999" s="54" t="s">
         <v>426</v>
       </c>
@@ -48308,7 +48429,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="1000" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="124" t="s">
         <v>1183</v>
       </c>
@@ -48336,7 +48457,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1002" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="124" t="s">
         <v>1034</v>
       </c>
@@ -48364,7 +48485,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1004" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="123" t="s">
         <v>370</v>
       </c>
@@ -48381,7 +48502,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1005" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="124" t="s">
         <v>959</v>
       </c>
@@ -48395,7 +48516,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1006" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="124" t="s">
         <v>1147</v>
       </c>
@@ -48406,7 +48527,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="1007" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="124" t="s">
         <v>1148</v>
       </c>
@@ -48417,7 +48538,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="1008" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1008" s="124" t="s">
         <v>1387</v>
       </c>
@@ -48428,7 +48549,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1009" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="124" t="s">
         <v>1388</v>
       </c>
@@ -48439,7 +48560,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1010" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="127" t="s">
         <v>663</v>
       </c>
@@ -48459,7 +48580,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1011" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="124" t="s">
         <v>1044</v>
       </c>
@@ -48473,7 +48594,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="1012" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="124" t="s">
         <v>960</v>
       </c>
@@ -48487,7 +48608,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="1013" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="124" t="s">
         <v>901</v>
       </c>
@@ -48501,7 +48622,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="1014" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="124" t="s">
         <v>947</v>
       </c>
@@ -48530,7 +48651,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="1016" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="124" t="s">
         <v>962</v>
       </c>
@@ -48547,7 +48668,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="1017" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1017" s="124" t="s">
         <v>963</v>
       </c>
@@ -48564,7 +48685,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="1018" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1018" s="124" t="s">
         <v>915</v>
       </c>
@@ -48581,7 +48702,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1019" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1019" s="124" t="s">
         <v>678</v>
       </c>
@@ -48598,7 +48719,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1020" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1020" s="124" t="s">
         <v>974</v>
       </c>
@@ -48612,7 +48733,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1021" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1021" s="124" t="s">
         <v>976</v>
       </c>
@@ -48626,7 +48747,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1022" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="124" t="s">
         <v>973</v>
       </c>
@@ -48640,7 +48761,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1023" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1023" s="124" t="s">
         <v>967</v>
       </c>
@@ -48654,7 +48775,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1024" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1024" s="124" t="s">
         <v>917</v>
       </c>
@@ -48671,7 +48792,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1025" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1025" s="124" t="s">
         <v>920</v>
       </c>
@@ -48688,7 +48809,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1026" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1026" s="124" t="s">
         <v>921</v>
       </c>
@@ -48705,7 +48826,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1027" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1027" s="124" t="s">
         <v>926</v>
       </c>
@@ -48722,7 +48843,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1028" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1028" s="124" t="s">
         <v>924</v>
       </c>
@@ -48739,7 +48860,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1029" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1029" s="124" t="s">
         <v>923</v>
       </c>
@@ -48756,7 +48877,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1030" s="124" t="s">
         <v>925</v>
       </c>
@@ -48773,7 +48894,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1031" s="124" t="s">
         <v>966</v>
       </c>
@@ -48790,7 +48911,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="1032" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1032" s="124" t="s">
         <v>964</v>
       </c>
@@ -48807,7 +48928,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="1033" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1033" s="124" t="s">
         <v>965</v>
       </c>
@@ -48824,7 +48945,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1034" s="124" t="s">
         <v>919</v>
       </c>
@@ -48841,7 +48962,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1035" s="124" t="s">
         <v>946</v>
       </c>
@@ -48858,7 +48979,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="1036" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1036" s="124" t="s">
         <v>931</v>
       </c>
@@ -48875,7 +48996,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1037" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1037" s="14" t="s">
         <v>189</v>
       </c>
@@ -48892,7 +49013,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="1038" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1038" s="14" t="s">
         <v>450</v>
       </c>
@@ -48926,7 +49047,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1040" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1040" s="123" t="s">
         <v>348</v>
       </c>
@@ -48946,7 +49067,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="1041" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1041" s="123" t="s">
         <v>536</v>
       </c>
@@ -48960,7 +49081,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1042" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1042" s="123" t="s">
         <v>532</v>
       </c>
@@ -48974,7 +49095,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1043" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1043" s="123" t="s">
         <v>552</v>
       </c>
@@ -48988,7 +49109,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="1044" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1044" s="14" t="s">
         <v>454</v>
       </c>
@@ -49005,7 +49126,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="1045" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1045" s="124" t="s">
         <v>1146</v>
       </c>
@@ -49016,7 +49137,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1046" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1046" s="124" t="s">
         <v>1135</v>
       </c>
@@ -49027,7 +49148,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1047" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1047" s="123" t="s">
         <v>437</v>
       </c>
@@ -49044,7 +49165,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1048" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1048" s="123" t="s">
         <v>158</v>
       </c>
@@ -49061,7 +49182,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1049" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1049" s="123" t="s">
         <v>159</v>
       </c>
@@ -49078,7 +49199,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1050" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1050" s="14" t="s">
         <v>412</v>
       </c>
@@ -49110,7 +49231,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1052" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1052" s="123" t="s">
         <v>353</v>
       </c>
@@ -49142,7 +49263,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1054" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1054" s="124" t="s">
         <v>968</v>
       </c>
@@ -49159,7 +49280,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="1055" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1055" s="124" t="s">
         <v>969</v>
       </c>
@@ -49176,7 +49297,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="1056" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1056" s="124" t="s">
         <v>969</v>
       </c>
@@ -49193,7 +49314,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="1057" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1057" s="124" t="s">
         <v>1393</v>
       </c>
@@ -49204,7 +49325,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1058" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1058" s="124" t="s">
         <v>770</v>
       </c>
@@ -49218,7 +49339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1059" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1059" s="127" t="s">
         <v>598</v>
       </c>
@@ -49238,7 +49359,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1060" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1060" s="127" t="s">
         <v>592</v>
       </c>
@@ -49272,7 +49393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1062" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1062" s="127" t="s">
         <v>576</v>
       </c>
@@ -49306,7 +49427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1064" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1064" s="124" t="s">
         <v>746</v>
       </c>
@@ -49317,7 +49438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1065" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1065" s="127" t="s">
         <v>674</v>
       </c>
@@ -49337,7 +49458,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1066" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1066" s="127" t="s">
         <v>767</v>
       </c>
@@ -49357,7 +49478,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1067" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1067" s="124" t="s">
         <v>747</v>
       </c>
@@ -49368,7 +49489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1068" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1068" s="124" t="s">
         <v>748</v>
       </c>
@@ -49379,7 +49500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1069" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1069" s="127" t="s">
         <v>609</v>
       </c>
@@ -49399,7 +49520,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1070" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1070" s="127" t="s">
         <v>611</v>
       </c>
@@ -49422,7 +49543,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1071" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1071" s="127" t="s">
         <v>608</v>
       </c>
@@ -49442,7 +49563,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1072" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1072" s="127" t="s">
         <v>603</v>
       </c>
@@ -49462,7 +49583,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1073" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1073" s="127" t="s">
         <v>602</v>
       </c>
@@ -49482,7 +49603,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1074" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1074" s="127" t="s">
         <v>600</v>
       </c>
@@ -49502,7 +49623,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1075" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1075" s="124" t="s">
         <v>771</v>
       </c>
@@ -49516,7 +49637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1076" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1076" s="127" t="s">
         <v>588</v>
       </c>
@@ -49536,7 +49657,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1077" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1077" s="127" t="s">
         <v>589</v>
       </c>
@@ -49556,7 +49677,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1078" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1078" s="127" t="s">
         <v>593</v>
       </c>
@@ -49576,7 +49697,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1079" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1079" s="127" t="s">
         <v>594</v>
       </c>
@@ -49599,7 +49720,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1080" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1080" s="127" t="s">
         <v>591</v>
       </c>
@@ -49619,7 +49740,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1081" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1081" s="127" t="s">
         <v>590</v>
       </c>
@@ -49642,7 +49763,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1082" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1082" s="124" t="s">
         <v>734</v>
       </c>
@@ -49653,7 +49774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1083" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1083" s="127" t="s">
         <v>580</v>
       </c>
@@ -49676,7 +49797,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1084" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1084" s="124" t="s">
         <v>774</v>
       </c>
@@ -49690,7 +49811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1085" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1085" s="124" t="s">
         <v>736</v>
       </c>
@@ -49718,7 +49839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1087" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1087" s="127" t="s">
         <v>583</v>
       </c>
@@ -49755,7 +49876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1089" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1089" s="124" t="s">
         <v>737</v>
       </c>
@@ -49766,7 +49887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1090" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1090" s="124" t="s">
         <v>738</v>
       </c>
@@ -49777,7 +49898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1091" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1091" s="124" t="s">
         <v>778</v>
       </c>
@@ -49791,7 +49912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1092" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1092" s="127" t="s">
         <v>570</v>
       </c>
@@ -49825,7 +49946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1094" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1094" s="124" t="s">
         <v>735</v>
       </c>
@@ -49836,7 +49957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1095" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1095" s="127" t="s">
         <v>579</v>
       </c>
@@ -49856,7 +49977,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1096" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1096" s="127" t="s">
         <v>578</v>
       </c>
@@ -49876,7 +49997,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1097" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1097" s="124" t="s">
         <v>742</v>
       </c>
@@ -49887,7 +50008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1098" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1098" s="124" t="s">
         <v>739</v>
       </c>
@@ -49898,7 +50019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1099" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1099" s="124" t="s">
         <v>740</v>
       </c>
@@ -49909,7 +50030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1100" s="124" t="s">
         <v>741</v>
       </c>
@@ -49920,7 +50041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1101" s="124" t="s">
         <v>743</v>
       </c>
@@ -49931,7 +50052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1102" s="127" t="s">
         <v>666</v>
       </c>
@@ -49965,7 +50086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1104" s="124" t="s">
         <v>745</v>
       </c>
@@ -49976,7 +50097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1105" s="124" t="s">
         <v>744</v>
       </c>
@@ -50001,7 +50122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1107" s="123" t="s">
         <v>547</v>
       </c>
@@ -50012,7 +50133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1108" s="123" t="s">
         <v>548</v>
       </c>
@@ -50034,7 +50155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1110" s="127" t="s">
         <v>610</v>
       </c>
@@ -50065,7 +50186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1112" s="127" t="s">
         <v>605</v>
       </c>
@@ -50085,7 +50206,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1113" s="127" t="s">
         <v>604</v>
       </c>
@@ -50105,7 +50226,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1114" s="127" t="s">
         <v>601</v>
       </c>
@@ -50125,7 +50246,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1115" s="127" t="s">
         <v>599</v>
       </c>
@@ -50145,7 +50266,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1116" s="127" t="s">
         <v>595</v>
       </c>
@@ -50165,7 +50286,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1117" s="127" t="s">
         <v>586</v>
       </c>
@@ -50202,7 +50323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1119" s="127" t="s">
         <v>596</v>
       </c>
@@ -50222,7 +50343,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1120" s="14" t="s">
         <v>178</v>
       </c>
@@ -50358,7 +50479,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1128" s="124" t="s">
         <v>1097</v>
       </c>
@@ -50369,7 +50490,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1129" s="124" t="s">
         <v>1171</v>
       </c>
@@ -50380,7 +50501,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1130" s="124" t="s">
         <v>1170</v>
       </c>
@@ -50391,7 +50512,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1131" s="124" t="s">
         <v>1172</v>
       </c>
@@ -50402,7 +50523,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1132" s="124" t="s">
         <v>1129</v>
       </c>
@@ -50413,7 +50534,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1133" s="124" t="s">
         <v>1156</v>
       </c>
@@ -50424,7 +50545,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1134" s="124" t="s">
         <v>1114</v>
       </c>
@@ -50435,7 +50556,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="1135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1135" s="124" t="s">
         <v>1370</v>
       </c>
@@ -50447,6 +50568,41 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1135" xr:uid="{B2726E2F-E8EA-472C-A800-F178F067C4BF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="2A"/>
+        <filter val="2B"/>
+        <filter val="3"/>
+        <filter val="4A"/>
+        <filter val="4B"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1A"/>
+        <filter val="1B"/>
+        <filter val="1C"/>
+        <filter val="1D"/>
+        <filter val="1E"/>
+        <filter val="1F"/>
+        <filter val="1G"/>
+        <filter val="2C"/>
+        <filter val="2D"/>
+        <filter val="2E"/>
+        <filter val="2F"/>
+        <filter val="2G"/>
+        <filter val="2H"/>
+        <filter val="3"/>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1136">
     <sortCondition ref="A2:A1136"/>
   </sortState>

--- a/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
+++ b/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah 23\Desktop\LabDocuments\FungalCulture\VdIsolatesList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFA51C5-E2EE-488A-B873-C423E352D139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD5CBF8-CAD9-4FE5-9A84-DBC740B1C92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8587" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8574" uniqueCount="1405">
   <si>
     <t>Plate</t>
   </si>
@@ -33644,8 +33644,8 @@
   <dimension ref="A1:H1135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35026,8 +35026,8 @@
       <c r="D68" s="17">
         <v>1996</v>
       </c>
-      <c r="E68" t="s">
-        <v>1364</v>
+      <c r="E68">
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>1401</v>
@@ -35046,8 +35046,8 @@
       <c r="D69" s="17">
         <v>1996</v>
       </c>
-      <c r="E69" t="s">
-        <v>1364</v>
+      <c r="E69">
+        <v>3</v>
       </c>
       <c r="F69" t="s">
         <v>1401</v>
@@ -35066,8 +35066,8 @@
       <c r="D70" s="16">
         <v>1996</v>
       </c>
-      <c r="E70" t="s">
-        <v>1364</v>
+      <c r="E70">
+        <v>3</v>
       </c>
       <c r="F70" t="s">
         <v>1401</v>
@@ -35086,8 +35086,8 @@
       <c r="D71" s="17">
         <v>1996</v>
       </c>
-      <c r="E71" t="s">
-        <v>1364</v>
+      <c r="E71">
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>1401</v>
@@ -35106,8 +35106,8 @@
       <c r="D72" s="17">
         <v>1996</v>
       </c>
-      <c r="E72" t="s">
-        <v>1364</v>
+      <c r="E72">
+        <v>3</v>
       </c>
       <c r="F72" t="s">
         <v>1401</v>
@@ -35284,8 +35284,8 @@
       <c r="D80" s="17">
         <v>1996</v>
       </c>
-      <c r="E80" t="s">
-        <v>1364</v>
+      <c r="E80">
+        <v>3</v>
       </c>
       <c r="F80" t="s">
         <v>1401</v>
@@ -35327,8 +35327,8 @@
       <c r="D82" s="16">
         <v>1996</v>
       </c>
-      <c r="E82" t="s">
-        <v>1364</v>
+      <c r="E82">
+        <v>3</v>
       </c>
       <c r="F82" t="s">
         <v>1401</v>
@@ -35347,8 +35347,8 @@
       <c r="D83" s="16">
         <v>1996</v>
       </c>
-      <c r="E83" t="s">
-        <v>1364</v>
+      <c r="E83">
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>1401</v>
@@ -35367,8 +35367,8 @@
       <c r="D84" s="16">
         <v>1996</v>
       </c>
-      <c r="E84" t="s">
-        <v>1364</v>
+      <c r="E84">
+        <v>3</v>
       </c>
       <c r="F84" t="s">
         <v>1401</v>
@@ -35484,8 +35484,8 @@
       <c r="D90" s="17">
         <v>1996</v>
       </c>
-      <c r="E90" t="s">
-        <v>1364</v>
+      <c r="E90">
+        <v>3</v>
       </c>
       <c r="F90" t="s">
         <v>1401</v>
@@ -35601,8 +35601,8 @@
       <c r="D96" s="16">
         <v>1996</v>
       </c>
-      <c r="E96" t="s">
-        <v>1364</v>
+      <c r="E96">
+        <v>3</v>
       </c>
       <c r="F96" t="s">
         <v>1401</v>
@@ -35621,8 +35621,8 @@
       <c r="D97" s="16">
         <v>1996</v>
       </c>
-      <c r="E97" t="s">
-        <v>1364</v>
+      <c r="E97">
+        <v>3</v>
       </c>
       <c r="F97" t="s">
         <v>1401</v>
@@ -35641,8 +35641,8 @@
       <c r="D98" s="16">
         <v>1996</v>
       </c>
-      <c r="E98" t="s">
-        <v>1364</v>
+      <c r="E98">
+        <v>3</v>
       </c>
       <c r="F98" t="s">
         <v>1401</v>

--- a/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
+++ b/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elman/Desktop/LabDocuments/FungalCulture/VdIsolatesList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3567EDFE-C8B3-3C4E-A5C5-895B98114A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AE9F39-CD47-284D-819C-DC9C796E1107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4286,7 +4286,7 @@
     <t>Harvestrd</t>
   </si>
   <si>
-    <t>EN test</t>
+    <t xml:space="preserve"> EN text 2</t>
   </si>
 </sst>
 </file>

--- a/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
+++ b/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elman/Desktop/LabDocuments/FungalCulture/VdIsolatesList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AE9F39-CD47-284D-819C-DC9C796E1107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B9F253-D9DE-2C45-B224-E75EF18CEFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8588" uniqueCount="1406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8587" uniqueCount="1405">
   <si>
     <t>Plate</t>
   </si>
@@ -4284,9 +4284,6 @@
   </si>
   <si>
     <t>Harvestrd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EN text 2</t>
   </si>
 </sst>
 </file>
@@ -33644,7 +33641,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2726E2F-E8EA-472C-A800-F178F067C4BF}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I1135"/>
+  <dimension ref="A1:H1135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
@@ -34947,7 +34944,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="163">
         <v>93</v>
       </c>
@@ -34970,7 +34967,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="163">
         <v>94</v>
       </c>
@@ -34993,7 +34990,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="163">
         <v>95</v>
       </c>
@@ -35016,7 +35013,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="122">
         <v>96</v>
       </c>
@@ -35036,7 +35033,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="122">
         <v>97</v>
       </c>
@@ -35056,7 +35053,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="122">
         <v>98</v>
       </c>
@@ -35076,7 +35073,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="121">
         <v>101</v>
       </c>
@@ -35096,7 +35093,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="121">
         <v>102</v>
       </c>
@@ -35116,7 +35113,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="121">
         <v>103</v>
       </c>
@@ -35139,7 +35136,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="121">
         <v>104</v>
       </c>
@@ -35162,7 +35159,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="121">
         <v>105</v>
       </c>
@@ -35182,7 +35179,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="164">
         <v>106</v>
       </c>
@@ -35205,7 +35202,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="164">
         <v>107</v>
       </c>
@@ -35228,7 +35225,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="164">
         <v>109</v>
       </c>
@@ -35251,7 +35248,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="121">
         <v>111</v>
       </c>
@@ -35273,11 +35270,8 @@
       <c r="G79" t="s">
         <v>1400</v>
       </c>
-      <c r="I79" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="121">
         <v>112</v>
       </c>

--- a/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
+++ b/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah 23\Desktop\LabDocuments\FungalCulture\VdIsolatesList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD5CBF8-CAD9-4FE5-9A84-DBC740B1C92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7DE695-0193-4795-BDED-B3922E15359B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8574" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8662" uniqueCount="1413">
   <si>
     <t>Plate</t>
   </si>
@@ -4284,6 +4284,30 @@
   </si>
   <si>
     <t>Harvestrd</t>
+  </si>
+  <si>
+    <t>Same as above?</t>
+  </si>
+  <si>
+    <t>103 LOOSE (103.SS ?)</t>
+  </si>
+  <si>
+    <t>105.LOOSE (105.SS ?)</t>
+  </si>
+  <si>
+    <t>208.LOOSE (208.SS ?)</t>
+  </si>
+  <si>
+    <t>212 LOOSE (212.SS ?)</t>
+  </si>
+  <si>
+    <t>3.I.2010</t>
+  </si>
+  <si>
+    <t>401 LOOSE (401.SS ?)</t>
+  </si>
+  <si>
+    <t>404.LOOSE (404.ss)</t>
   </si>
 </sst>
 </file>
@@ -33644,8 +33668,8 @@
   <dimension ref="A1:H1135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F304" sqref="F304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34595,7 +34619,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="122">
         <v>66</v>
       </c>
@@ -34738,7 +34762,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="122">
         <v>73</v>
       </c>
@@ -34758,7 +34782,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="122">
         <v>74</v>
       </c>
@@ -34781,7 +34805,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="122">
         <v>77</v>
       </c>
@@ -34801,7 +34825,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="122">
         <v>78</v>
       </c>
@@ -34821,7 +34845,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="122">
         <v>79</v>
       </c>
@@ -34867,7 +34891,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="122">
         <v>82</v>
       </c>
@@ -34887,7 +34911,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="122">
         <v>84</v>
       </c>
@@ -35013,7 +35037,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="122">
         <v>96</v>
       </c>
@@ -35033,7 +35057,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="122">
         <v>97</v>
       </c>
@@ -35053,7 +35077,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="122">
         <v>98</v>
       </c>
@@ -35073,7 +35097,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="121">
         <v>101</v>
       </c>
@@ -35093,7 +35117,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="121">
         <v>102</v>
       </c>
@@ -35113,7 +35137,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="121">
         <v>103</v>
       </c>
@@ -35136,7 +35160,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="121">
         <v>104</v>
       </c>
@@ -35159,7 +35183,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="121">
         <v>105</v>
       </c>
@@ -35248,7 +35272,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="121">
         <v>111</v>
       </c>
@@ -35271,7 +35295,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="121">
         <v>112</v>
       </c>
@@ -35314,7 +35338,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="121">
         <v>114</v>
       </c>
@@ -35334,7 +35358,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="121">
         <v>115</v>
       </c>
@@ -35354,7 +35378,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="121">
         <v>116</v>
       </c>
@@ -35397,7 +35421,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="121">
         <v>121</v>
       </c>
@@ -35417,7 +35441,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="121">
         <v>124</v>
       </c>
@@ -35471,7 +35495,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="121">
         <v>128</v>
       </c>
@@ -35491,7 +35515,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="121">
         <v>129</v>
       </c>
@@ -35511,7 +35535,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="121">
         <v>130</v>
       </c>
@@ -35588,7 +35612,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="121">
         <v>141</v>
       </c>
@@ -35608,7 +35632,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="121">
         <v>142</v>
       </c>
@@ -35628,7 +35652,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="121">
         <v>145</v>
       </c>
@@ -35665,7 +35689,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="121">
         <v>151</v>
       </c>
@@ -35685,7 +35709,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="121">
         <v>155</v>
       </c>
@@ -35740,7 +35764,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="119">
         <v>233</v>
       </c>
@@ -35760,7 +35784,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="119">
         <v>235</v>
       </c>
@@ -35783,7 +35807,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="119">
         <v>239</v>
       </c>
@@ -35806,7 +35830,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="119">
         <v>240</v>
       </c>
@@ -35860,7 +35884,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="129">
         <v>318</v>
       </c>
@@ -35897,7 +35921,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="129">
         <v>461</v>
       </c>
@@ -36073,7 +36097,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="129">
         <v>601</v>
       </c>
@@ -36093,7 +36117,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="119">
         <v>653</v>
       </c>
@@ -36141,7 +36165,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="138" t="s">
         <v>1036</v>
       </c>
@@ -36152,7 +36176,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="123" t="s">
         <v>539</v>
       </c>
@@ -36166,7 +36190,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="123" t="s">
         <v>42</v>
       </c>
@@ -36182,8 +36206,11 @@
       <c r="E131" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="123" t="s">
         <v>1376</v>
       </c>
@@ -36197,8 +36224,11 @@
       <c r="E132" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="143" t="s">
         <v>1377</v>
       </c>
@@ -36214,8 +36244,11 @@
       <c r="E133" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F133" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="123" t="s">
         <v>164</v>
       </c>
@@ -36229,8 +36262,11 @@
       <c r="E134" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="123" t="s">
         <v>170</v>
       </c>
@@ -36244,8 +36280,11 @@
       <c r="E135" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F135" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>134</v>
       </c>
@@ -36262,7 +36301,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
         <v>137</v>
       </c>
@@ -36279,7 +36318,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
         <v>138</v>
       </c>
@@ -36296,7 +36335,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
         <v>154</v>
       </c>
@@ -36313,7 +36352,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>155</v>
       </c>
@@ -36330,7 +36369,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>139</v>
       </c>
@@ -36347,7 +36386,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="124" t="s">
         <v>945</v>
       </c>
@@ -36364,7 +36403,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="124" t="s">
         <v>944</v>
       </c>
@@ -36381,7 +36420,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="124" t="s">
         <v>943</v>
       </c>
@@ -36398,7 +36437,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="124" t="s">
         <v>940</v>
       </c>
@@ -36415,7 +36454,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="124" t="s">
         <v>941</v>
       </c>
@@ -36432,7 +36471,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="124" t="s">
         <v>942</v>
       </c>
@@ -36449,7 +36488,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="123" t="s">
         <v>214</v>
       </c>
@@ -36465,8 +36504,11 @@
       <c r="E148" s="39" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F148" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="123" t="s">
         <v>211</v>
       </c>
@@ -36482,8 +36524,11 @@
       <c r="E149" s="39" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="123" t="s">
         <v>215</v>
       </c>
@@ -36499,8 +36544,11 @@
       <c r="E150" s="39" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="124" t="s">
         <v>954</v>
       </c>
@@ -36517,7 +36565,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="123" t="s">
         <v>261</v>
       </c>
@@ -36533,8 +36581,11 @@
       <c r="E152" s="39" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F152" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="124" t="s">
         <v>951</v>
       </c>
@@ -36551,7 +36602,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="124" t="s">
         <v>953</v>
       </c>
@@ -36568,7 +36619,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="124" t="s">
         <v>953</v>
       </c>
@@ -36585,7 +36636,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="124" t="s">
         <v>955</v>
       </c>
@@ -36602,7 +36653,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="124" t="s">
         <v>955</v>
       </c>
@@ -36619,7 +36670,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="123" t="s">
         <v>264</v>
       </c>
@@ -36635,8 +36686,11 @@
       <c r="E158" s="39" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F158" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>262</v>
       </c>
@@ -36653,7 +36707,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="123" t="s">
         <v>212</v>
       </c>
@@ -36669,8 +36723,11 @@
       <c r="E160" s="39" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F160" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="124" t="s">
         <v>958</v>
       </c>
@@ -36687,7 +36744,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="124" t="s">
         <v>956</v>
       </c>
@@ -36704,7 +36761,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="135" t="s">
         <v>1019</v>
       </c>
@@ -36720,8 +36777,11 @@
       <c r="E163" s="39" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="123" t="s">
         <v>265</v>
       </c>
@@ -36737,8 +36797,11 @@
       <c r="E164" s="39" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="124" t="s">
         <v>948</v>
       </c>
@@ -36755,7 +36818,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="124" t="s">
         <v>950</v>
       </c>
@@ -36772,7 +36835,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="123" t="s">
         <v>216</v>
       </c>
@@ -36788,8 +36851,11 @@
       <c r="E167" s="39" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F167" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="123" t="s">
         <v>266</v>
       </c>
@@ -36805,8 +36871,11 @@
       <c r="E168" s="39" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F168" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="123" t="s">
         <v>267</v>
       </c>
@@ -36822,8 +36891,11 @@
       <c r="E169" s="39" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F169" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="123" t="s">
         <v>218</v>
       </c>
@@ -36839,8 +36911,11 @@
       <c r="E170" s="39" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F170" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="124" t="s">
         <v>1320</v>
       </c>
@@ -36851,7 +36926,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="123" t="s">
         <v>345</v>
       </c>
@@ -36867,8 +36942,11 @@
       <c r="E172" s="39" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="123" t="s">
         <v>347</v>
       </c>
@@ -36884,10 +36962,13 @@
       <c r="E173" s="39" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F173" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="132" t="s">
-        <v>320</v>
+        <v>1406</v>
       </c>
       <c r="B174" s="62" t="s">
         <v>165</v>
@@ -36899,12 +36980,15 @@
         <v>2010</v>
       </c>
       <c r="E174" s="39" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1364</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="132" t="s">
-        <v>326</v>
+        <v>1407</v>
       </c>
       <c r="B175" s="62" t="s">
         <v>165</v>
@@ -36916,10 +37000,13 @@
         <v>2010</v>
       </c>
       <c r="E175" s="39" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1364</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="132" t="s">
         <v>327</v>
       </c>
@@ -36933,7 +37020,10 @@
         <v>2010</v>
       </c>
       <c r="E176" s="39" t="s">
-        <v>1367</v>
+        <v>1364</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -36991,6 +37081,9 @@
       <c r="E180" s="39" t="s">
         <v>1364</v>
       </c>
+      <c r="F180" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="181" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="123" t="s">
@@ -37008,6 +37101,9 @@
       <c r="E181" t="s">
         <v>1372</v>
       </c>
+      <c r="F181" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="182" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="124" t="s">
@@ -37047,6 +37143,9 @@
       <c r="E184" t="s">
         <v>1374</v>
       </c>
+      <c r="F184" t="s">
+        <v>1401</v>
+      </c>
       <c r="G184" t="s">
         <v>1400</v>
       </c>
@@ -37067,6 +37166,9 @@
       <c r="E185" t="s">
         <v>1371</v>
       </c>
+      <c r="F185" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="186" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="124" t="s">
@@ -37117,6 +37219,9 @@
       <c r="E189" t="s">
         <v>1364</v>
       </c>
+      <c r="F189" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="190" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="124" t="s">
@@ -37145,6 +37250,9 @@
       <c r="E191" t="s">
         <v>1374</v>
       </c>
+      <c r="F191" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="192" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="131" t="s">
@@ -37162,6 +37270,9 @@
       <c r="E192" t="s">
         <v>1374</v>
       </c>
+      <c r="F192" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="193" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="123" t="s">
@@ -37177,7 +37288,10 @@
         <v>2008</v>
       </c>
       <c r="E193" t="s">
-        <v>1374</v>
+        <v>1372</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37207,6 +37321,9 @@
       <c r="E195" t="s">
         <v>1374</v>
       </c>
+      <c r="F195" t="s">
+        <v>1401</v>
+      </c>
       <c r="G195" t="s">
         <v>1400</v>
       </c>
@@ -37238,6 +37355,9 @@
       <c r="E197" t="s">
         <v>1374</v>
       </c>
+      <c r="F197" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="198" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="131" t="s">
@@ -37255,6 +37375,9 @@
       <c r="E198" t="s">
         <v>1374</v>
       </c>
+      <c r="F198" t="s">
+        <v>1401</v>
+      </c>
       <c r="G198" t="s">
         <v>1400</v>
       </c>
@@ -37292,6 +37415,9 @@
       <c r="E200" t="s">
         <v>1374</v>
       </c>
+      <c r="F200" t="s">
+        <v>1401</v>
+      </c>
       <c r="G200" t="s">
         <v>1400</v>
       </c>
@@ -37315,7 +37441,7 @@
     </row>
     <row r="202" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="132" t="s">
-        <v>319</v>
+        <v>1408</v>
       </c>
       <c r="B202" s="62" t="s">
         <v>165</v>
@@ -37327,7 +37453,10 @@
         <v>2010</v>
       </c>
       <c r="E202" t="s">
-        <v>1374</v>
+        <v>1367</v>
+      </c>
+      <c r="F202" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37391,6 +37520,9 @@
       <c r="E206" t="s">
         <v>1374</v>
       </c>
+      <c r="F206" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="207" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="132" t="s">
@@ -37408,6 +37540,9 @@
       <c r="E207" t="s">
         <v>1374</v>
       </c>
+      <c r="F207" t="s">
+        <v>1401</v>
+      </c>
       <c r="G207" t="s">
         <v>1400</v>
       </c>
@@ -37428,6 +37563,9 @@
       <c r="E208" t="s">
         <v>1374</v>
       </c>
+      <c r="F208" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="209" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="131" t="s">
@@ -37445,6 +37583,9 @@
       <c r="E209" t="s">
         <v>1374</v>
       </c>
+      <c r="F209" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="210" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="131" t="s">
@@ -37462,6 +37603,9 @@
       <c r="E210" t="s">
         <v>1374</v>
       </c>
+      <c r="F210" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="211" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="123" t="s">
@@ -37479,10 +37623,13 @@
       <c r="E211" t="s">
         <v>1372</v>
       </c>
+      <c r="F211" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="212" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="132" t="s">
-        <v>324</v>
+        <v>1409</v>
       </c>
       <c r="B212" s="62" t="s">
         <v>165</v>
@@ -37495,6 +37642,9 @@
       </c>
       <c r="E212" t="s">
         <v>1367</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37535,6 +37685,9 @@
       <c r="E215" t="s">
         <v>1374</v>
       </c>
+      <c r="F215" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="216" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="119" t="s">
@@ -37552,6 +37705,9 @@
       <c r="E216" t="s">
         <v>1367</v>
       </c>
+      <c r="F216" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="217" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="131" t="s">
@@ -37586,13 +37742,16 @@
       <c r="E218" t="s">
         <v>1374</v>
       </c>
+      <c r="F218" t="s">
+        <v>1401</v>
+      </c>
       <c r="G218" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="131" t="s">
-        <v>239</v>
+        <v>1410</v>
       </c>
       <c r="B219" s="55" t="s">
         <v>165</v>
@@ -37605,6 +37764,9 @@
       </c>
       <c r="E219" t="s">
         <v>1374</v>
+      </c>
+      <c r="F219" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37667,6 +37829,9 @@
       <c r="E224" t="s">
         <v>1374</v>
       </c>
+      <c r="F224" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="225" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="131" t="s">
@@ -37684,6 +37849,9 @@
       <c r="E225" t="s">
         <v>1374</v>
       </c>
+      <c r="F225" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="226" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="123" t="s">
@@ -37701,6 +37869,9 @@
       <c r="E226" t="s">
         <v>1372</v>
       </c>
+      <c r="F226" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="227" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="124" t="s">
@@ -37729,6 +37900,9 @@
       <c r="E228" t="s">
         <v>1374</v>
       </c>
+      <c r="F228" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="229" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="131" t="s">
@@ -37746,6 +37920,9 @@
       <c r="E229" t="s">
         <v>1374</v>
       </c>
+      <c r="F229" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="230" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="131" t="s">
@@ -37763,6 +37940,9 @@
       <c r="E230" t="s">
         <v>1374</v>
       </c>
+      <c r="F230" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="231" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="130" t="s">
@@ -37780,10 +37960,13 @@
       <c r="E231" t="s">
         <v>1374</v>
       </c>
+      <c r="F231" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="232" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="132" t="s">
-        <v>325</v>
+        <v>1411</v>
       </c>
       <c r="B232" s="62" t="s">
         <v>165</v>
@@ -37796,6 +37979,9 @@
       </c>
       <c r="E232" t="s">
         <v>1367</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -37814,10 +38000,13 @@
       <c r="E233" t="s">
         <v>1367</v>
       </c>
+      <c r="F233" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="234" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="132" t="s">
-        <v>316</v>
+        <v>1412</v>
       </c>
       <c r="B234" s="62" t="s">
         <v>165</v>
@@ -37830,6 +38019,9 @@
       </c>
       <c r="E234" t="s">
         <v>1367</v>
+      </c>
+      <c r="F234" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -37848,6 +38040,9 @@
       <c r="E235" t="s">
         <v>1367</v>
       </c>
+      <c r="F235" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="236" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="131" t="s">
@@ -37865,6 +38060,9 @@
       <c r="E236" t="s">
         <v>1374</v>
       </c>
+      <c r="F236" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="237" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="133" t="s">
@@ -37882,6 +38080,9 @@
       <c r="E237" t="s">
         <v>1374</v>
       </c>
+      <c r="F237" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="238" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="131" t="s">
@@ -37899,6 +38100,9 @@
       <c r="E238" t="s">
         <v>1374</v>
       </c>
+      <c r="F238" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="239" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="131" t="s">
@@ -37916,6 +38120,9 @@
       <c r="E239" t="s">
         <v>1374</v>
       </c>
+      <c r="F239" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="240" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="133" t="s">
@@ -37933,6 +38140,9 @@
       <c r="E240" t="s">
         <v>1374</v>
       </c>
+      <c r="F240" t="s">
+        <v>1401</v>
+      </c>
       <c r="G240" t="s">
         <v>1400</v>
       </c>
@@ -37953,6 +38163,9 @@
       <c r="E241" t="s">
         <v>1372</v>
       </c>
+      <c r="F241" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="242" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="124" t="s">
@@ -38043,6 +38256,9 @@
       <c r="E247" t="s">
         <v>1374</v>
       </c>
+      <c r="F247" t="s">
+        <v>1401</v>
+      </c>
       <c r="G247" t="s">
         <v>1400</v>
       </c>
@@ -38063,6 +38279,9 @@
       <c r="E248" t="s">
         <v>1374</v>
       </c>
+      <c r="F248" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="249" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="131" t="s">
@@ -38080,6 +38299,9 @@
       <c r="E249" t="s">
         <v>1374</v>
       </c>
+      <c r="F249" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="250" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="131" t="s">
@@ -38097,6 +38319,9 @@
       <c r="E250" t="s">
         <v>1374</v>
       </c>
+      <c r="F250" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="251" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="131" t="s">
@@ -38114,6 +38339,9 @@
       <c r="E251" t="s">
         <v>1374</v>
       </c>
+      <c r="F251" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="252" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="124" t="s">
@@ -38142,6 +38370,9 @@
       <c r="E253" t="s">
         <v>1374</v>
       </c>
+      <c r="F253" t="s">
+        <v>1401</v>
+      </c>
       <c r="G253" t="s">
         <v>1400</v>
       </c>
@@ -38162,6 +38393,9 @@
       <c r="E254" t="s">
         <v>1374</v>
       </c>
+      <c r="F254" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="255" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="123" t="s">
@@ -38179,6 +38413,9 @@
       <c r="E255" t="s">
         <v>1372</v>
       </c>
+      <c r="F255" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="256" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="123" t="s">
@@ -38196,8 +38433,11 @@
       <c r="E256" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F256" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="29" t="s">
         <v>75</v>
       </c>
@@ -38214,7 +38454,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="123" t="s">
         <v>329</v>
       </c>
@@ -38228,8 +38468,11 @@
       <c r="E258" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F258" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="123" t="s">
         <v>372</v>
       </c>
@@ -38246,7 +38489,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="124" t="s">
         <v>1145</v>
       </c>
@@ -38257,7 +38500,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="124" t="s">
         <v>1134</v>
       </c>
@@ -38268,7 +38511,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="123" t="s">
         <v>355</v>
       </c>
@@ -38284,8 +38527,11 @@
       <c r="E262" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F262" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="123" t="s">
         <v>185</v>
       </c>
@@ -38301,8 +38547,11 @@
       <c r="E263" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F263" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="124" t="s">
         <v>1223</v>
       </c>
@@ -38316,7 +38565,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="124" t="s">
         <v>1222</v>
       </c>
@@ -38330,7 +38579,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="124" t="s">
         <v>1224</v>
       </c>
@@ -38344,7 +38593,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="124" t="s">
         <v>1225</v>
       </c>
@@ -38358,7 +38607,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="124" t="s">
         <v>1226</v>
       </c>
@@ -38372,7 +38621,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="124" t="s">
         <v>1227</v>
       </c>
@@ -38386,7 +38635,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="124" t="s">
         <v>1228</v>
       </c>
@@ -38400,7 +38649,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="124" t="s">
         <v>1229</v>
       </c>
@@ -38414,7 +38663,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="124" t="s">
         <v>1230</v>
       </c>
@@ -38428,7 +38677,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="124" t="s">
         <v>1231</v>
       </c>
@@ -38442,7 +38691,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="124" t="s">
         <v>1310</v>
       </c>
@@ -38456,7 +38705,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="124" t="s">
         <v>1311</v>
       </c>
@@ -38470,7 +38719,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="124" t="s">
         <v>1124</v>
       </c>
@@ -38481,7 +38730,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="124" t="s">
         <v>1111</v>
       </c>
@@ -38492,7 +38741,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="124" t="s">
         <v>1157</v>
       </c>
@@ -38503,7 +38752,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="124" t="s">
         <v>1123</v>
       </c>
@@ -38514,7 +38763,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="124" t="s">
         <v>1144</v>
       </c>
@@ -38525,7 +38774,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="124" t="s">
         <v>996</v>
       </c>
@@ -38542,7 +38791,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="123" t="s">
         <v>363</v>
       </c>
@@ -38556,8 +38805,11 @@
       <c r="E282" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F282" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="123" t="s">
         <v>213</v>
       </c>
@@ -38573,8 +38825,11 @@
       <c r="E283" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F283" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="128" t="s">
         <v>149</v>
       </c>
@@ -38591,7 +38846,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="124" t="s">
         <v>1115</v>
       </c>
@@ -38602,7 +38857,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="124" t="s">
         <v>1125</v>
       </c>
@@ -38613,7 +38868,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="124" t="s">
         <v>1125</v>
       </c>
@@ -38624,7 +38879,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="124" t="s">
         <v>1347</v>
       </c>
@@ -38635,7 +38890,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="124" t="s">
         <v>1346</v>
       </c>
@@ -38646,7 +38901,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="124" t="s">
         <v>1348</v>
       </c>
@@ -38657,7 +38912,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="124" t="s">
         <v>1344</v>
       </c>
@@ -38668,7 +38923,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="124" t="s">
         <v>1345</v>
       </c>
@@ -38679,7 +38934,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="120" t="s">
         <v>430</v>
       </c>
@@ -38696,7 +38951,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="123" t="s">
         <v>303</v>
       </c>
@@ -38712,8 +38967,11 @@
       <c r="E294" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F294" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="123" t="s">
         <v>376</v>
       </c>
@@ -38729,8 +38987,11 @@
       <c r="E295" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F295" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="123" t="s">
         <v>306</v>
       </c>
@@ -38746,8 +39007,11 @@
       <c r="E296" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F296" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="123" t="s">
         <v>297</v>
       </c>
@@ -38763,8 +39027,11 @@
       <c r="E297" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F297" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="123" t="s">
         <v>302</v>
       </c>
@@ -38780,8 +39047,11 @@
       <c r="E298" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F298" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="123" t="s">
         <v>291</v>
       </c>
@@ -38797,8 +39067,11 @@
       <c r="E299" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F299" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="123" t="s">
         <v>397</v>
       </c>
@@ -38814,8 +39087,11 @@
       <c r="E300" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F300" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="123" t="s">
         <v>367</v>
       </c>
@@ -38831,8 +39107,11 @@
       <c r="E301" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F301" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="123" t="s">
         <v>293</v>
       </c>
@@ -38848,8 +39127,11 @@
       <c r="E302" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F302" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="123" t="s">
         <v>368</v>
       </c>
@@ -38865,8 +39147,11 @@
       <c r="E303" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F303" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="123" t="s">
         <v>285</v>
       </c>
@@ -38881,6 +39166,9 @@
       </c>
       <c r="E304" t="s">
         <v>1375</v>
+      </c>
+      <c r="F304" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -42093,7 +42381,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="127" t="s">
         <v>627</v>
       </c>
@@ -42149,7 +42437,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="127" t="s">
         <v>648</v>
       </c>
@@ -42183,7 +42471,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="127" t="s">
         <v>619</v>
       </c>
@@ -42217,7 +42505,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="127" t="s">
         <v>661</v>
       </c>
@@ -42342,7 +42630,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="127" t="s">
         <v>645</v>
       </c>
@@ -42356,7 +42644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="127" t="s">
         <v>644</v>
       </c>
@@ -42390,7 +42678,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="573" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="127" t="s">
         <v>616</v>
       </c>
@@ -42404,7 +42692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="574" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="127" t="s">
         <v>651</v>
       </c>
@@ -46506,7 +46794,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="868" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" s="127" t="s">
         <v>625</v>
       </c>
@@ -46520,7 +46808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="869" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" s="127" t="s">
         <v>626</v>
       </c>
@@ -46534,7 +46822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="870" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="127" t="s">
         <v>632</v>
       </c>
@@ -46568,7 +46856,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="872" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" s="126" t="s">
         <v>553</v>
       </c>
@@ -46579,7 +46867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="873" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="127" t="s">
         <v>629</v>
       </c>
@@ -46593,7 +46881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="874" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="127" t="s">
         <v>630</v>
       </c>
@@ -46607,7 +46895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="875" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" s="127" t="s">
         <v>635</v>
       </c>
@@ -46695,7 +46983,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="880" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="127" t="s">
         <v>646</v>
       </c>
@@ -46709,7 +46997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="881" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" s="127" t="s">
         <v>647</v>
       </c>
@@ -46777,7 +47065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="885" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" s="127" t="s">
         <v>649</v>
       </c>
@@ -46887,7 +47175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="892" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="127" t="s">
         <v>658</v>
       </c>
@@ -46901,7 +47189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="893" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" s="127" t="s">
         <v>659</v>
       </c>
@@ -46915,7 +47203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="894" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" s="127" t="s">
         <v>662</v>
       </c>
@@ -46954,7 +47242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="897" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="127" t="s">
         <v>664</v>
       </c>
@@ -46968,7 +47256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="898" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" s="127" t="s">
         <v>665</v>
       </c>
@@ -47033,7 +47321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="902" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="127" t="s">
         <v>667</v>
       </c>
@@ -47058,7 +47346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="904" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" s="127" t="s">
         <v>623</v>
       </c>
@@ -47092,7 +47380,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="906" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" s="127" t="s">
         <v>624</v>
       </c>
@@ -47126,7 +47414,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="908" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" s="127" t="s">
         <v>621</v>
       </c>
@@ -47162,7 +47450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="911" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" s="127" t="s">
         <v>670</v>
       </c>
@@ -47204,7 +47492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="914" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="127" t="s">
         <v>672</v>
       </c>
@@ -47218,7 +47506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="915" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="127" t="s">
         <v>673</v>
       </c>
@@ -47286,7 +47574,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="919" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" s="127" t="s">
         <v>676</v>
       </c>
@@ -47418,7 +47706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="928" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" s="127" t="s">
         <v>575</v>
       </c>
@@ -47432,7 +47720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="929" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" s="127" t="s">
         <v>574</v>
       </c>
@@ -49379,7 +49667,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1061" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1061" s="127" t="s">
         <v>571</v>
       </c>
@@ -49413,7 +49701,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1063" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1063" s="127" t="s">
         <v>671</v>
       </c>
@@ -49822,7 +50110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1086" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1086" s="127" t="s">
         <v>587</v>
       </c>
@@ -49862,7 +50150,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1088" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1088" s="127" t="s">
         <v>582</v>
       </c>
@@ -49932,7 +50220,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1093" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1093" s="127" t="s">
         <v>569</v>
       </c>
@@ -50072,7 +50360,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1103" s="127" t="s">
         <v>668</v>
       </c>
@@ -50108,7 +50396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1106" s="127" t="s">
         <v>669</v>
       </c>
@@ -50144,7 +50432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1109" s="127" t="s">
         <v>675</v>
       </c>
@@ -50172,7 +50460,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1111" s="127" t="s">
         <v>606</v>
       </c>
@@ -50306,7 +50594,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1118" s="127" t="s">
         <v>581</v>
       </c>
@@ -50596,7 +50884,6 @@
         <filter val="2G"/>
         <filter val="2H"/>
         <filter val="3"/>
-        <filter val="4"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">

--- a/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
+++ b/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah 23\Desktop\LabDocuments\FungalCulture\VdIsolatesList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D014DDE-B1D6-4A3D-A05F-0D7D96BD82A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C242417E-6984-497C-ADC8-2337D681FFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9433" uniqueCount="1412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9484" uniqueCount="1413">
   <si>
     <t>Plate</t>
   </si>
@@ -4305,6 +4305,9 @@
   </si>
   <si>
     <t>Same as above?</t>
+  </si>
+  <si>
+    <t>Same as LS8A?</t>
   </si>
 </sst>
 </file>
@@ -5068,56 +5071,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -33714,8 +33668,8 @@
   <dimension ref="A1:H1136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F239" sqref="F239"/>
+      <pane ySplit="1" topLeftCell="A534" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F239" sqref="F239:F1136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38359,6 +38313,9 @@
       <c r="E239" t="s">
         <v>1375</v>
       </c>
+      <c r="F239" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="240" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="123" t="s">
@@ -38376,6 +38333,9 @@
       <c r="E240" t="s">
         <v>1375</v>
       </c>
+      <c r="F240" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="241" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="123" t="s">
@@ -38393,6 +38353,9 @@
       <c r="E241" t="s">
         <v>1375</v>
       </c>
+      <c r="F241" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="242" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="124" t="s">
@@ -38498,6 +38461,9 @@
       <c r="E247" t="s">
         <v>1375</v>
       </c>
+      <c r="F247" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="248" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="123" t="s">
@@ -38515,6 +38481,9 @@
       <c r="E248" t="s">
         <v>1375</v>
       </c>
+      <c r="F248" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="249" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="123" t="s">
@@ -38532,6 +38501,9 @@
       <c r="E249" t="s">
         <v>1375</v>
       </c>
+      <c r="F249" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="250" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="123" t="s">
@@ -38549,6 +38521,9 @@
       <c r="E250" t="s">
         <v>1384</v>
       </c>
+      <c r="F250" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="251" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="123" t="s">
@@ -38566,6 +38541,9 @@
       <c r="E251" t="s">
         <v>1384</v>
       </c>
+      <c r="F251" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="252" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="124" t="s">
@@ -38597,6 +38575,9 @@
       <c r="E253" t="s">
         <v>1384</v>
       </c>
+      <c r="F253" t="s">
+        <v>1401</v>
+      </c>
       <c r="G253" t="s">
         <v>1400</v>
       </c>
@@ -38617,6 +38598,9 @@
       <c r="E254" t="s">
         <v>1384</v>
       </c>
+      <c r="F254" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="255" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="123" t="s">
@@ -38634,6 +38618,9 @@
       <c r="E255" t="s">
         <v>1384</v>
       </c>
+      <c r="F255" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="256" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="120" t="s">
@@ -38651,6 +38638,9 @@
       <c r="E256" t="s">
         <v>1384</v>
       </c>
+      <c r="F256" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="257" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="123" t="s">
@@ -38668,6 +38658,9 @@
       <c r="E257" t="s">
         <v>1384</v>
       </c>
+      <c r="F257" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="258" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="123" t="s">
@@ -38685,6 +38678,9 @@
       <c r="E258" t="s">
         <v>1384</v>
       </c>
+      <c r="F258" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="259" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="123" t="s">
@@ -38750,6 +38746,9 @@
       <c r="E262" t="s">
         <v>1384</v>
       </c>
+      <c r="F262" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="263" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="123" t="s">
@@ -38767,6 +38766,9 @@
       <c r="E263" t="s">
         <v>1384</v>
       </c>
+      <c r="F263" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="264" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="124" t="s">
@@ -39078,6 +39080,9 @@
       <c r="E282" t="s">
         <v>1384</v>
       </c>
+      <c r="F282" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="283" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="123" t="s">
@@ -39095,6 +39100,9 @@
       <c r="E283" t="s">
         <v>1384</v>
       </c>
+      <c r="F283" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="284" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="128" t="s">
@@ -39264,6 +39272,9 @@
       <c r="E294" t="s">
         <v>1384</v>
       </c>
+      <c r="F294" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="295" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="123" t="s">
@@ -39281,6 +39292,9 @@
       <c r="E295" t="s">
         <v>1384</v>
       </c>
+      <c r="F295" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="296" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="124" t="s">
@@ -39292,6 +39306,9 @@
       <c r="E296" t="s">
         <v>1384</v>
       </c>
+      <c r="F296" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="297" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="124" t="s">
@@ -39303,6 +39320,9 @@
       <c r="E297" t="s">
         <v>1384</v>
       </c>
+      <c r="F297" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="298" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="123" t="s">
@@ -39320,6 +39340,9 @@
       <c r="E298" t="s">
         <v>1373</v>
       </c>
+      <c r="F298" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="299" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="123" t="s">
@@ -39337,6 +39360,9 @@
       <c r="E299" t="s">
         <v>1373</v>
       </c>
+      <c r="F299" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="300" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="123" t="s">
@@ -39354,6 +39380,9 @@
       <c r="E300" t="s">
         <v>1390</v>
       </c>
+      <c r="F300" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="301" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="123" t="s">
@@ -39371,6 +39400,9 @@
       <c r="E301" t="s">
         <v>1390</v>
       </c>
+      <c r="F301" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="302" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="123" t="s">
@@ -39388,6 +39420,9 @@
       <c r="E302" t="s">
         <v>1390</v>
       </c>
+      <c r="F302" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="303" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="123" t="s">
@@ -39405,6 +39440,9 @@
       <c r="E303" t="s">
         <v>1391</v>
       </c>
+      <c r="F303" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="304" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="123" t="s">
@@ -39422,6 +39460,9 @@
       <c r="E304" t="s">
         <v>1391</v>
       </c>
+      <c r="F304" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="305" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="123" t="s">
@@ -39439,6 +39480,9 @@
       <c r="E305" t="s">
         <v>1391</v>
       </c>
+      <c r="F305" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="306" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="123" t="s">
@@ -39456,6 +39500,9 @@
       <c r="E306" t="s">
         <v>1391</v>
       </c>
+      <c r="F306" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="307" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="123" t="s">
@@ -39473,6 +39520,9 @@
       <c r="E307" t="s">
         <v>1391</v>
       </c>
+      <c r="F307" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="308" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="123" t="s">
@@ -39490,6 +39540,9 @@
       <c r="E308" t="s">
         <v>1391</v>
       </c>
+      <c r="F308" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="309" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="124" t="s">
@@ -39577,6 +39630,9 @@
       <c r="E314" t="s">
         <v>1391</v>
       </c>
+      <c r="F314" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="315" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="123" t="s">
@@ -42000,6 +42056,9 @@
       <c r="E468" t="s">
         <v>1392</v>
       </c>
+      <c r="F468" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="469" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="124" t="s">
@@ -42037,6 +42096,9 @@
       <c r="E470" t="s">
         <v>1392</v>
       </c>
+      <c r="F470" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="471" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A471" s="123" t="s">
@@ -42054,6 +42116,9 @@
       <c r="E471" t="s">
         <v>1392</v>
       </c>
+      <c r="F471" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="472" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A472" s="131" t="s">
@@ -42071,6 +42136,9 @@
       <c r="E472" t="s">
         <v>1392</v>
       </c>
+      <c r="F472" t="s">
+        <v>1401</v>
+      </c>
       <c r="G472" t="s">
         <v>1400</v>
       </c>
@@ -42111,6 +42179,9 @@
       <c r="E474" t="s">
         <v>1392</v>
       </c>
+      <c r="F474" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="475" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A475" s="123" t="s">
@@ -42128,6 +42199,9 @@
       <c r="E475" t="s">
         <v>1392</v>
       </c>
+      <c r="F475" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="476" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="124" t="s">
@@ -42937,7 +43011,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="124" t="s">
         <v>961</v>
       </c>
@@ -42946,7 +43020,7 @@
       </c>
       <c r="D533" s="118"/>
       <c r="E533" t="s">
-        <v>1385</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="534" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -42965,6 +43039,9 @@
       <c r="E534" t="s">
         <v>1392</v>
       </c>
+      <c r="F534" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="535" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="123" t="s">
@@ -43002,6 +43079,9 @@
       <c r="E536" t="s">
         <v>1392</v>
       </c>
+      <c r="F536" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="537" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A537" s="123" t="s">
@@ -43017,6 +43097,9 @@
       <c r="E537" t="s">
         <v>1392</v>
       </c>
+      <c r="F537" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="538" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="124" t="s">
@@ -43128,6 +43211,9 @@
       <c r="E543" t="s">
         <v>1392</v>
       </c>
+      <c r="F543" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="544" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="124" t="s">
@@ -43162,6 +43248,9 @@
       <c r="E545" t="s">
         <v>1392</v>
       </c>
+      <c r="F545" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="546" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A546" s="123" t="s">
@@ -43179,6 +43268,9 @@
       <c r="E546" t="s">
         <v>1392</v>
       </c>
+      <c r="F546" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="547" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A547" s="123" t="s">
@@ -43196,6 +43288,9 @@
       <c r="E547" t="s">
         <v>1392</v>
       </c>
+      <c r="F547" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="548" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="124" t="s">
@@ -43233,6 +43328,9 @@
       <c r="E549" t="s">
         <v>1392</v>
       </c>
+      <c r="F549" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="550" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="124" t="s">
@@ -43284,6 +43382,9 @@
       <c r="E552" t="s">
         <v>1392</v>
       </c>
+      <c r="F552" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="553" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A553" s="123" t="s">
@@ -43301,6 +43402,9 @@
       <c r="E553" t="s">
         <v>1392</v>
       </c>
+      <c r="F553" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="554" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="28">
@@ -47405,7 +47509,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="791" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="139" t="s">
         <v>1200</v>
       </c>
@@ -47420,6 +47524,9 @@
       </c>
       <c r="E791" t="s">
         <v>1384</v>
+      </c>
+      <c r="F791" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="792" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">

--- a/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
+++ b/FungalCulture/VdIsolatesList/Organized Vd_list_JKSD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah 23\Desktop\LabDocuments\FungalCulture\VdIsolatesList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6F157C-BC58-4863-941A-942F05514018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1162599-341B-4DAB-80BD-14EF2F4EA7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9538" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9573" uniqueCount="1466">
   <si>
     <t>Plate</t>
   </si>
@@ -4319,9 +4319,6 @@
     <t>subcutltured</t>
   </si>
   <si>
-    <t>HIS ID Number</t>
-  </si>
-  <si>
     <t>3.I.2010</t>
   </si>
   <si>
@@ -4337,12 +4334,6 @@
     <t>61-1 lost to contamination</t>
   </si>
   <si>
-    <t>120-2 lost to contamination</t>
-  </si>
-  <si>
-    <t>117-2 lost to contamination</t>
-  </si>
-  <si>
     <t>97-2 lost to contamination</t>
   </si>
   <si>
@@ -4362,6 +4353,120 @@
   </si>
   <si>
     <t>96-1 lost to contamination</t>
+  </si>
+  <si>
+    <t>37-3 and 37-4  lost to contamination</t>
+  </si>
+  <si>
+    <t>199-4 lost to contamination</t>
+  </si>
+  <si>
+    <t>160-4 lost to contamination</t>
+  </si>
+  <si>
+    <t>HSI ID Number</t>
+  </si>
+  <si>
+    <t>147-4 lost to contamination</t>
+  </si>
+  <si>
+    <t>202-1 and 202-4 lost to contamination</t>
+  </si>
+  <si>
+    <t>56-4 lost to contamination</t>
+  </si>
+  <si>
+    <t>102-3 lost to contamination</t>
+  </si>
+  <si>
+    <t>103-3 lost to contamination</t>
+  </si>
+  <si>
+    <t>87-2 contaminated but saved</t>
+  </si>
+  <si>
+    <t>90-2 contaminated but saved</t>
+  </si>
+  <si>
+    <t>85-2 contaminated but saved</t>
+  </si>
+  <si>
+    <t>89-2 contaminated but saved</t>
+  </si>
+  <si>
+    <t>88-2 contaminated but saved</t>
+  </si>
+  <si>
+    <t>86-2 contaminated but saved</t>
+  </si>
+  <si>
+    <t>99-2 contaminated but saved</t>
+  </si>
+  <si>
+    <t>81-2 contaminated but saved</t>
+  </si>
+  <si>
+    <t>52-4 contaminated but saved</t>
+  </si>
+  <si>
+    <t>57-4 contaminated but saved</t>
+  </si>
+  <si>
+    <t>1-1 contaminated but saved</t>
+  </si>
+  <si>
+    <t>69-1 contaminated but saved</t>
+  </si>
+  <si>
+    <t>64-1 contaminated but saved</t>
+  </si>
+  <si>
+    <t>201-1 contaminated but saved</t>
+  </si>
+  <si>
+    <t>114-3 lost to contamination, 114-1 contaminated but saved</t>
+  </si>
+  <si>
+    <t>185-1 contaminated but saved</t>
+  </si>
+  <si>
+    <t>186-1 and 186-4 contaminated but saved</t>
+  </si>
+  <si>
+    <t>191-1 contaminated but saved</t>
+  </si>
+  <si>
+    <t>119-1 contaminated but saved</t>
+  </si>
+  <si>
+    <t>111-3 contaminated but saved</t>
+  </si>
+  <si>
+    <t>112-3 contaminated but saved</t>
+  </si>
+  <si>
+    <t>104-3 contaminated but saved</t>
+  </si>
+  <si>
+    <t>106-3 and 106-4 contaminated but saved</t>
+  </si>
+  <si>
+    <t>115-3 contaminated but saved</t>
+  </si>
+  <si>
+    <t>120-2 lost to contamination, 120-3 contaminated but saved</t>
+  </si>
+  <si>
+    <t>117-2 lost to contamination, 117-3 contaminated but saved</t>
+  </si>
+  <si>
+    <t>110-3 contaminated but saved</t>
+  </si>
+  <si>
+    <t>105-3 contaminated but saved</t>
+  </si>
+  <si>
+    <t>101-1 and 101-2 lost to contamination, 101-3 contaminated but saved</t>
   </si>
 </sst>
 </file>
@@ -33722,8 +33827,8 @@
   <dimension ref="A1:L1136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1126" sqref="K1:L1126"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33769,7 +33874,7 @@
         <v>1415</v>
       </c>
       <c r="K1" s="140" t="s">
-        <v>1416</v>
+        <v>1431</v>
       </c>
       <c r="L1" s="140" t="s">
         <v>1204</v>
@@ -34092,8 +34197,11 @@
       <c r="K16">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="122">
         <v>32</v>
       </c>
@@ -34116,7 +34224,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="122">
         <v>34</v>
       </c>
@@ -34138,8 +34246,11 @@
       <c r="K18">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="122">
         <v>35</v>
       </c>
@@ -34162,7 +34273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="122">
         <v>36</v>
       </c>
@@ -34185,7 +34296,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="122">
         <v>37</v>
       </c>
@@ -34208,7 +34319,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="122">
         <v>38</v>
       </c>
@@ -34231,7 +34342,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="122">
         <v>41</v>
       </c>
@@ -34254,7 +34365,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="122">
         <v>43</v>
       </c>
@@ -34277,7 +34388,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="122">
         <v>44</v>
       </c>
@@ -34300,7 +34411,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="122">
         <v>45</v>
       </c>
@@ -34325,8 +34436,11 @@
       <c r="K26">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="122">
         <v>46</v>
       </c>
@@ -34348,8 +34462,11 @@
       <c r="K27">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="122">
         <v>47</v>
       </c>
@@ -34372,7 +34489,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="122">
         <v>48</v>
       </c>
@@ -34395,7 +34512,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="122">
         <v>50</v>
       </c>
@@ -34418,7 +34535,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="122">
         <v>51</v>
       </c>
@@ -34447,7 +34564,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="122">
         <v>52</v>
       </c>
@@ -34518,6 +34635,9 @@
       <c r="K34">
         <v>85</v>
       </c>
+      <c r="L34" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="122">
@@ -34541,6 +34661,9 @@
       <c r="K35">
         <v>89</v>
       </c>
+      <c r="L35" t="s">
+        <v>1440</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="122">
@@ -34564,6 +34687,9 @@
       <c r="K36">
         <v>88</v>
       </c>
+      <c r="L36" t="s">
+        <v>1441</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="122">
@@ -34590,6 +34716,9 @@
       <c r="K37">
         <v>86</v>
       </c>
+      <c r="L37" t="s">
+        <v>1442</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="122">
@@ -34613,6 +34742,9 @@
       <c r="K38">
         <v>87</v>
       </c>
+      <c r="L38" t="s">
+        <v>1437</v>
+      </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="122">
@@ -34731,6 +34863,9 @@
       <c r="K43">
         <v>90</v>
       </c>
+      <c r="L43" t="s">
+        <v>1438</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="122">
@@ -34755,7 +34890,7 @@
         <v>97</v>
       </c>
       <c r="L44" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -34827,7 +34962,7 @@
         <v>96</v>
       </c>
       <c r="L47" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -34853,7 +34988,7 @@
         <v>120</v>
       </c>
       <c r="L48" t="s">
-        <v>1422</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -34881,6 +35016,9 @@
       <c r="K49">
         <v>119</v>
       </c>
+      <c r="L49" t="s">
+        <v>1455</v>
+      </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="122">
@@ -34931,7 +35069,7 @@
         <v>117</v>
       </c>
       <c r="L51" t="s">
-        <v>1423</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -35005,6 +35143,9 @@
       <c r="K54">
         <v>115</v>
       </c>
+      <c r="L54" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="122">
@@ -35150,10 +35291,10 @@
         <v>1414</v>
       </c>
       <c r="K60" t="s">
+        <v>1417</v>
+      </c>
+      <c r="L60" t="s">
         <v>1418</v>
-      </c>
-      <c r="L60" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -35242,7 +35383,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="121">
         <v>111</v>
       </c>
@@ -35267,8 +35408,11 @@
       <c r="K65">
         <v>114</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L65" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="121">
         <v>112</v>
       </c>
@@ -35291,7 +35435,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="121">
         <v>114</v>
       </c>
@@ -35314,7 +35458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="121">
         <v>115</v>
       </c>
@@ -35337,7 +35481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="121">
         <v>116</v>
       </c>
@@ -35360,7 +35504,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="121">
         <v>121</v>
       </c>
@@ -35389,7 +35533,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="121">
         <v>124</v>
       </c>
@@ -35411,8 +35555,11 @@
       <c r="K71">
         <v>110</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L71" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="121">
         <v>128</v>
       </c>
@@ -35435,7 +35582,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="121">
         <v>129</v>
       </c>
@@ -35457,8 +35604,11 @@
       <c r="K73">
         <v>111</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L73" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="121">
         <v>130</v>
       </c>
@@ -35480,8 +35630,11 @@
       <c r="K74">
         <v>112</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L74" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="121">
         <v>141</v>
       </c>
@@ -35504,7 +35657,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="121">
         <v>142</v>
       </c>
@@ -35533,7 +35686,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="121">
         <v>145</v>
       </c>
@@ -35556,7 +35709,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="121">
         <v>151</v>
       </c>
@@ -35578,8 +35731,11 @@
       <c r="K78">
         <v>103</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L78" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="121">
         <v>155</v>
       </c>
@@ -35601,8 +35757,11 @@
       <c r="K79">
         <v>104</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L79" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="119">
         <v>233</v>
       </c>
@@ -35624,8 +35783,11 @@
       <c r="K80">
         <v>105</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L80" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="119">
         <v>235</v>
       </c>
@@ -35651,7 +35813,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="119">
         <v>239</v>
       </c>
@@ -35677,7 +35839,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="119">
         <v>240</v>
       </c>
@@ -35702,8 +35864,11 @@
       <c r="K83">
         <v>106</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L83" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="129">
         <v>318</v>
       </c>
@@ -35725,8 +35890,11 @@
       <c r="K84">
         <v>202</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L84" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="129">
         <v>381</v>
       </c>
@@ -35746,7 +35914,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="129">
         <v>461</v>
       </c>
@@ -35768,8 +35936,11 @@
       <c r="K86">
         <v>52</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L86" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="129">
         <v>601</v>
       </c>
@@ -35792,7 +35963,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="119">
         <v>653</v>
       </c>
@@ -35817,8 +35988,11 @@
       <c r="K88">
         <v>201</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L88" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>127</v>
       </c>
@@ -35838,7 +36012,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="123" t="s">
         <v>42</v>
       </c>
@@ -35861,7 +36035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="123" t="s">
         <v>1376</v>
       </c>
@@ -35882,7 +36056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="143" t="s">
         <v>1377</v>
       </c>
@@ -35902,7 +36076,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="123" t="s">
         <v>164</v>
       </c>
@@ -35923,7 +36097,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="123" t="s">
         <v>170</v>
       </c>
@@ -35944,7 +36118,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="123" t="s">
         <v>214</v>
       </c>
@@ -35967,7 +36141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="123" t="s">
         <v>211</v>
       </c>
@@ -35990,7 +36164,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="123" t="s">
         <v>215</v>
       </c>
@@ -36013,7 +36187,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="123" t="s">
         <v>261</v>
       </c>
@@ -36036,7 +36210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="123" t="s">
         <v>264</v>
       </c>
@@ -36059,7 +36233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="123" t="s">
         <v>212</v>
       </c>
@@ -36082,7 +36256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="135" t="s">
         <v>1019</v>
       </c>
@@ -36104,8 +36278,11 @@
       <c r="K101">
         <v>37</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L101" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="123" t="s">
         <v>265</v>
       </c>
@@ -36128,7 +36305,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="123" t="s">
         <v>216</v>
       </c>
@@ -36151,7 +36328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="123" t="s">
         <v>266</v>
       </c>
@@ -36174,7 +36351,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="123" t="s">
         <v>267</v>
       </c>
@@ -36197,7 +36374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="123" t="s">
         <v>218</v>
       </c>
@@ -36220,7 +36397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="123" t="s">
         <v>345</v>
       </c>
@@ -36243,7 +36420,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="142">
         <v>263</v>
       </c>
@@ -36260,7 +36437,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="129">
         <v>317</v>
       </c>
@@ -36280,7 +36457,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="123" t="s">
         <v>347</v>
       </c>
@@ -36303,7 +36480,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="132" t="s">
         <v>1409</v>
       </c>
@@ -36326,7 +36503,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="132" t="s">
         <v>1410</v>
       </c>
@@ -36347,6 +36524,9 @@
       </c>
       <c r="K112">
         <v>191</v>
+      </c>
+      <c r="L112" t="s">
+        <v>1454</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -36740,6 +36920,9 @@
       <c r="K134">
         <v>64</v>
       </c>
+      <c r="L134" t="s">
+        <v>1449</v>
+      </c>
     </row>
     <row r="135" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="132" t="s">
@@ -36816,10 +36999,10 @@
         <v>1414</v>
       </c>
       <c r="K137" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="L137" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -36848,7 +37031,7 @@
         <v>62</v>
       </c>
       <c r="L138" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -36914,7 +37097,7 @@
         <v>61</v>
       </c>
       <c r="L141" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -36977,7 +37160,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="124" t="s">
         <v>940</v>
       </c>
@@ -36997,7 +37180,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="124" t="s">
         <v>941</v>
       </c>
@@ -37017,7 +37200,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="124" t="s">
         <v>942</v>
       </c>
@@ -37037,7 +37220,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="131" t="s">
         <v>408</v>
       </c>
@@ -37063,7 +37246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="134" t="s">
         <v>387</v>
       </c>
@@ -37089,7 +37272,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="132" t="s">
         <v>1408</v>
       </c>
@@ -37112,7 +37295,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="124" t="s">
         <v>954</v>
       </c>
@@ -37132,7 +37315,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="131" t="s">
         <v>230</v>
       </c>
@@ -37155,7 +37338,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="124" t="s">
         <v>951</v>
       </c>
@@ -37175,7 +37358,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="124" t="s">
         <v>953</v>
       </c>
@@ -37195,7 +37378,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="124" t="s">
         <v>953</v>
       </c>
@@ -37215,7 +37398,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="124" t="s">
         <v>955</v>
       </c>
@@ -37235,7 +37418,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="124" t="s">
         <v>955</v>
       </c>
@@ -37255,7 +37438,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="132" t="s">
         <v>337</v>
       </c>
@@ -37280,8 +37463,11 @@
       <c r="K158">
         <v>185</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L158" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="131" t="s">
         <v>338</v>
       </c>
@@ -37303,8 +37489,11 @@
       <c r="K159">
         <v>186</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L159" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="131" t="s">
         <v>224</v>
       </c>
@@ -37327,7 +37516,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="124" t="s">
         <v>958</v>
       </c>
@@ -37347,7 +37536,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="124" t="s">
         <v>956</v>
       </c>
@@ -37367,7 +37556,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="131" t="s">
         <v>255</v>
       </c>
@@ -37390,7 +37579,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="123" t="s">
         <v>339</v>
       </c>
@@ -37413,7 +37602,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="124" t="s">
         <v>948</v>
       </c>
@@ -37433,7 +37622,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="124" t="s">
         <v>950</v>
       </c>
@@ -37453,7 +37642,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="132" t="s">
         <v>1407</v>
       </c>
@@ -37476,7 +37665,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="132" t="s">
         <v>280</v>
       </c>
@@ -37499,7 +37688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="119" t="s">
         <v>1203</v>
       </c>
@@ -37522,7 +37711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="131" t="s">
         <v>374</v>
       </c>
@@ -37547,8 +37736,11 @@
       <c r="K170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L170" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="124" t="s">
         <v>1320</v>
       </c>
@@ -37562,9 +37754,9 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="131" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B172" s="55" t="s">
         <v>165</v>
@@ -37585,7 +37777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="131" t="s">
         <v>227</v>
       </c>
@@ -37608,7 +37800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="131" t="s">
         <v>241</v>
       </c>
@@ -37631,7 +37823,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="123" t="s">
         <v>198</v>
       </c>
@@ -37654,7 +37846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="131" t="s">
         <v>253</v>
       </c>
@@ -38527,7 +38719,7 @@
         <v>19</v>
       </c>
       <c r="L218" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -38709,6 +38901,9 @@
       <c r="K228">
         <v>57</v>
       </c>
+      <c r="L228" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="229" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="123" t="s">
@@ -38778,6 +38973,9 @@
       <c r="K231">
         <v>56</v>
       </c>
+      <c r="L231" t="s">
+        <v>1434</v>
+      </c>
     </row>
     <row r="232" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="123" t="s">
@@ -38848,7 +39046,7 @@
         <v>180</v>
       </c>
       <c r="L234" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="235" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -39300,6 +39498,9 @@
       <c r="K255">
         <v>147</v>
       </c>
+      <c r="L255" t="s">
+        <v>1432</v>
+      </c>
     </row>
     <row r="256" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="120" t="s">
@@ -39324,7 +39525,7 @@
         <v>163</v>
       </c>
       <c r="L256" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -43866,6 +44067,9 @@
       <c r="K536">
         <v>199</v>
       </c>
+      <c r="L536" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="537" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A537" s="123" t="s">
@@ -43888,7 +44092,7 @@
         <v>100</v>
       </c>
       <c r="L537" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="538" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -44025,7 +44229,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="545" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A545" s="123" t="s">
         <v>389</v>
       </c>
@@ -44048,7 +44252,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A546" s="123" t="s">
         <v>383</v>
       </c>
@@ -44071,7 +44275,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="547" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A547" s="123" t="s">
         <v>366</v>
       </c>
@@ -44094,7 +44298,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="124" t="s">
         <v>928</v>
       </c>
@@ -44114,7 +44318,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A549" s="123" t="s">
         <v>193</v>
       </c>
@@ -44137,7 +44341,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="124" t="s">
         <v>929</v>
       </c>
@@ -44157,7 +44361,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="551" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="124" t="s">
         <v>522</v>
       </c>
@@ -44171,7 +44375,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="552" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A552" s="123" t="s">
         <v>335</v>
       </c>
@@ -44193,8 +44397,11 @@
       <c r="K552">
         <v>160</v>
       </c>
-    </row>
-    <row r="553" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L552" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A553" s="123" t="s">
         <v>194</v>
       </c>
@@ -44216,8 +44423,11 @@
       <c r="K553">
         <v>99</v>
       </c>
-    </row>
-    <row r="554" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L553" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="28">
         <v>13</v>
       </c>
@@ -44234,7 +44444,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="555" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="28">
         <v>19</v>
       </c>
@@ -44251,7 +44461,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="556" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="123" t="s">
         <v>541</v>
       </c>
@@ -44265,7 +44475,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="557" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="123" t="s">
         <v>542</v>
       </c>
@@ -44279,7 +44489,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="558" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="28">
         <v>20</v>
       </c>
@@ -44299,7 +44509,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="559" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="28">
         <v>29</v>
       </c>
@@ -44316,7 +44526,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="560" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A560" s="163">
         <v>49</v>
       </c>
